--- a/ind-IRs-to-composite-shocks.xlsx
+++ b/ind-IRs-to-composite-shocks.xlsx
@@ -760,196 +760,196 @@
         <v>112</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01874584519050426</v>
+        <v>0.2552873667555072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8612450841021136</v>
+        <v>0.6676891757476888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.184438962205305</v>
+        <v>0.08579377046562543</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09923193851575725</v>
+        <v>0.02500088249570575</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0275095907556038</v>
+        <v>0.01361732934215996</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08711114563434262</v>
+        <v>-0.04179156866419736</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0266233829715963</v>
+        <v>0.01250447328900495</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.002333398334316698</v>
+        <v>-0.001903019951234428</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01713837453231784</v>
+        <v>0.006431930987387645</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003529804857183783</v>
+        <v>-0.0005393192943256775</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.003412973082101142</v>
+        <v>-0.001707209370541448</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001899557846744827</v>
+        <v>0.0009564078422869642</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.001548225935503156</v>
+        <v>-0.0003937064415429343</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003760892900796817</v>
+        <v>0.0001224841508214303</v>
       </c>
       <c r="P2" t="n">
-        <v>7.005910069610972e-05</v>
+        <v>-7.162103938632067e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002284552879822535</v>
+        <v>5.515701417913443e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.9998242690888831</v>
+        <v>-0.9668651173313761</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6638925868440615</v>
+        <v>0.8169165320469336</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3311085208402329</v>
+        <v>0.2163558926252868</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09992821335027942</v>
+        <v>-0.003794425202396467</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.07161463785173054</v>
+        <v>-0.07066715891576128</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.06915735251455901</v>
+        <v>-0.01811875756076282</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05624411959160797</v>
+        <v>0.04276600739835933</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.01661994111026568</v>
+        <v>-0.02061782844198257</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.001659133688120995</v>
+        <v>-0.0001246248246200663</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.007808920506142441</v>
+        <v>0.005111094612696754</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.003420875594393477</v>
+        <v>0.0007305140775439998</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.001825988606240639</v>
+        <v>-0.001397911061578013</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.004003697375099016</v>
+        <v>-0.001214852098997959</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.002106788622314963</v>
+        <v>0.001255063899261948</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0008819551955136852</v>
+        <v>-1.524909205418918e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0006869603096462624</v>
+        <v>-0.0003191801300295292</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9998245071677462</v>
+        <v>0.9668650850750354</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1421943749832636</v>
+        <v>0.1019878567143208</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.2722668630579592</v>
+        <v>0.1231585351397718</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.06502372324144834</v>
+        <v>-0.05457909060328886</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.02102696503884429</v>
+        <v>-0.002820419490408278</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.02467060646347761</v>
+        <v>0.004579508617840299</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.735332294552656e-06</v>
+        <v>-0.007993640332566887</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0201883802775327</v>
+        <v>0.009485955537711565</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.001934094074084835</v>
+        <v>-0.0004070241664856397</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0002186709983970052</v>
+        <v>-2.762820362843077e-05</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.002118630744784628</v>
+        <v>-0.0007409699668993957</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0003903936443594442</v>
+        <v>-0.0001184859949735214</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0005732908844606243</v>
+        <v>0.0004717355966117338</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.000588892305350602</v>
+        <v>-0.0002471799279599591</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0003460428109549795</v>
+        <v>4.314110589609891e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001334487266581404</v>
+        <v>2.342237292742465e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01874535749312021</v>
+        <v>0.2552869398792871</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1085855451660102</v>
+        <v>0.02223780829656834</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.4527908237348561</v>
+        <v>0.3523287231049441</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.06553642658503968</v>
+        <v>-0.09591635035002274</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.09410020357335308</v>
+        <v>-0.07047284906110234</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.005954600660463182</v>
+        <v>0.0186896694085274</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.03508776013278944</v>
+        <v>0.01385528157386242</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.004174808073944476</v>
+        <v>0.002349226195820749</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01530285201372915</v>
+        <v>-0.00998995555397381</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00819498767603785</v>
+        <v>0.004889890719077581</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.004524322418828891</v>
+        <v>0.001691919472609111</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.003923821428062472</v>
+        <v>-0.002001376861599638</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.001965424379322601</v>
+        <v>-0.0002378398555284965</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.001499887878590568</v>
+        <v>0.0004587444981323517</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.001125718754025783</v>
+        <v>0.000285598530263501</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.0008633146643972985</v>
+        <v>-0.0003045710067490282</v>
       </c>
     </row>
     <row r="3">
@@ -957,196 +957,196 @@
         <v>124</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2380482056498149</v>
+        <v>0.4050763767361135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7152977243794812</v>
+        <v>0.5120855780847893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01888243213873034</v>
+        <v>0.03405821919655087</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1114891138910958</v>
+        <v>0.06416505370658369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04678187210191478</v>
+        <v>0.04376347402652232</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.03160313206633943</v>
+        <v>-0.06523268811044602</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04817726251034782</v>
+        <v>0.007386034914570921</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009010158038198655</v>
+        <v>-0.00461266739393517</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007596452365740541</v>
+        <v>-0.004731948822204231</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.005066830708883098</v>
+        <v>-0.003942581874057328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001804935080982615</v>
+        <v>0.003507193515970427</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002705692653104988</v>
+        <v>-0.001188852263396248</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001527971005800251</v>
+        <v>0.0009696780712434593</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0008442126892034467</v>
+        <v>-1.107734244025991e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>-4.609306254581311e-05</v>
+        <v>-6.157347906401409e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001370613537076383</v>
+        <v>4.200708665047636e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.9712536164751415</v>
+        <v>-0.9142830715360258</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9436320791693069</v>
+        <v>1.028720385152508</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06880652982603876</v>
+        <v>-0.04673179311135221</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01227849494714544</v>
+        <v>-0.08098576017745185</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.121317309171865</v>
+        <v>-0.008832142633465531</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01290071015536836</v>
+        <v>0.03941141986833962</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05659279988057426</v>
+        <v>-0.01200947159076038</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01673646683710183</v>
+        <v>0.00395318411345008</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.02240332478965867</v>
+        <v>-0.01125752534664982</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.003558315428102867</v>
+        <v>-0.003101814236554725</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.003655288300147169</v>
+        <v>0.006841985201295434</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.006759167911157113</v>
+        <v>-0.0008106332535820857</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.002160714626270448</v>
+        <v>-0.001602774588835361</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.00157864908920885</v>
+        <v>7.151187711691689e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.0002270590952535179</v>
+        <v>0.0007582302560917137</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001137451648644427</v>
+        <v>-0.0001417299941277904</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.9712530259042055</v>
+        <v>0.9142832392607141</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.05958071464509226</v>
+        <v>0.03581384028903888</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.097201381710024</v>
+        <v>0.08969006914268163</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.05112069325036307</v>
+        <v>0.02024023003143011</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.03610747282884386</v>
+        <v>-0.002926116157024039</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.015934725540217</v>
+        <v>-0.03041546704494269</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.01830104929817129</v>
+        <v>0.006629297656421902</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.001389868784517768</v>
+        <v>-0.0124137076851851</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.00600360553728053</v>
+        <v>-0.002031726850731813</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.0007674638346442618</v>
+        <v>0.002352213030864659</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.002936598010843134</v>
+        <v>-1.148020128644299e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0001016961563978016</v>
+        <v>-0.000247307431735858</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0006883172109879096</v>
+        <v>0.0004785481240292743</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.0002049528554919699</v>
+        <v>0.0001457861619967204</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0003121274512746805</v>
+        <v>-7.018348746302297e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.06251300816906e-05</v>
+        <v>8.760229064980772e-05</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2380481701237545</v>
+        <v>0.4050761207783605</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1967206719202862</v>
+        <v>0.1155862883417625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.06726047919902031</v>
+        <v>-0.1430637644973335</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.05669396984524664</v>
+        <v>0.06008217863876134</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.03161943701053949</v>
+        <v>0.07396522583432556</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.03896030518471998</v>
+        <v>-0.05075486341933101</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.002945046830161745</v>
+        <v>-0.00458461459573293</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.004588850456179881</v>
+        <v>-7.785622219581064e-05</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.005035724094883901</v>
+        <v>0.002682928118181173</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.003765761898841285</v>
+        <v>-0.0007314428214345588</v>
       </c>
       <c r="BH3" t="n">
-        <v>9.745434825959658e-05</v>
+        <v>0.0001402515473226643</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.001264372853216954</v>
+        <v>-0.001789214876935175</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.001134713856738382</v>
+        <v>0.001293340690867532</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0004321556408748537</v>
+        <v>0.0003896954610354395</v>
       </c>
       <c r="BL3" t="n">
-        <v>-6.350422487011214e-05</v>
+        <v>-0.0003483904427190865</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.000292343744775995</v>
+        <v>-0.0001307628006025799</v>
       </c>
     </row>
     <row r="4">
@@ -1154,196 +1154,196 @@
         <v>128</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09427364337806129</v>
+        <v>0.163747127307401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8322970829614549</v>
+        <v>0.7547676418206392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05343413231273546</v>
+        <v>0.05517322664084649</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1760287250542621</v>
+        <v>0.1069999948224127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01272209586027288</v>
+        <v>0.02457799466219577</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04756830978042804</v>
+        <v>-0.07753114127831502</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04675242598836114</v>
+        <v>-0.01474239497513978</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004804770719134398</v>
+        <v>-0.01753811301327745</v>
       </c>
       <c r="J4" t="n">
-        <v>2.459394859417961e-06</v>
+        <v>-0.01698289028740566</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.006634240596351222</v>
+        <v>-0.002090956104020308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001829611040079455</v>
+        <v>0.006452269463133385</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002310071591260636</v>
+        <v>0.0002322469381286892</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0004224966343300904</v>
+        <v>0.0027668232799885</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.001430915455980972</v>
+        <v>0.00100784530069265</v>
       </c>
       <c r="P4" t="n">
-        <v>7.751000640833568e-05</v>
+        <v>0.0002590296752376376</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0003102372426040578</v>
+        <v>-3.915488935723424e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.9955469143719802</v>
+        <v>-0.9865023873981118</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8117827651686466</v>
+        <v>0.8912096544284557</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1452507384573486</v>
+        <v>0.06266362713408809</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1298337606364937</v>
+        <v>0.06644390846488624</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.131675245322604</v>
+        <v>-0.0210505205420252</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.01281573248522941</v>
+        <v>0.0230898660683645</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05221292613460894</v>
+        <v>-0.0144479851841789</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0221346697434048</v>
+        <v>-0.002426892818088349</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.02251087139080177</v>
+        <v>-0.02263325110097066</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.006019805952569277</v>
+        <v>-0.002873872858154298</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.004180930076870303</v>
+        <v>0.005649195743252487</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.006248567736388001</v>
+        <v>-0.000951478920590859</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.002479419183038937</v>
+        <v>-0.0001778173142385812</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.001951045671999375</v>
+        <v>0.001262291698026094</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0001723556879650348</v>
+        <v>0.0008560414640869239</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.001182320736519113</v>
+        <v>-0.0001103788648000816</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9955463423596536</v>
+        <v>0.9865017159016038</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.04044880804514508</v>
+        <v>0.04065258083234974</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1865759389271889</v>
+        <v>0.1482146092834169</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.09127824645878731</v>
+        <v>0.07720299104036313</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.0001359072518262736</v>
+        <v>-0.03274800081657381</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.003926756978729206</v>
+        <v>-0.07095715620301951</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01434472206454055</v>
+        <v>-0.003733941559928588</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.002158902307014391</v>
+        <v>-0.02319998439946825</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.003390685803488399</v>
+        <v>-0.004295369642823423</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.004052333220409669</v>
+        <v>0.00270875529842984</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.001118168655534396</v>
+        <v>0.001763114654731701</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0005852272511978551</v>
+        <v>0.002556762640933575</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0004821769955463431</v>
+        <v>0.002342954471107076</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.0005830851999614946</v>
+        <v>0.0001170499600344355</v>
       </c>
       <c r="AV4" t="n">
-        <v>8.110737210458151e-06</v>
+        <v>-4.276415678579457e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.391549799630657e-05</v>
+        <v>3.598311349621819e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.09427309271793387</v>
+        <v>0.1637470899013591</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1586479062305196</v>
+        <v>0.1263552360685677</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.1014379460568049</v>
+        <v>0.08195470833447496</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1093524057967098</v>
+        <v>0.1284020650510224</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.07066123207542124</v>
+        <v>0.009214384483135208</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.005845470354527033</v>
+        <v>-0.06734738910670285</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.01120178285156325</v>
+        <v>0.01230592208471124</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.01406738187857529</v>
+        <v>-0.007733213892452778</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.007623896785960714</v>
+        <v>-0.009431214706573376</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.002783506947175183</v>
+        <v>-0.004102356859721746</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0004555072611916666</v>
+        <v>0.00273250800027959</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.003024520425073709</v>
+        <v>0.0007503577622520199</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.0008245884641393502</v>
+        <v>0.001694704569465064</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.0006406250887655462</v>
+        <v>-0.0001278749895948242</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.0001927569000434905</v>
+        <v>0.0002106901372802523</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0005088225621938045</v>
+        <v>0.0002770737068385136</v>
       </c>
     </row>
     <row r="5">
@@ -1351,196 +1351,196 @@
         <v>132</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1603603730884562</v>
+        <v>0.3014840648981372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7629383576561022</v>
+        <v>0.6170345808376881</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01217639277692088</v>
+        <v>-0.009052623644342728</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1748298592694007</v>
+        <v>0.09797996318814514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08036477216086246</v>
+        <v>0.07414998348519954</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01959312639217541</v>
+        <v>-0.02514352853082445</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06665708270113507</v>
+        <v>0.03107819276789242</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02497943371961007</v>
+        <v>0.007931751822042109</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02057250706503563</v>
+        <v>0.001482627717176919</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001198887382842686</v>
+        <v>0.0002999336541603606</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002878334821449034</v>
+        <v>0.001604997217019302</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009292113754176302</v>
+        <v>0.0008566635845863836</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00348681534729879</v>
+        <v>0.0005909381321636618</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005358113054007194</v>
+        <v>-0.000379785145454416</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0007881778538380596</v>
+        <v>0.0001977115339218883</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001102602855957047</v>
+        <v>0.0001187604516377894</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.9870573760985576</v>
+        <v>-0.9534714479212365</v>
       </c>
       <c r="S5" t="n">
-        <v>0.80755361041886</v>
+        <v>0.9268024981592921</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06443208209774003</v>
+        <v>-0.03529070179572507</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1406714124242898</v>
+        <v>0.03385596906534435</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.06186794241277321</v>
+        <v>0.01421967173478375</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.07311391279364332</v>
+        <v>-0.02658173437919338</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08348515382735516</v>
+        <v>0.03518220482954122</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02906768735147147</v>
+        <v>0.01282359021138223</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.008404857988307163</v>
+        <v>-0.01255596882371861</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.006662200497230869</v>
+        <v>0.001253122153968114</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.001396494223967636</v>
+        <v>0.002872659164556462</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01120084297494404</v>
+        <v>0.001614175460171545</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0008966699969245305</v>
+        <v>-0.0009585138826632751</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.00154143861148655</v>
+        <v>-0.0004838117191142233</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0004350216241721012</v>
+        <v>0.0003747655085633526</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001302093456122716</v>
+        <v>0.0003435222340294478</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.9870575975402319</v>
+        <v>0.9534721086502785</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01468969807370619</v>
+        <v>0.01090179852448404</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1122870571970488</v>
+        <v>0.06994343640749459</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1376990681091059</v>
+        <v>0.09383386439146232</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.06620443205243105</v>
+        <v>0.04679819301181654</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0217103154308463</v>
+        <v>-0.007306513628481545</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02520038538139469</v>
+        <v>0.01625615058532451</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.02478220044110018</v>
+        <v>0.001326181157260598</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02096689684482123</v>
+        <v>0.007790821919668226</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.001664210517024055</v>
+        <v>-0.001208458117235327</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.006161071933603681</v>
+        <v>0.0006762932114802441</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.004601833813900166</v>
+        <v>0.0002813143381182618</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.003959353202220776</v>
+        <v>0.0009303025012793606</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0004187576342218285</v>
+        <v>-0.0002291453320103746</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0007251960961251027</v>
+        <v>6.558764188177888e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0009100827076800643</v>
+        <v>-2.315963445900873e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1603604540852227</v>
+        <v>0.3014842251825339</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.06277430700004774</v>
+        <v>0.04784754409172309</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.04011867845233279</v>
+        <v>-0.06152678059297737</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.2054046701851247</v>
+        <v>0.1922385855041298</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.1017718869144696</v>
+        <v>-0.02368668094491693</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01719200287234511</v>
+        <v>-0.02041562981160482</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.01259204063803061</v>
+        <v>0.007773878473986123</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.03610266216436114</v>
+        <v>0.01579710362119446</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.005376272002326501</v>
+        <v>-0.0004207754175793439</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.004980805288757676</v>
+        <v>-0.002351067641320989</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.00221627339674425</v>
+        <v>-0.001260590261182256</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.007466790133325661</v>
+        <v>0.002668274215445479</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.0008237002468123789</v>
+        <v>0.0001678396844858434</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.0001455137636389185</v>
+        <v>-0.0004768933666213541</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.0003398402341992498</v>
+        <v>-0.0002477643521301666</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.001435259673649267</v>
+        <v>0.0003252764625862348</v>
       </c>
     </row>
     <row r="6">
@@ -1548,196 +1548,196 @@
         <v>134</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1412962420867634</v>
+        <v>0.3218743443448274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8088938968135025</v>
+        <v>0.6009113140854493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01992192875832997</v>
+        <v>0.009800510101974129</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1663855142507167</v>
+        <v>0.07382714126247338</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.009784366477840223</v>
+        <v>0.003269019036089294</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09270659573607552</v>
+        <v>-0.08583254228283095</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0220144427118669</v>
+        <v>-0.00177245941815554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01023495331145518</v>
+        <v>-0.01396606710493221</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002224965032084825</v>
+        <v>-0.002544327391305124</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.004750197502559164</v>
+        <v>0.0005598923574024624</v>
       </c>
       <c r="L6" t="n">
-        <v>6.294161865006765e-05</v>
+        <v>0.004677646114583442</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002546175656160683</v>
+        <v>0.0008220289889591571</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001048570818366182</v>
+        <v>0.001766667539976501</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.001199203135013862</v>
+        <v>-0.0005204605421661292</v>
       </c>
       <c r="P6" t="n">
-        <v>1.429150250274113e-05</v>
+        <v>-0.0001144022965175992</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.50224898082718e-05</v>
+        <v>-0.000133870488740826</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.9899677567024937</v>
+        <v>-0.9467834908717004</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8659274452575934</v>
+        <v>0.953568732726719</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03720422622694416</v>
+        <v>-0.04430606761690962</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2079617255258725</v>
+        <v>0.1118695896342425</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.09396918188800213</v>
+        <v>-0.05057435539312192</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.05449415805382206</v>
+        <v>-0.01361025745931714</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03057919248260206</v>
+        <v>0.002066897290895112</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01427047743768737</v>
+        <v>0.001468495016528505</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.0180901952762636</v>
+        <v>-0.0209219855749126</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.003863090020349602</v>
+        <v>0.000109436826792411</v>
       </c>
       <c r="AB6" t="n">
-        <v>-9.016254461726048e-05</v>
+        <v>0.006023326197068705</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.00678755392297247</v>
+        <v>0.001001937960586412</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.00155483540468744</v>
+        <v>-0.0003126037565190539</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.00148850507086426</v>
+        <v>-0.0003661983206423958</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.0002162319018141046</v>
+        <v>0.0005737775301834407</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.001003496009241109</v>
+        <v>0.0001927658097073511</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9899673975309417</v>
+        <v>0.946782503332531</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.06246631818680801</v>
+        <v>0.02338544592472017</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1330517077096908</v>
+        <v>0.08597496479686098</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.08270264607700505</v>
+        <v>0.02360705924145643</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03447526778395502</v>
+        <v>-0.03713583058869591</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.03743605352409538</v>
+        <v>-0.04794494999387285</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.007467809917844607</v>
+        <v>-0.008256883422039535</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.00416507740020799</v>
+        <v>-0.01182358030756277</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.007809269707270633</v>
+        <v>0.004620427440797067</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.004815690653752606</v>
+        <v>0.003127068575169708</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.000429629159091624</v>
+        <v>0.001210747474018284</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0007236647709196569</v>
+        <v>0.001478826882628441</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.001183232730066738</v>
+        <v>0.0008211980819571238</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.0004696482510911359</v>
+        <v>-0.0002628735229835277</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0002339513590049762</v>
+        <v>-0.0002994174533330365</v>
       </c>
       <c r="AW6" t="n">
-        <v>-9.299363976885634e-05</v>
+        <v>-0.0001819891114641002</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.1412980417507734</v>
+        <v>0.3218748426501474</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.1053270208535043</v>
+        <v>0.008560723295974827</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.08390999650779753</v>
+        <v>0.0485532037802679</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.1985343087293759</v>
+        <v>0.1509640685095355</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.09035206880733687</v>
+        <v>-0.02000767578445432</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.02510665091075615</v>
+        <v>-0.06450459420705387</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.008308142953610998</v>
+        <v>0.001008682221007282</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.01784255576648899</v>
+        <v>0.0008614407955673323</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.003399613906398419</v>
+        <v>-6.709622187536226e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.005404162101801788</v>
+        <v>-0.003729714547289141</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.002291058679224731</v>
+        <v>3.048599108331672e-05</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.004694399610076537</v>
+        <v>0.002655088448053246</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.266436098398504e-05</v>
+        <v>0.001552993602791296</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.000628472456143433</v>
+        <v>-0.0009009620872255068</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.0008444807876757075</v>
+        <v>-0.0003474049762306756</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0005951235632602701</v>
+        <v>0.0001913461410816207</v>
       </c>
     </row>
     <row r="7">
@@ -1745,196 +1745,196 @@
         <v>136</v>
       </c>
       <c r="B7" t="n">
-        <v>0.269266225677576</v>
+        <v>0.3133533813417362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7169381582575971</v>
+        <v>0.6553544138053993</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03485324578529115</v>
+        <v>0.06380251416658241</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1143284558809908</v>
+        <v>0.07652247222514967</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02195790326368755</v>
+        <v>0.001386447025057608</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01902432821805299</v>
+        <v>-0.01604746806987324</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0807482285677282</v>
+        <v>0.02728811117417669</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000533551675528177</v>
+        <v>-0.008468178975677924</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01523262522836718</v>
+        <v>-0.0007625327810686609</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006169655116246243</v>
+        <v>0.002657072963597103</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003430394740518869</v>
+        <v>-0.0004313377700041161</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009007808655772644</v>
+        <v>0.0006940248881600383</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.00108483138775339</v>
+        <v>-0.0009148607858413189</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00236799575488574</v>
+        <v>0.0001909339223956638</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001323321792241928</v>
+        <v>0.0004025282386317117</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0003159905303457543</v>
+        <v>-0.0002453706625220122</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.963067354814795</v>
+        <v>-0.9496365089558276</v>
       </c>
       <c r="S7" t="n">
-        <v>0.893282072091298</v>
+        <v>0.9287359014661591</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03262450547337702</v>
+        <v>0.007254510737552157</v>
       </c>
       <c r="U7" t="n">
-        <v>0.148090454558944</v>
+        <v>0.08578580282521736</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2164042651583948</v>
+        <v>-0.1292826987999718</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001494555675902287</v>
+        <v>0.03046521072601028</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1204582517280122</v>
+        <v>0.0523165100170482</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.006351041586444224</v>
+        <v>-0.01865456433091487</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.02448000599632063</v>
+        <v>-0.02064620186379216</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0001680122788794167</v>
+        <v>0.01341505932982973</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.008733172115922352</v>
+        <v>0.003263124834749759</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01161367355400674</v>
+        <v>-0.00128328172438415</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01068266597914077</v>
+        <v>-0.004270360533452732</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.001353762359380088</v>
+        <v>0.002128519765708392</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.002740536420534857</v>
+        <v>0.001335103326996236</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0004263372788869465</v>
+        <v>-0.0009261268209213864</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.9630660746526465</v>
+        <v>0.9496361411346079</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.04290596760841357</v>
+        <v>0.04838608395797787</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1561758796327112</v>
+        <v>0.1377647368826084</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.08233614966173082</v>
+        <v>0.0757286035439029</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.02548449911482978</v>
+        <v>-0.05528558769070963</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1002961521477526</v>
+        <v>0.02660926940130114</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.004658160486053966</v>
+        <v>-0.001426051924848359</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.02354320177915249</v>
+        <v>0.001424265115444608</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.01061290774311723</v>
+        <v>0.002644348130121771</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.00302175055964268</v>
+        <v>-0.004172074498432723</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.01339082550687865</v>
+        <v>0.002840309263229025</v>
       </c>
       <c r="AS7" t="n">
-        <v>-2.456655910081964e-05</v>
+        <v>-6.675658655631487e-06</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.002350422699179047</v>
+        <v>-0.0007775053882913899</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.001607436541710135</v>
+        <v>0.0002768143316346876</v>
       </c>
       <c r="AV7" t="n">
-        <v>-5.919448565499714e-05</v>
+        <v>-1.314230542866793e-05</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.001656105713701601</v>
+        <v>0.0001204855983302063</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2692658272901359</v>
+        <v>0.3133529773908245</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.1126574978154227</v>
+        <v>-0.1442485837515199</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.244690733173493</v>
+        <v>0.204888954699173</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1068182659854383</v>
+        <v>0.1655700204243138</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.2221892904738451</v>
+        <v>-0.1728874906800364</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1005194497876681</v>
+        <v>0.03155289269277192</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.01129983230992023</v>
+        <v>0.01892576857856584</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.03343403959559242</v>
+        <v>0.01076528899056047</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.02179555314035561</v>
+        <v>-0.01288205223256324</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01332668085915139</v>
+        <v>-0.006252711466080895</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.02124837145631471</v>
+        <v>0.009021912413421268</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.0002395212846839944</v>
+        <v>0.001055861323757881</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.003377786305649088</v>
+        <v>-0.004051527025968933</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.0001192389780212614</v>
+        <v>0.0004071330918207086</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0006187923548443035</v>
+        <v>0.001052079706952356</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.002437302673856489</v>
+        <v>0.0002426630285033038</v>
       </c>
     </row>
     <row r="8">
@@ -1942,196 +1942,196 @@
         <v>138</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2221119935818954</v>
+        <v>0.3690196134760966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7083978742776105</v>
+        <v>0.5346030248682327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01960250507142497</v>
+        <v>0.01426606160277157</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1540127006904187</v>
+        <v>0.07369428322658379</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01722018743781173</v>
+        <v>0.003896419016868203</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0561514342311589</v>
+        <v>-0.07334033583726092</v>
       </c>
       <c r="H8" t="n">
-        <v>0.015976564732692</v>
+        <v>-0.007490480184694732</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.005651620362310353</v>
+        <v>-0.01344715413018998</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003971909700224992</v>
+        <v>-2.413722214015743e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.007941410824408416</v>
+        <v>-0.001754991369753935</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000684420560543929</v>
+        <v>0.004494024267691406</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00150132687507696</v>
+        <v>0.0004756027416513238</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001607975919434018</v>
+        <v>0.002115272539387942</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.001270287264125886</v>
+        <v>-0.00053849814024966</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002235442246857945</v>
+        <v>-1.396041172266977e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.045395097321342e-05</v>
+        <v>-0.0002420585548833032</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.9750217112450079</v>
+        <v>-0.9294216932978593</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8627806418067511</v>
+        <v>0.9062894341106915</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05442008262024683</v>
+        <v>-0.01545745796927287</v>
       </c>
       <c r="U8" t="n">
-        <v>0.201962301953853</v>
+        <v>0.1337790502361365</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.157392986859852</v>
+        <v>-0.08787527250613202</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0236218613225793</v>
+        <v>0.002399079690214447</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03354364257170887</v>
+        <v>-0.0002426061749983837</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03080573559162102</v>
+        <v>0.009130042692512972</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.02498984194350522</v>
+        <v>-0.02442755107577141</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.0101604484402942</v>
+        <v>-0.002684723975489245</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0008878390337764455</v>
+        <v>0.006238129433973213</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01077489061999535</v>
+        <v>0.00313762079392421</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.002092430406813329</v>
+        <v>-0.001049348754155117</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.002880090618889782</v>
+        <v>-0.001129579746265172</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.001153702321263874</v>
+        <v>0.0007581734929597609</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.00213793896025215</v>
+        <v>0.0005567030493763932</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.9750209392473254</v>
+        <v>0.9294213619481695</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.02774748437558159</v>
+        <v>0.01113754321955492</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1553374588659281</v>
+        <v>0.1037216073695193</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.03744100095595911</v>
+        <v>-0.0003067497743215325</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.008687323527034186</v>
+        <v>-0.02415686771544796</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.02158461533228556</v>
+        <v>-0.04459032630148611</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.006550262864331724</v>
+        <v>-0.008506229563403984</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.003650547197600278</v>
+        <v>-0.01271512642301532</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.005391364732189251</v>
+        <v>0.003968686557659609</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.003542034436268867</v>
+        <v>0.002969432486869025</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0002192385418135953</v>
+        <v>0.001447630911523756</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.0004029167715121006</v>
+        <v>0.0009646893023234651</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001324451670622862</v>
+        <v>0.0008048073872721229</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0.0002986477304446627</v>
+        <v>3.37927315822054e-05</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.0001129987715233957</v>
+        <v>-0.0002740482211880662</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.000226426747319816</v>
+        <v>-0.0002066345143723707</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.222111973680744</v>
+        <v>0.3690200704147314</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.06359117841087975</v>
+        <v>-0.0428275229458423</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.07251573702536857</v>
+        <v>0.06953906358794225</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.1599394115491655</v>
+        <v>0.1353062425456879</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.07010134489963753</v>
+        <v>0.003327179282322014</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.01417916567674831</v>
+        <v>-0.07277803711484562</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.01608923344886852</v>
+        <v>-0.003754687755315944</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0237057347732173</v>
+        <v>0.002658456316091975</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.003300884986365074</v>
+        <v>0.004511416209470761</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.004364447787259768</v>
+        <v>-0.006394664429567453</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.004902814026569606</v>
+        <v>-0.001046292282447374</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.004756657472931961</v>
+        <v>0.002454081969027697</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0007950419788543534</v>
+        <v>0.002645342307915081</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.0003058491318546711</v>
+        <v>-0.0009089584130587146</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.001539932155179662</v>
+        <v>-0.0007532142698214627</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0005798917359986496</v>
+        <v>0.000108088504301159</v>
       </c>
     </row>
     <row r="9">
@@ -2139,196 +2139,196 @@
         <v>144</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4515859872912349</v>
+        <v>0.4848715207777904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4831611767080997</v>
+        <v>0.4365592493303426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05147310809931348</v>
+        <v>0.0743059915200984</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04709075247568941</v>
+        <v>0.03967436503999441</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07362908656771712</v>
+        <v>0.04280513247576443</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01632467287063443</v>
+        <v>-0.03671485278578657</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005839292916236896</v>
+        <v>-0.007352409569211715</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001439882011686842</v>
+        <v>-0.006817114616726799</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004793489892123283</v>
+        <v>-0.004029909929445291</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.002513649349008285</v>
+        <v>-0.002012509353439759</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0001790536158899484</v>
+        <v>0.001027195175789021</v>
       </c>
       <c r="M9" t="n">
-        <v>-9.179577129933732e-05</v>
+        <v>-0.0003090681321341154</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0008028417711898864</v>
+        <v>0.0006210959764517867</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0002123379352228414</v>
+        <v>0.0002076486585705659</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0002335339637808694</v>
+        <v>4.483108590231799e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.640793660071752e-05</v>
+        <v>5.95227052413719e-07</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.8922100666566363</v>
+        <v>-0.8745858887191884</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8196401177917962</v>
+        <v>0.8626299649933263</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.02956677683006919</v>
+        <v>-0.07563128977895581</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1006076194094947</v>
+        <v>0.03562880770911338</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0008835570183434657</v>
+        <v>0.08771517237270941</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.02581608826796882</v>
+        <v>-0.02261284868497719</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01648102527969743</v>
+        <v>-0.01440404321751343</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02025462745908846</v>
+        <v>0.01306017870149367</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.00657631409081656</v>
+        <v>-0.008908406215063114</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.009256625464004131</v>
+        <v>-0.005154650604135904</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.003171966229855286</v>
+        <v>0.002303046267587827</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.004063340855867147</v>
+        <v>1.134186258717326e-05</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.0007085756953363825</v>
+        <v>-0.0004366625526336867</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.00213307799355611</v>
+        <v>0.0001749841581485149</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0001818883583201601</v>
+        <v>9.29311893106814e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0009833825960486721</v>
+        <v>0.0001173625181723884</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.8922334451409348</v>
+        <v>0.8745852236173106</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.09633625968490883</v>
+        <v>0.100518772645247</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.03236982149938398</v>
+        <v>0.05316197100436638</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.04471502590384499</v>
+        <v>0.02134950290152021</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.05618108128084282</v>
+        <v>0.01635290611740973</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.004710829065458833</v>
+        <v>-0.02426422830430199</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.005218210677502417</v>
+        <v>-0.007989735858803077</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.002109137448916809</v>
+        <v>-0.01182214995362367</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.006563425515926473</v>
+        <v>0.001673152068411656</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0009556204717813604</v>
+        <v>0.0009172164187982975</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.002296934294240435</v>
+        <v>-0.0009071390714378131</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.001043051226587403</v>
+        <v>-0.0005271379367352159</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.001224956842644644</v>
+        <v>0.001149175986355469</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0005050830734513003</v>
+        <v>0.0002846167759060306</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.0004768130176841171</v>
+        <v>-0.000180934997326541</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0003140129104701388</v>
+        <v>-0.0001083894473051702</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.4516008664877377</v>
+        <v>0.4848714789940338</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.2073299344116487</v>
+        <v>-0.1897697897233316</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.02171350014494808</v>
+        <v>-0.04849691054611589</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.2372596726480428</v>
+        <v>0.3081217919108781</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.02808155552688297</v>
+        <v>0.01001659135663708</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.09549613638976784</v>
+        <v>-0.1124441333158163</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.004398392354998022</v>
+        <v>0.009942973810742115</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.041968572030206</v>
+        <v>0.03192513241757161</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.008930995453790502</v>
+        <v>-0.006343978036680374</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01874105417630908</v>
+        <v>-0.01398594078538121</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.005862572361001994</v>
+        <v>-0.000716567207291331</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.008042134182744957</v>
+        <v>0.005669452698007783</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.003821575002473923</v>
+        <v>0.001113173087110683</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.003501629345999119</v>
+        <v>-0.002573281156978433</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.002148332800213255</v>
+        <v>-0.0004268549992955522</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.00142507943224256</v>
+        <v>0.001226095727696189</v>
       </c>
     </row>
     <row r="10">
@@ -2336,196 +2336,196 @@
         <v>146</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1147479197085659</v>
+        <v>0.3438387558303854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8428095657658797</v>
+        <v>0.590303299911781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03382312264249432</v>
+        <v>0.008156174413838705</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1745694588018139</v>
+        <v>0.07329955066322483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02145908799478332</v>
+        <v>0.01333156738983637</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08564891698484356</v>
+        <v>-0.06448827940663449</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00596234371813893</v>
+        <v>-0.01613133689362956</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.009086250499487403</v>
+        <v>-0.005375739152064869</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.008941101169136103</v>
+        <v>-0.00628839518291318</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.003360004657330328</v>
+        <v>-0.002261747984917314</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002178269132692663</v>
+        <v>0.004550680048434507</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001556282545992248</v>
+        <v>0.0008791412282790189</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0009686838231486069</v>
+        <v>0.001207921279411759</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0005577541097158468</v>
+        <v>7.32724473853082e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0002716941193948121</v>
+        <v>-1.785228023681531e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0001859451131399346</v>
+        <v>-7.898291263211857e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.9934048675266053</v>
+        <v>-0.9390299903016741</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8221920441520276</v>
+        <v>0.8573777649247527</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03050633875812486</v>
+        <v>0.001095283013438934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1931570903017206</v>
+        <v>0.143873406537388</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.004178602206428269</v>
+        <v>-0.03316115064511437</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.05830525261862191</v>
+        <v>-0.01801641104614364</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02391302750398643</v>
+        <v>-0.004264605020036087</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.003739954576446034</v>
+        <v>0.01188854139458275</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01826343748452768</v>
+        <v>-0.02045059901697651</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.004366674861581342</v>
+        <v>-0.008442000091565196</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.003368726604575864</v>
+        <v>0.007304815301326449</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001912675646252778</v>
+        <v>0.002185232427432215</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0005484112890688246</v>
+        <v>-0.0008704669946941608</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.0007408636451564982</v>
+        <v>-0.0008043666519089787</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0005981042657137052</v>
+        <v>0.0009281061529965847</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.000420147823583146</v>
+        <v>0.0003864400161937273</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.9934117854344938</v>
+        <v>0.9390290651883085</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.07164468372638258</v>
+        <v>0.03404173784593158</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1535801955396827</v>
+        <v>0.07753607999227037</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.1302285217834702</v>
+        <v>0.04730226292387678</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.0119498977905942</v>
+        <v>-0.008599166083046512</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.07174932889638821</v>
+        <v>-0.06468728866308543</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.0001552935578482313</v>
+        <v>-0.005555254170268055</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.00708667374161331</v>
+        <v>-0.008391566742589399</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0007501729010426298</v>
+        <v>-0.0001404847703504688</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.005218662399315852</v>
+        <v>0.001308220351237278</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001104042336340337</v>
+        <v>0.001075416958737245</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.002194148818512084</v>
+        <v>0.001273733813126107</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.001083250800429951</v>
+        <v>0.0014075995684579</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0.0007770800062538029</v>
+        <v>-3.225019846662166e-05</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.788314029455211e-05</v>
+        <v>-0.0004562826323109343</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0001743963345340284</v>
+        <v>1.634593869316613e-05</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1147118958530488</v>
+        <v>0.34383870941628</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.02618597576768454</v>
+        <v>-0.1276263225872404</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1434328598124581</v>
+        <v>0.1264534229485861</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.2328014059644556</v>
+        <v>0.1882480661909532</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.04697859891804577</v>
+        <v>0.02664558795370851</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.06639568853439319</v>
+        <v>-0.1210407186253386</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.01607108418989189</v>
+        <v>0.01412853001643217</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.008966915045066614</v>
+        <v>0.01340549056699247</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.008639743397296652</v>
+        <v>-0.001954511104808679</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.008439269669710588</v>
+        <v>-0.01386693362617031</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.00171931810785043</v>
+        <v>0.001285739694047217</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.003831809758514762</v>
+        <v>0.004394307212142502</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.0001007475821282744</v>
+        <v>0.002389104293517689</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.001338661919006884</v>
+        <v>-0.001935667579944032</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0002860323472702385</v>
+        <v>-0.0007079425286387953</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0005623140318358024</v>
+        <v>0.0008511347342567274</v>
       </c>
     </row>
     <row r="11">
@@ -2533,196 +2533,196 @@
         <v>156</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8402039333523552</v>
+        <v>0.8285065051263508</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02968717099587914</v>
+        <v>-0.009116949557401277</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1698672824312441</v>
+        <v>0.1503077039490209</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04633549918019234</v>
+        <v>-0.04426882778086644</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07574266097468059</v>
+        <v>0.09282045117950831</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03932219191915054</v>
+        <v>-0.03532130203864585</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0444812478325242</v>
+        <v>0.04216410789777053</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01001108220102871</v>
+        <v>-0.01061638951318255</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006350701948886409</v>
+        <v>0.007674330169801227</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.007459040673783199</v>
+        <v>-0.005442361573649645</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006584257596630427</v>
+        <v>0.006592701214672053</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.00102773232154473</v>
+        <v>-0.00155445515888092</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0009200330638131596</v>
+        <v>0.0007517290350977212</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001586625721940675</v>
+        <v>-0.0009968798296213174</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0009355461702387474</v>
+        <v>0.0009709726175560581</v>
       </c>
       <c r="Q11" t="n">
-        <v>-7.998060658278482e-05</v>
+        <v>-0.0001754846705176778</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.542271449827527</v>
+        <v>-0.5599789288883265</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8939340126156645</v>
+        <v>0.8923980123646371</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.4696785876467912</v>
+        <v>-0.4546070010507979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08819234066741148</v>
+        <v>0.09240473358645246</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01702091847887656</v>
+        <v>0.01454019092790881</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03628686391898214</v>
+        <v>0.04297738926513227</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.03020556865651121</v>
+        <v>-0.04281173587798721</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003200043098723708</v>
+        <v>0.01243190956358896</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.001601704464128827</v>
+        <v>0.0002527304556840938</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01028059649672415</v>
+        <v>0.006634880385583672</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.006078172074771335</v>
+        <v>-0.00601299285192557</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.000809031800743694</v>
+        <v>0.001594241259272235</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.001110870376903469</v>
+        <v>-0.0004337874634077027</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001857725131504075</v>
+        <v>0.001286271934256917</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.0006091553833263453</v>
+        <v>-0.0007690849209723297</v>
       </c>
       <c r="AG11" t="n">
-        <v>-2.602377870032312e-05</v>
+        <v>9.317131085023186e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.542270987941198</v>
+        <v>0.5599793607462776</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2439209939072953</v>
+        <v>0.2342072457335176</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.03647171436712409</v>
+        <v>0.0037128061908768</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.08131078705140758</v>
+        <v>-0.04950830903402097</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.419391099913945e-05</v>
+        <v>0.008739055096209512</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.06073425961367925</v>
+        <v>0.06384728332964361</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02094223931202479</v>
+        <v>0.01073787064342475</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.02096388423282563</v>
+        <v>-0.01785936653346162</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.008142685403123288</v>
+        <v>-0.004947762344992439</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.008109234270679342</v>
+        <v>0.01043537007172443</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.006518181819113001</v>
+        <v>0.003980771312461684</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.002628092332272238</v>
+        <v>-0.003040948205217336</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.002744666416337038</v>
+        <v>-0.001956230790964677</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.000632557660552829</v>
+        <v>0.001367507871072216</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.001457249852859</v>
+        <v>0.001033420025457455</v>
       </c>
       <c r="AW11" t="n">
-        <v>-6.499383213774191e-05</v>
+        <v>-0.000328403874714322</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.8402032736147497</v>
+        <v>0.8285075112462572</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.5218215775977826</v>
+        <v>-0.5331181206367409</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.1269387434796938</v>
+        <v>-0.08600564855125187</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.2012445635342126</v>
+        <v>0.1849971048494369</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.04370434019618027</v>
+        <v>0.05746904951874628</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0.04036077973471072</v>
+        <v>-0.06565314485125481</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.04193473873980103</v>
+        <v>-0.02646254283305099</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.02036546807771113</v>
+        <v>0.02517393117297324</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.01892013536282919</v>
+        <v>0.01476862585596161</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.005073509009532004</v>
+        <v>-0.008427301445497888</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.008556347964299375</v>
+        <v>-0.006446288080848985</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0007361239691417492</v>
+        <v>0.002269663531600917</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.003767033159185333</v>
+        <v>0.003377991437395915</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0004926836307121739</v>
+        <v>-0.000551772439424352</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.001665062068898456</v>
+        <v>-0.001420808161269304</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.0004027844433233377</v>
+        <v>-1.416522198216573e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2730,196 +2730,196 @@
         <v>158</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08036123970069339</v>
+        <v>0.1442316840833317</v>
       </c>
       <c r="C12" t="n">
-        <v>1.008490198248163</v>
+        <v>0.8953756339548492</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04066950213771273</v>
+        <v>0.04195669068889376</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03025348000585702</v>
+        <v>-0.007518307668600791</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03963271865139142</v>
+        <v>-0.01586062686836474</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1368031059819554</v>
+        <v>0.09399851653100702</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05126128114801808</v>
+        <v>0.03233865609620001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01939233614938273</v>
+        <v>-0.01294125105985659</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0195286684804971</v>
+        <v>-0.01612288196499425</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0256524719004239</v>
+        <v>0.01757372455905611</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01187371800955559</v>
+        <v>0.00839344221389114</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.00450711372849405</v>
+        <v>-0.004497726711633365</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.005057934478180182</v>
+        <v>-0.004427866027874624</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004161388861673256</v>
+        <v>0.003312481555496747</v>
       </c>
       <c r="P12" t="n">
-        <v>0.002783964930514171</v>
+        <v>0.00206167823973804</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0008171647835117354</v>
+        <v>-0.001027989758101308</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.9967649930525866</v>
+        <v>-0.9895439587673869</v>
       </c>
       <c r="S12" t="n">
-        <v>1.082849187377178</v>
+        <v>1.055645722001571</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06111729616258578</v>
+        <v>0.08677196433029352</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1245025658756496</v>
+        <v>-0.1305696651227911</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.2254529380911178</v>
+        <v>-0.2136801457918044</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2019505380604919</v>
+        <v>0.1989770107661301</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04610276951275404</v>
+        <v>0.04012082620859606</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.037254637679657</v>
+        <v>-0.03881115196396673</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.04693461813839756</v>
+        <v>-0.04808285344181627</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03440843991390335</v>
+        <v>0.03681418134217268</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01385201918603838</v>
+        <v>0.01397924645226205</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.007026869381002968</v>
+        <v>-0.009285219793996281</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.01034352112746336</v>
+        <v>-0.01132132231040826</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.00545841533832784</v>
+        <v>0.006890995416271964</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.003700622382166903</v>
+        <v>0.004110390528114549</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.00115914458757344</v>
+        <v>-0.00201601985324164</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.9967650942576513</v>
+        <v>0.9895445693518776</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2257346165144679</v>
+        <v>0.1706259437613352</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.01496654672036179</v>
+        <v>-0.009041860649422447</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.05662436855204651</v>
+        <v>0.07457932397919298</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0455965801150095</v>
+        <v>0.04975281560482313</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.07535011059440988</v>
+        <v>0.03049752869985035</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.009861423940318029</v>
+        <v>0.004700684891917883</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.01096953837918516</v>
+        <v>-0.002423131866778145</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.007658366853865247</v>
+        <v>0.005278903754262969</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0151532565390324</v>
+        <v>0.00727830034219515</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.001409120419023341</v>
+        <v>-0.0005698447089520836</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.003136482398562908</v>
+        <v>-0.001877692896257826</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0007107490379541629</v>
+        <v>0.0008849585771122793</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.002841968427798837</v>
+        <v>0.001438800341970536</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0004173692855013683</v>
+        <v>-0.000199744608844741</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.0007565191866686233</v>
+        <v>-0.0005175002199350187</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.08036154430611346</v>
+        <v>0.1442322714291229</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.3541505576320109</v>
+        <v>0.3127911302379672</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.03514880517125007</v>
+        <v>-0.08171181496803001</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.109606328414562</v>
+        <v>-0.0606690967259432</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.007346200025033323</v>
+        <v>0.03971063829441827</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.09967802258510572</v>
+        <v>0.0588490812012106</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0.01142221317579573</v>
+        <v>-0.01972909556518024</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.02937482959135312</v>
+        <v>-0.01756126934750882</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.001439151731916124</v>
+        <v>0.006808306288842757</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01890128881655739</v>
+        <v>0.01244982168115594</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0.0005217047327331801</v>
+        <v>-0.003472380158053039</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.006395202611718978</v>
+        <v>-0.004766874766020274</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.0005725856959265111</v>
+        <v>0.001070594757526572</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.003701632600091563</v>
+        <v>0.002835967509899117</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0003406496526844778</v>
+        <v>-0.0005489430581580002</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.001354091653405913</v>
+        <v>-0.001206706597459254</v>
       </c>
     </row>
     <row r="13">
@@ -2927,196 +2927,196 @@
         <v>174</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8028058773173249</v>
+        <v>0.8097009248676282</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07795028380217139</v>
+        <v>-0.0105673031512229</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1430847809132831</v>
+        <v>0.1646168531389416</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02795821455120696</v>
+        <v>0.008305395359478076</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.05306761754597815</v>
+        <v>-0.04858008079030213</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06112117533666644</v>
+        <v>-0.0469331759371571</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0234105538317017</v>
+        <v>-0.007790417763081009</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006915912191366783</v>
+        <v>0.0003351583417038999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002816370842589344</v>
+        <v>0.005933766894515583</v>
       </c>
       <c r="K13" t="n">
-        <v>0.009913534861467288</v>
+        <v>0.001288665764845348</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003307657484489727</v>
+        <v>0.0004408983471857822</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001180665115771198</v>
+        <v>0.001973426056066615</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0001678967470207539</v>
+        <v>-0.0005780685622264667</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.001819637369164521</v>
+        <v>-0.0003329815676745679</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0004581849004699348</v>
+        <v>-0.0002950203344999874</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.000348800472224688</v>
+        <v>-0.0001041022614697409</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.5962401735440119</v>
+        <v>-0.5868421878827332</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8390258996319817</v>
+        <v>0.9089438159509792</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.3183942863284416</v>
+        <v>-0.359748066357491</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1051512093695923</v>
+        <v>0.04608044501176083</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04035539024623128</v>
+        <v>0.02586973132441919</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1082518199871844</v>
+        <v>-0.07752673801323655</v>
       </c>
       <c r="X13" t="n">
-        <v>0.07348707889171487</v>
+        <v>0.07902416973953416</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.05027166290523209</v>
+        <v>-0.04638543100651267</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.008674126889512374</v>
+        <v>0.004429125303126133</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01089290806742128</v>
+        <v>0.01165508873149737</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.009320670047152722</v>
+        <v>-0.008715303023814527</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.008658497663474631</v>
+        <v>0.006497373119206425</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.003568305011264229</v>
+        <v>-0.003584107399695665</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0004729257591479249</v>
+        <v>6.346136746898479e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0006574618272178212</v>
+        <v>0.001481402164895341</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.001328580523008423</v>
+        <v>-0.001242779029432732</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.5962380834139582</v>
+        <v>0.5868426639321511</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.350090804712629</v>
+        <v>0.1964369532566222</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.1064507638912625</v>
+        <v>0.06264329531088783</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.07754852475023571</v>
+        <v>-0.09285966536497259</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.06078238565824572</v>
+        <v>-0.05089981649283026</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.01345443416629607</v>
+        <v>0.003451173311006842</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.01223405240330665</v>
+        <v>-0.007821378560371989</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.004565210515649027</v>
+        <v>-0.001602953371866139</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.01598132355130252</v>
+        <v>0.001652399618075766</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.006546583406294144</v>
+        <v>0.003760577193160601</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001693737691740252</v>
+        <v>0.002806330814803346</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.0006709780451716019</v>
+        <v>-0.001086042082279872</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.001430056768146801</v>
+        <v>-0.0006815076786402055</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.0004445927135448756</v>
+        <v>-9.816243251897089e-06</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.0007902840487339404</v>
+        <v>-4.813132300296062e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.0001291223483005836</v>
+        <v>3.689789169625181e-06</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.8028069308777447</v>
+        <v>0.8097017723806589</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.6804976506439435</v>
+        <v>-0.4903136229809453</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.3162234338070398</v>
+        <v>0.01199880790504917</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.06352027751671696</v>
+        <v>0.1300923260270175</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.1136635592329061</v>
+        <v>-0.06638922076080254</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.04262342049248226</v>
+        <v>0.02881511974473445</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.05306590917794399</v>
+        <v>-0.03789421568319422</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.02690830717550879</v>
+        <v>0.006016591057362116</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0004032301678159366</v>
+        <v>0.0179513476398462</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.009330116787478077</v>
+        <v>-0.01130130116038896</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.01012021493227904</v>
+        <v>0.002837886608802767</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.003053569348060409</v>
+        <v>-0.0006609499912415687</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001135818435505544</v>
+        <v>6.83208715955282e-05</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0.0004261558897676971</v>
+        <v>0.001226290305064408</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.0009781916943183706</v>
+        <v>-0.001418493836068769</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0007563795852066723</v>
+        <v>0.0003843983346682679</v>
       </c>
     </row>
     <row r="14">
@@ -3124,196 +3124,196 @@
         <v>182</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5091608590964317</v>
+        <v>0.3847917345523592</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4250118592493658</v>
+        <v>0.5535253893326102</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01384095039328032</v>
+        <v>0.02838852967219771</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09612624810161655</v>
+        <v>0.0640208898397408</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08352307064668889</v>
+        <v>0.03712478087817129</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01994185288141271</v>
+        <v>-0.03990996176567892</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03519397185544634</v>
+        <v>0.0292080036803331</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004913987128481069</v>
+        <v>0.0004863212377513408</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01939974297282104</v>
+        <v>0.0001427354931324608</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002535090833104466</v>
+        <v>-0.0002434319491128362</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.004594526561140297</v>
+        <v>-0.0008797189944218396</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004827283617823419</v>
+        <v>0.001269394754169549</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001776615710278509</v>
+        <v>0.0002351956273632934</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001118065796520187</v>
+        <v>-0.0005939881837172515</v>
       </c>
       <c r="P14" t="n">
-        <v>-9.810304948557074e-05</v>
+        <v>0.0001892229155362274</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0004163711726977306</v>
+        <v>1.211104742349327e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.8606729176665926</v>
+        <v>-0.923003910439091</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8630098216727279</v>
+        <v>1.004667511772179</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0120103837277349</v>
+        <v>-0.03315767105345108</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06456872809461939</v>
+        <v>-0.02661645984570862</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.1272453469391552</v>
+        <v>-0.0624848323783921</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.04610087656883657</v>
+        <v>0.01394277702143727</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1064334169701349</v>
+        <v>0.04024521820035649</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.002398387452641339</v>
+        <v>-0.003215830299712496</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.01499628587278994</v>
+        <v>-0.01952057892093607</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.00640945866794563</v>
+        <v>0.007699825242712138</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.0009974337007847766</v>
+        <v>0.00176614623579508</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01250108349216307</v>
+        <v>0.001067980439822956</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.003396391086606442</v>
+        <v>-0.002135025455954944</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.001785247137156414</v>
+        <v>-0.0001159784047762818</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0004408506525065445</v>
+        <v>0.0007533838148518416</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0002412855773298935</v>
+        <v>0.0001074440708714419</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.8606694241045834</v>
+        <v>0.923004628811542</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.04213996787938469</v>
+        <v>0.05320860973277204</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0594712303600194</v>
+        <v>0.05220937489211781</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.04872633099244664</v>
+        <v>0.0474850832882928</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.02113338768816892</v>
+        <v>-0.009984355382604799</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.05337599002190613</v>
+        <v>0.015468519423057</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.001542242008858426</v>
+        <v>0.004282851772439084</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.008133815290175992</v>
+        <v>-0.003790990006510654</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01054010466427805</v>
+        <v>0.004626189567745752</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.001686510522309327</v>
+        <v>-0.001682910764621268</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.004979674113346204</v>
+        <v>0.0006268750899519094</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0001704120817838292</v>
+        <v>7.992543672365572e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.001279586504120207</v>
+        <v>-0.0001243931524449875</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0008915372354628205</v>
+        <v>0.0001228780539358151</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.0003652327463290419</v>
+        <v>-1.49202382658073e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0005381456564612328</v>
+        <v>-3.477438130648022e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.5091618007068907</v>
+        <v>0.384791207000692</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.09907493036516152</v>
+        <v>0.07633787644655608</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.0005143719427780809</v>
+        <v>-0.09534952031337923</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.07488217169688773</v>
+        <v>0.1145980704578169</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.08543276727815965</v>
+        <v>-0.05319539721924124</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.07537686515845431</v>
+        <v>0.0226418738459081</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.01152915333812629</v>
+        <v>-0.003938530413519028</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.004977029182890308</v>
+        <v>0.0003901037450393934</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.002125807710059048</v>
+        <v>0.001825562902482454</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.007961390827562691</v>
+        <v>-0.0004539282502866934</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.008500968936141821</v>
+        <v>-0.000857805683035299</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0.0006856192554626542</v>
+        <v>0.001090052586814765</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.000690692802854914</v>
+        <v>-0.0005723315673955288</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0006056268404909656</v>
+        <v>0.0002786159920642432</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.0007907334242773039</v>
+        <v>-0.0001474358416630557</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.001019422943220123</v>
+        <v>4.353313819392361e-05</v>
       </c>
     </row>
     <row r="15">
@@ -3321,196 +3321,196 @@
         <v>184</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5567825868225077</v>
+        <v>0.6429293729288906</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3613198266735693</v>
+        <v>0.237163965426806</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02612618685230575</v>
+        <v>0.03143416027602409</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09100994529522642</v>
+        <v>0.08968106689065554</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08809361761234927</v>
+        <v>0.06616849743340328</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01755714395089418</v>
+        <v>-0.03784557107811497</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04954357400737247</v>
+        <v>0.02962729100764531</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008880413397767963</v>
+        <v>0.0105592880894768</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02500063732349667</v>
+        <v>0.007802750431957276</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002041084681501409</v>
+        <v>0.0009416077389815371</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.003481422866732324</v>
+        <v>-0.004278816010974632</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01142405841590816</v>
+        <v>0.004527040626971495</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.001162118775990635</v>
+        <v>-0.0003667540517079937</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004435956280743831</v>
+        <v>0.0008540817935859082</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.001382787900385214</v>
+        <v>8.751573166789059e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0001812641198410651</v>
+        <v>-0.0005280459325416118</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.8306589691522389</v>
+        <v>-0.7659274215401248</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8784223116070999</v>
+        <v>0.9959534656685385</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06278120904725726</v>
+        <v>-0.06307283730922074</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04570836138165961</v>
+        <v>-0.1071682087371644</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.2577141673084559</v>
+        <v>-0.1526858969637453</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.03295926287092382</v>
+        <v>0.02774842128966958</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1742081568732164</v>
+        <v>0.1122926256258181</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.03553666291978216</v>
+        <v>-0.04097758139647222</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02655049872841976</v>
+        <v>0.0007847957316148161</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.04602919303169313</v>
+        <v>-0.01455893222722727</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.00128323929886667</v>
+        <v>0.002114231660519022</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01929876377005409</v>
+        <v>0.01082484236510286</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.006967490520520757</v>
+        <v>-0.005150339958173854</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01153617240654205</v>
+        <v>0.002029991967397878</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.01160123388329224</v>
+        <v>-0.002645502087766251</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.001678266573797175</v>
+        <v>0.0004383459112110149</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.830658167851848</v>
+        <v>0.7659244296548737</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.03252313447501762</v>
+        <v>0.0687417603063277</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.03815425445424858</v>
+        <v>0.05386435869680478</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.06894542184707117</v>
+        <v>0.07791743901217986</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.03199848445135717</v>
+        <v>-0.01671786416845803</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.06689937586266634</v>
+        <v>0.03537756334240635</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.01137209564676626</v>
+        <v>0.003619212294544993</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.03522950198798849</v>
+        <v>0.01414955228324263</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.002196540020874861</v>
+        <v>0.003381117133440508</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.002492309510983005</v>
+        <v>-0.005757692653870923</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.01129753508042833</v>
+        <v>0.005255352366905569</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.001856886564465265</v>
+        <v>-0.0006427832285838186</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.007057052170325917</v>
+        <v>0.001535367304777255</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.002407748034488112</v>
+        <v>1.387071276681066e-05</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0006077410554618783</v>
+        <v>-0.0006261290779188398</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.001628331954878097</v>
+        <v>0.0006486177423763548</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.5567823122063028</v>
+        <v>0.6429303445271715</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.1984281361413719</v>
+        <v>-0.1294619653136884</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.2807346027281006</v>
+        <v>0.06510101381974819</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.2488167607244317</v>
+        <v>-0.1990676364458306</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.07829794849561961</v>
+        <v>-0.02036821846657469</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.1693824261914679</v>
+        <v>0.1353871150240612</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.03328640126997695</v>
+        <v>-0.03641145930888784</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.05252764013775303</v>
+        <v>0.008934024683549714</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.0684804606395728</v>
+        <v>-0.02536601567821084</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.008559207785403374</v>
+        <v>0.002808617251942952</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.02023285868230844</v>
+        <v>0.01308855788709861</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0.009548175172431518</v>
+        <v>-0.006177633782655786</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.01486907774941982</v>
+        <v>0.003434744413432534</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.01485769591356652</v>
+        <v>-0.003807819377764897</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.00436364481756757</v>
+        <v>0.0006548736993592072</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0003280149624436669</v>
+        <v>0.001258249996315877</v>
       </c>
     </row>
     <row r="16">
@@ -3518,196 +3518,196 @@
         <v>186</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7495761221451809</v>
+        <v>0.5281855747905394</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2570852686825089</v>
+        <v>0.3577600100310349</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6348879559101207</v>
+        <v>0.02184427567577391</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3052091093691108</v>
+        <v>0.03714468370778993</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2793206013245098</v>
+        <v>-0.006881933084184763</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5205539085672005</v>
+        <v>-0.02838857179864113</v>
       </c>
       <c r="H16" t="n">
-        <v>0.498451720301069</v>
+        <v>0.02323578490478199</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4483879490523024</v>
+        <v>-0.0001987743487600743</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4272613150265971</v>
+        <v>0.0004972873075352029</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4496682843731289</v>
+        <v>-0.003205300520347545</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5194201112595416</v>
+        <v>0.001013098709902173</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5176745485319877</v>
+        <v>0.0008485715930359793</v>
       </c>
       <c r="N16" t="n">
-        <v>0.494667958692565</v>
+        <v>-0.0002155563336375163</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5074246661090465</v>
+        <v>-0.000455141170826362</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5354798936767903</v>
+        <v>0.0002623975925282857</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5578895083767321</v>
+        <v>1.959094718908374e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.6619185025733161</v>
+        <v>-0.8491293374581032</v>
       </c>
       <c r="S16" t="n">
-        <v>1.143743081438639</v>
+        <v>1.123911791343141</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.4853918067218763</v>
+        <v>-0.1857135660616892</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.397650314152457</v>
+        <v>-0.05967021117233949</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4089501716195693</v>
+        <v>-0.1294482955651045</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.03866615855450226</v>
+        <v>0.1172736289877988</v>
       </c>
       <c r="X16" t="n">
-        <v>0.02333933831031959</v>
+        <v>0.002085002632646115</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.03786941750960582</v>
+        <v>-0.01567497381633834</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.08430092964965008</v>
+        <v>-0.01835462583864539</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.09679190116224007</v>
+        <v>0.01891377298238604</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03295671579086884</v>
+        <v>-0.002433421876947957</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.03164296115094795</v>
+        <v>-0.001168157544708691</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01145180570500573</v>
+        <v>-0.002679638915410328</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.003131547445602567</v>
+        <v>0.00264098696568921</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.02846546694107516</v>
+        <v>-0.0002806869746476567</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.01151367330908409</v>
+        <v>-0.0002722676877187867</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.6619182561085563</v>
+        <v>0.8491301108184116</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.6964384490800278</v>
+        <v>-0.01309770594276651</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.3267113902403003</v>
+        <v>0.029949252304099</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.1959957950383835</v>
+        <v>0.003842934564356078</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.4251445521498158</v>
+        <v>-0.02478878663519494</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.5567696250957181</v>
+        <v>0.02036482721142645</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.5085061098114707</v>
+        <v>0.0005018687586897507</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.3925777414354652</v>
+        <v>-0.002160319077241239</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.4058809406985503</v>
+        <v>0.001461608875078935</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5068146383100869</v>
+        <v>-0.00144092979631554</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.538584030860212</v>
+        <v>0.001158054340389528</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5018282613327106</v>
+        <v>-0.0003457139515219559</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4836818760650037</v>
+        <v>-8.003870052266892e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.516036601026297</v>
+        <v>8.535781620726778e-05</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.5565687517029645</v>
+        <v>4.15961892941244e-06</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.5641841749729453</v>
+        <v>-1.301811941872848e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.7495768248992457</v>
+        <v>0.5281851474767016</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.2432687481512714</v>
+        <v>-0.005532480570656048</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.3887221791283276</v>
+        <v>-0.1572344961206364</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.03576736464144485</v>
+        <v>0.06303034124021954</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.1918084751111398</v>
+        <v>-0.02825759125189367</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.1367426971883572</v>
+        <v>0.03990885353479992</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0.1270762760620908</v>
+        <v>-0.02271850262587567</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.1219883353451673</v>
+        <v>0.001973302362186512</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.07051130061035774</v>
+        <v>0.002109668019655591</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0879839036387447</v>
+        <v>0.001487628210969092</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.0003593270597342935</v>
+        <v>-0.00205034581633073</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0.05170546792389269</v>
+        <v>0.0005328369282169902</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.01516502974983411</v>
+        <v>-0.0001451486648931595</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.04045834327560607</v>
+        <v>0.0005240256761202574</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.028083069212053</v>
+        <v>-0.0004547576328327203</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0.01039634800698219</v>
+        <v>0.0001156562752880334</v>
       </c>
     </row>
     <row r="17">
@@ -3715,196 +3715,196 @@
         <v>199</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2198499222301996</v>
+        <v>0.2217266856103739</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9302530416258459</v>
+        <v>-1.050578907212606</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2285854580351888</v>
+        <v>-0.2545503589526818</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5638329801530855</v>
+        <v>-0.4410409453256979</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008275404543514256</v>
+        <v>0.009020849889764095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3282295988886539</v>
+        <v>0.2150051156272659</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2170811135275698</v>
+        <v>0.1041149043846668</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06927643752723447</v>
+        <v>0.04058757356652042</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1047369858649651</v>
+        <v>0.1103576168672424</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01077365446997776</v>
+        <v>0.01798362630099705</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.07994678741196501</v>
+        <v>-0.04109898190939821</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.06459511696893243</v>
+        <v>-0.02600883749706469</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.05497153373499814</v>
+        <v>-0.02295488316442033</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01866125488480085</v>
+        <v>-0.01640711413734107</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01919179723607176</v>
+        <v>-0.001308096209077389</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02527208586793639</v>
+        <v>0.003017385617695639</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9755341457222888</v>
+        <v>0.9751088325969546</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.4972765910765595</v>
+        <v>-0.5834053101506314</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.1954858325758289</v>
+        <v>-0.2052081931568323</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.46003212045449</v>
+        <v>-0.2885545960762047</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.04939530040122877</v>
+        <v>-0.006565181480145617</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04188055386575432</v>
+        <v>0.006301485866219737</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1227423850580134</v>
+        <v>0.0365304353532783</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02091260501723267</v>
+        <v>-0.000242670405972218</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1015777583271014</v>
+        <v>0.07685439513465882</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.04566502046042749</v>
+        <v>0.03286819148610043</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.01107171633120542</v>
+        <v>-0.008757560006496721</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.03776102463796798</v>
+        <v>-0.01097464976010605</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.03395709181831434</v>
+        <v>-0.005420346041964668</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.02524190150046809</v>
+        <v>-0.01074553792411333</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.004255249005161751</v>
+        <v>-0.006097283152317484</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.006164359350405149</v>
+        <v>-0.00169201228237663</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.975533807752232</v>
+        <v>-0.9751089009254518</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.1783845579934535</v>
+        <v>-0.2317177061441649</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.2104463027853733</v>
+        <v>-0.2322514861531889</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.4623221043460168</v>
+        <v>-0.4166051891694929</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.07650377413112233</v>
+        <v>0.07687243835332638</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.4362695331402665</v>
+        <v>0.3140920796327985</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.100777903807942</v>
+        <v>0.02428090164354248</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.09792860679670204</v>
+        <v>0.06347451050960004</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.03635534566483298</v>
+        <v>0.06652830499174803</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.05991700240989948</v>
+        <v>-0.01178709853889362</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.07373558163842706</v>
+        <v>-0.03558418808945349</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.04405586662168217</v>
+        <v>-0.02061369842706211</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0.05046774028270615</v>
+        <v>-0.02805273070900921</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.001532429767108183</v>
+        <v>-0.005853405189306484</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.02864441169640579</v>
+        <v>0.004628549937750735</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.02257247813898025</v>
+        <v>0.002570696641599674</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.2198508594829429</v>
+        <v>0.2217274299730712</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.2130024036730917</v>
+        <v>-0.2459573830119656</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.1845415531999575</v>
+        <v>-0.1597866437294508</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.3868540491689766</v>
+        <v>-0.2991164649614767</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.09264095128673044</v>
+        <v>-0.03092030421683579</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.1914313391347134</v>
+        <v>0.1255774415805717</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.07650047998807688</v>
+        <v>0.00613755433890132</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.05321914678688655</v>
+        <v>0.0124756011058448</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.05973052641430728</v>
+        <v>0.05745654698872595</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0228205551492742</v>
+        <v>0.0227371853034553</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0.02968854266380214</v>
+        <v>-0.0144917695837301</v>
       </c>
       <c r="BI17" t="n">
-        <v>-0.02711144449225598</v>
+        <v>-0.008226559873475574</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.03862387926066841</v>
+        <v>-0.01205391678821805</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0.01515548255262152</v>
+        <v>-0.006766053998943583</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.003887657993572755</v>
+        <v>-0.00213362586292614</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.009896674565393417</v>
+        <v>-0.0008878163404785174</v>
       </c>
     </row>
     <row r="18">
@@ -3912,196 +3912,196 @@
         <v>228</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2673594036930737</v>
+        <v>0.9289237327094592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7895518338151383</v>
+        <v>1.259174053884291</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05356923579260986</v>
+        <v>1.179118299072892</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1564228875716689</v>
+        <v>0.3321966164389888</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0172231814231878</v>
+        <v>0.7447498144214114</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02893057733998191</v>
+        <v>0.5775653577793404</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1190142786183692</v>
+        <v>0.5140814933010103</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02910743084005287</v>
+        <v>0.4360851111312833</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01736684091623816</v>
+        <v>0.4188911139018608</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02666088335979012</v>
+        <v>0.3524492736907016</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.000437873176391183</v>
+        <v>0.3234077254492633</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0198496545365576</v>
+        <v>0.2844307366119548</v>
       </c>
       <c r="N18" t="n">
-        <v>0.006666889464426238</v>
+        <v>0.2552855269583267</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003262902360443083</v>
+        <v>0.2257928182125937</v>
       </c>
       <c r="P18" t="n">
-        <v>0.006325979280418104</v>
+        <v>0.2022889820860778</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0006143534824688408</v>
+        <v>0.1794990897397643</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.9635972486270126</v>
+        <v>0.3702699657047579</v>
       </c>
       <c r="S18" t="n">
-        <v>1.129795094459548</v>
+        <v>-0.1313288694332457</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.1540331067091084</v>
+        <v>-0.05873803811804684</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1068125747902923</v>
+        <v>-0.0447556897237277</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.266192957643264</v>
+        <v>0.009334654043956808</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07479996852851287</v>
+        <v>-0.03519955546260597</v>
       </c>
       <c r="X18" t="n">
-        <v>0.08838483238249539</v>
+        <v>-0.01302155242782566</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.01101164676091411</v>
+        <v>-0.01850230805978392</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.02458441807526566</v>
+        <v>-0.01256857362369332</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02594291820067786</v>
+        <v>-0.01405769591478985</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.02007440747093255</v>
+        <v>-0.0104548684948467</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01691303081189236</v>
+        <v>-0.01059108198114854</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.00484714442889562</v>
+        <v>-0.008766291636281634</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.001920299980194359</v>
+        <v>-0.008148421444233098</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.00219972248022612</v>
+        <v>-0.00705377936397425</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.002427511918476621</v>
+        <v>-0.006417894064417992</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.963597203125903</v>
+        <v>-0.3702697512842271</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.204774887830305</v>
+        <v>2.459390171821639</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.03450035930831355</v>
+        <v>1.918306172800098</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.1844989480086628</v>
+        <v>-0.1316449286415476</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.07331359638332748</v>
+        <v>1.007362486731906</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.1412452103616935</v>
+        <v>0.7658410429340322</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.06279554571993698</v>
+        <v>0.6029995023336387</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0002728766153525146</v>
+        <v>0.519753151888689</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.04361423199610865</v>
+        <v>0.5280931263877024</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-0.002869355715145487</v>
+        <v>0.4229682491309981</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.01454765695582913</v>
+        <v>0.3961914383684004</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.01757897807535545</v>
+        <v>0.3476197923644707</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.002218740610217053</v>
+        <v>0.3121272118727177</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.009290448008865906</v>
+        <v>0.2751564959408083</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.001619387327273182</v>
+        <v>0.2475009651325079</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.001060833726193872</v>
+        <v>0.2190666150577761</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.2673593128273072</v>
+        <v>0.9289249388257219</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.1568628535287077</v>
+        <v>-0.2039099308863898</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.02521478812884448</v>
+        <v>-0.1683415493871087</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.08944319830585601</v>
+        <v>-0.05682709195378735</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.277737347388377</v>
+        <v>0.04654800430383399</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.1989728902161935</v>
+        <v>-0.05859084664779191</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.01034262883139319</v>
+        <v>-0.01346755378042605</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.03053455304378714</v>
+        <v>-0.02265175281451967</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.01765235854549826</v>
+        <v>-0.0147958330933565</v>
       </c>
       <c r="BG18" t="n">
-        <v>-0.01525752198149191</v>
+        <v>-0.01811647951899867</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.008617581314235536</v>
+        <v>-0.01200404322837892</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.009886046396774432</v>
+        <v>-0.01330189004830933</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-0.011332077688489</v>
+        <v>-0.01058634186465743</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.009465852509433518</v>
+        <v>-0.01000913886621839</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.003514947592149289</v>
+        <v>-0.008563423457325026</v>
       </c>
       <c r="BM18" t="n">
-        <v>-0.00039938080176377</v>
+        <v>-0.007880001603635875</v>
       </c>
     </row>
     <row r="19">
@@ -4109,196 +4109,196 @@
         <v>273</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3979630297379601</v>
+        <v>0.7618360222413723</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.567562431535002</v>
+        <v>0.2095085918062934</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5917758984644792</v>
+        <v>0.04674366224913424</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5013213482288907</v>
+        <v>-0.06202178671571193</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4742698495189583</v>
+        <v>0.1470319423908208</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3105363354031389</v>
+        <v>0.188476334002395</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2686877636155803</v>
+        <v>0.09218899962068526</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2022876411466047</v>
+        <v>0.02387345422441845</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1590619828336162</v>
+        <v>0.01808091844664314</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1247689927648648</v>
+        <v>0.04162164150659435</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.09703544308663165</v>
+        <v>0.05513671889514481</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.07603129663930407</v>
+        <v>0.03132119141126924</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.05933925246949684</v>
+        <v>0.01884294064314148</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0463757990753073</v>
+        <v>0.01342819924282079</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0362383953439186</v>
+        <v>0.01486020228573029</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02831133701177172</v>
+        <v>0.01646002697577619</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9174009359089224</v>
+        <v>-0.6477696528881092</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.511520159953238</v>
+        <v>0.4616292028714356</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.07993303788118974</v>
+        <v>0.1709897582806233</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02908617937751512</v>
+        <v>0.1146750519272905</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.09982716146941439</v>
+        <v>-0.09847434880623945</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.03284648704238011</v>
+        <v>-0.1622142059446835</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.04301932284222007</v>
+        <v>0.08230545975004581</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.02927294037650893</v>
+        <v>0.06458232336848682</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.02306634584323557</v>
+        <v>0.02361279070896502</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.0185349322461591</v>
+        <v>-0.002711864846408073</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.01413228583263588</v>
+        <v>-0.03799758517655605</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.01118705135877099</v>
+        <v>0.01535922209581187</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.008701206108894001</v>
+        <v>0.01290397265143594</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.006802434883316933</v>
+        <v>0.005722384824277861</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.005318509901615424</v>
+        <v>0.004025418699216549</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.004152880792358916</v>
+        <v>-0.006637927515641787</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.9174009903750642</v>
+        <v>0.6477690099002985</v>
       </c>
       <c r="AI19" t="n">
-        <v>-1.509675899704903</v>
+        <v>0.1807158690085023</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.1243960852456003</v>
+        <v>-0.1149831621519337</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.7164947616183993</v>
+        <v>0.05504879169957767</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.3128111446043713</v>
+        <v>0.3292174786584783</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.3110708014286668</v>
+        <v>0.1589689765238377</v>
       </c>
       <c r="AN19" t="n">
-        <v>-0.2369750610749381</v>
+        <v>0.06013090158807221</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.1792827616303536</v>
+        <v>-0.02990494811856775</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.1446536928430527</v>
+        <v>0.04136206297921906</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-0.1110146257861836</v>
+        <v>0.09069572863838998</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.08733419365615111</v>
+        <v>0.05434373131345284</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.068159883703277</v>
+        <v>0.02800048141006684</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.05321890315068804</v>
+        <v>0.008935551876036963</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.04161752540672681</v>
+        <v>0.01542304637007324</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.03250116830900734</v>
+        <v>0.02586409057928049</v>
       </c>
       <c r="AW19" t="n">
-        <v>-0.02539994306367148</v>
+        <v>0.01731923864142345</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.3979633540660625</v>
+        <v>0.7618361889228361</v>
       </c>
       <c r="AY19" t="n">
-        <v>-0.7793033623569973</v>
+        <v>-0.03112772567209447</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.2924831032923726</v>
+        <v>0.2739626714592687</v>
       </c>
       <c r="BA19" t="n">
-        <v>-0.2252368075511199</v>
+        <v>-0.08442469993982454</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.01479809046217097</v>
+        <v>-0.4267143543438595</v>
       </c>
       <c r="BC19" t="n">
-        <v>-0.04778357672278657</v>
+        <v>0.1921656754418299</v>
       </c>
       <c r="BD19" t="n">
-        <v>-0.03794046839797359</v>
+        <v>0.05834108722094111</v>
       </c>
       <c r="BE19" t="n">
-        <v>-0.02400227331246577</v>
+        <v>0.1098183050030587</v>
       </c>
       <c r="BF19" t="n">
-        <v>-0.02220360090956931</v>
+        <v>0.00104375503902808</v>
       </c>
       <c r="BG19" t="n">
-        <v>-0.01600870430362734</v>
+        <v>-0.1087553773489624</v>
       </c>
       <c r="BH19" t="n">
-        <v>-0.01284503232305859</v>
+        <v>0.03156569237727059</v>
       </c>
       <c r="BI19" t="n">
-        <v>-0.01002110886490469</v>
+        <v>0.0147411683939089</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-0.007790286794161112</v>
+        <v>0.02144154161581082</v>
       </c>
       <c r="BK19" t="n">
-        <v>-0.006114085638180772</v>
+        <v>0.0118563905507306</v>
       </c>
       <c r="BL19" t="n">
-        <v>-0.004765959022215216</v>
+        <v>-0.02253336823714747</v>
       </c>
       <c r="BM19" t="n">
-        <v>-0.003726964870214188</v>
+        <v>0.006249345761521693</v>
       </c>
     </row>
     <row r="20">
@@ -4306,196 +4306,196 @@
         <v>534</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7253900992428991</v>
+        <v>0.8575106248340479</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0421009102940792</v>
+        <v>-0.04840802517769371</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03421872879806744</v>
+        <v>0.03497816328983877</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06836042466983409</v>
+        <v>0.1059339713441684</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01073038598096217</v>
+        <v>0.02275806176333852</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01262014735101341</v>
+        <v>0.03012175457800484</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005431345775734231</v>
+        <v>-0.02168555897007441</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003278691349741292</v>
+        <v>0.00503943628445478</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003080229677433135</v>
+        <v>0.009263706675240202</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.00108686394345381</v>
+        <v>0.002413945817407579</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001537494609537424</v>
+        <v>0.004768883271930382</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0001842118822507829</v>
+        <v>-0.006999437284130057</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0003424605179232958</v>
+        <v>0.0006562815933225131</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0002255984911987744</v>
+        <v>0.001464500765153553</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.0002837837427839379</v>
+        <v>0.0008327419708821599</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0002160526671470204</v>
+        <v>0.0007969996932184046</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.6883374695006097</v>
+        <v>-0.5144673150587297</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5824265520902446</v>
+        <v>0.624512254807492</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2492775908195341</v>
+        <v>0.06942539753646768</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.2028464775655908</v>
+        <v>-0.1646589669687237</v>
       </c>
       <c r="V20" t="n">
-        <v>0.188583900854688</v>
+        <v>-0.02966776566498452</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.2676556426797606</v>
+        <v>-0.0918339412727083</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1452263883926305</v>
+        <v>0.1453815285048142</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01844840069922232</v>
+        <v>0.007131529409192885</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.01590366367005003</v>
+        <v>-0.03050732326330285</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01774681482618764</v>
+        <v>-0.01704633432936381</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.05051394627493341</v>
+        <v>-0.01901232816769757</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03240699467867122</v>
+        <v>0.03567240570208369</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.00175033835719274</v>
+        <v>0.0008616783160138217</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.001978947998705988</v>
+        <v>-0.005869734614224955</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.0003994034882631581</v>
+        <v>-0.006282304165964498</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.008688648823453327</v>
+        <v>-0.003638780770357427</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.6883371325963208</v>
+        <v>0.5144666296426111</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.05828004628468789</v>
+        <v>0.1954303650651251</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.0184811260298102</v>
+        <v>-0.001113541602004733</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.0664876243506389</v>
+        <v>0.1055076386909126</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.01840547025547221</v>
+        <v>0.01675651371160198</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.006793828761708847</v>
+        <v>-0.0330539918751286</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.008674205351273882</v>
+        <v>0.0345609332645887</v>
       </c>
       <c r="AO20" t="n">
-        <v>-5.727427383345543e-05</v>
+        <v>-0.003983371209337422</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.003848020296958118</v>
+        <v>0.01472049954200364</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-9.824020811473322e-05</v>
+        <v>-0.003585895912880199</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0007666033170208898</v>
+        <v>-0.007758589139347327</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.0004046073042215587</v>
+        <v>0.005812858064975197</v>
       </c>
       <c r="AT20" t="n">
-        <v>-0.0003914187758081469</v>
+        <v>-0.001379503754318858</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.000518436460085734</v>
+        <v>0.003579085459013601</v>
       </c>
       <c r="AV20" t="n">
-        <v>-0.0001895364316850338</v>
+        <v>-0.001621966127590127</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.0001413095880812123</v>
+        <v>-0.001614574472074385</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.7253901179234339</v>
+        <v>0.8575087352854808</v>
       </c>
       <c r="AY20" t="n">
-        <v>-0.511194462787537</v>
+        <v>-0.4551554886979465</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.377053555596256</v>
+        <v>0.130789872504494</v>
       </c>
       <c r="BA20" t="n">
-        <v>-0.3654257617481812</v>
+        <v>-0.2496397387260499</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.3228668787660347</v>
+        <v>0.06088434600292952</v>
       </c>
       <c r="BC20" t="n">
-        <v>-0.04441780979865751</v>
+        <v>0.1954729127248511</v>
       </c>
       <c r="BD20" t="n">
-        <v>-0.05847279966951886</v>
+        <v>-0.1021541705601631</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.04743954898764134</v>
+        <v>0.02391070430982762</v>
       </c>
       <c r="BF20" t="n">
-        <v>-0.06707454863530468</v>
+        <v>-0.06881798722839888</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.06735823128103424</v>
+        <v>0.02549132723629749</v>
       </c>
       <c r="BH20" t="n">
-        <v>-0.01923645663869811</v>
+        <v>0.03968973487535662</v>
       </c>
       <c r="BI20" t="n">
-        <v>-0.002462499222666212</v>
+        <v>-0.01968032770445124</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.001853310130274034</v>
+        <v>0.003552353542672109</v>
       </c>
       <c r="BK20" t="n">
-        <v>-0.01004583717271008</v>
+        <v>-0.01807140683197337</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.01316081241499661</v>
+        <v>0.00831636671828776</v>
       </c>
       <c r="BM20" t="n">
-        <v>-0.004947108715138728</v>
+        <v>0.00809802717082903</v>
       </c>
     </row>
     <row r="21">
@@ -4503,196 +4503,196 @@
         <v>542</v>
       </c>
       <c r="B21" t="n">
-        <v>0.437317089285769</v>
+        <v>0.5299771945245424</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4946093294126631</v>
+        <v>0.3312381706933257</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08120045729832105</v>
+        <v>0.04100169155697256</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06002652967536598</v>
+        <v>0.03239013603071945</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09856194399157024</v>
+        <v>0.04325853076192607</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04826165962526304</v>
+        <v>0.02100397291576622</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01810627143928206</v>
+        <v>0.002990322162260611</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02101234530409419</v>
+        <v>0.004706863392938391</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0129269926011302</v>
+        <v>0.003835584193269541</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006621576912728067</v>
+        <v>0.000824074617917149</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005177233323597292</v>
+        <v>0.0005508361447611747</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003236266430837619</v>
+        <v>0.0005659482247692806</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001964124192917521</v>
+        <v>0.0001625547264103742</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001399191108814583</v>
+        <v>9.003476096678629e-05</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0008394757860491668</v>
+        <v>8.022331119200349e-05</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0005422503090956073</v>
+        <v>2.539965495178621e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.899305053797015</v>
+        <v>-0.8480119945450872</v>
       </c>
       <c r="S21" t="n">
-        <v>1.097667733318669</v>
+        <v>1.096063950850017</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.1359330282409522</v>
+        <v>-0.1496977609086478</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.2871223767986822</v>
+        <v>-0.2913145170671399</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2407690826867833</v>
+        <v>0.2235449958725653</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.002314977844616983</v>
+        <v>-0.00184166239557962</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.05694518334335429</v>
+        <v>-0.06040153690974194</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04314787473037029</v>
+        <v>0.03515145531659918</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.0002985737921526437</v>
+        <v>0.001337189876177667</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.007546864021494432</v>
+        <v>-0.009501335021258521</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.007813483533341364</v>
+        <v>0.005374122021945578</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.0005398932145667542</v>
+        <v>7.661876809227734e-05</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.0007399912612499224</v>
+        <v>-0.00141420710361814</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.001561472178376929</v>
+        <v>0.0008922410179428046</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.0001930309244501527</v>
+        <v>-4.107639451596176e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>-2.067321460914415e-05</v>
+        <v>-0.0002164833777829186</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.8993065352613973</v>
+        <v>0.848010524860986</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.1453804615548759</v>
+        <v>0.07044953886786184</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.06611852979858934</v>
+        <v>0.03413302434078684</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.09369028483049668</v>
+        <v>0.04876898514278863</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.08817735829832682</v>
+        <v>0.04191026834333668</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.02661819788989338</v>
+        <v>0.007739195910137567</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.02063886933240735</v>
+        <v>0.004475461016497562</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.01925709425370439</v>
+        <v>0.005296079928231391</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.01016140486491382</v>
+        <v>0.00250458138424333</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.005771201924455464</v>
+        <v>0.0005416447856630003</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.004582112472261025</v>
+        <v>0.0006706159559271493</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.002761470449427585</v>
+        <v>0.000417368041560285</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.001728092893629718</v>
+        <v>0.0001198171161397839</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.001178437323112342</v>
+        <v>9.091188525431996e-05</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.000729413659112747</v>
+        <v>6.125830467921712e-05</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.0004807974170593203</v>
+        <v>2.12873831785779e-05</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.4373206588628211</v>
+        <v>0.5299781070807769</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.2533451517651619</v>
+        <v>0.2327375469087258</v>
       </c>
       <c r="AZ21" t="n">
-        <v>-0.21470093321037</v>
+        <v>-0.234181855548173</v>
       </c>
       <c r="BA21" t="n">
-        <v>-0.01082300817493607</v>
+        <v>-0.00702815153209934</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.1512293817676587</v>
+        <v>0.1326745910355242</v>
       </c>
       <c r="BC21" t="n">
-        <v>-0.05049094140730127</v>
+        <v>-0.05034146781091645</v>
       </c>
       <c r="BD21" t="n">
-        <v>-0.009106210011935083</v>
+        <v>-0.0118435926146572</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.02936906889275785</v>
+        <v>0.0236198300749548</v>
       </c>
       <c r="BF21" t="n">
-        <v>-0.006059721196500866</v>
+        <v>-0.006076395214104997</v>
       </c>
       <c r="BG21" t="n">
-        <v>-0.001194220302379647</v>
+        <v>-0.002730032462272816</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.005013360024343508</v>
+        <v>0.003606329030606672</v>
       </c>
       <c r="BI21" t="n">
-        <v>-0.0009056028022005085</v>
+        <v>-0.0008907341743138534</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.0002477981916503932</v>
+        <v>-0.0003630380358278034</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.0008777101358916801</v>
+        <v>0.0005397858078807146</v>
       </c>
       <c r="BL21" t="n">
-        <v>-0.0001591570264084342</v>
+        <v>-0.000160949160252262</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.000142642065086046</v>
+        <v>-4.190595854308789e-05</v>
       </c>
     </row>
   </sheetData>

--- a/ind-IRs-to-composite-shocks.xlsx
+++ b/ind-IRs-to-composite-shocks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,3944 +756,3653 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>112</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2552873667555072</v>
+        <v>0.0695406874190876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6676891757476888</v>
+        <v>0.02106926393148691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08579377046562543</v>
+        <v>0.006347969588341568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02500088249570575</v>
+        <v>0.001904681491315422</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01361732934215996</v>
+        <v>0.0005697252187102015</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04179156866419736</v>
+        <v>0.0001700187492117307</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01250447328900495</v>
+        <v>5.064810900599707e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.001903019951234428</v>
+        <v>1.506777712107932e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006431930987387645</v>
+        <v>4.478096686955287e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0005393192943256775</v>
+        <v>1.329844863145426e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.001707209370541448</v>
+        <v>3.946856289373988e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009564078422869642</v>
+        <v>1.170860098882009e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0003937064415429343</v>
+        <v>3.47222778894752e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001224841508214303</v>
+        <v>1.029428430234456e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.162103938632067e-05</v>
+        <v>3.051376479439471e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.515701417913443e-05</v>
+        <v>9.043316508889504e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.9668651173313761</v>
+        <v>0.00913343409873984</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8169165320469336</v>
+        <v>-0.004351178754520058</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2163558926252868</v>
+        <v>-0.002893449365286492</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.003794425202396467</v>
+        <v>-0.001221935632630526</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.07066715891576128</v>
+        <v>-0.0004449174838126092</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.01811875756076282</v>
+        <v>-0.0001506555151679898</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04276600739835933</v>
+        <v>-4.891589472642542e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.02061782844198257</v>
+        <v>-1.546499114656427e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0001246248246200663</v>
+        <v>-4.802749785075327e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.005111094612696754</v>
+        <v>-1.473078731120342e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0007305140775439998</v>
+        <v>-4.478158958726529e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.001397911061578013</v>
+        <v>-1.35257522232935e-07</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.001214852098997959</v>
+        <v>-4.065830245954416e-08</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.001255063899261948</v>
+        <v>-1.217844823797383e-08</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.524909205418918e-05</v>
+        <v>-3.638105048049538e-09</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0003191801300295292</v>
+        <v>-1.084635282658195e-09</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9668650850750354</v>
+        <v>0.001201724098566393</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1019878567143208</v>
+        <v>0.000327138706431372</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1231585351397718</v>
+        <v>9.034801892142852e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.05457909060328886</v>
+        <v>2.527188045971709e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.002820419490408278</v>
+        <v>7.146988991030842e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.004579508617840299</v>
+        <v>2.039982326186388e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.007993640332566887</v>
+        <v>5.867510905237644e-07</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.009485955537711565</v>
+        <v>1.698203666343525e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.0004070241664856397</v>
+        <v>4.939746836695603e-08</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-2.762820362843077e-05</v>
+        <v>1.442630506402301e-08</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0007409699668993957</v>
+        <v>4.226458832308171e-09</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0001184859949735214</v>
+        <v>1.241293551169436e-09</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0004717355966117338</v>
+        <v>3.65269185960522e-10</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0002471799279599591</v>
+        <v>1.076479165706643e-10</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.314110589609891e-05</v>
+        <v>3.176183058331248e-11</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.342237292742465e-05</v>
+        <v>9.379894813419359e-12</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.2552869398792871</v>
+        <v>-0.007243605336999629</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.02223780829656834</v>
+        <v>-0.00171296150814319</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.3523287231049441</v>
+        <v>-0.0004090158280420278</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.09591635035002274</v>
+        <v>-9.878468560531539e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.07047284906110234</v>
+        <v>-2.417452326147717e-05</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0186896694085274</v>
+        <v>-6.004167218191768e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.01385528157386242</v>
+        <v>-1.515514019214275e-06</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.002349226195820749</v>
+        <v>-3.89114187530444e-07</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00998995555397381</v>
+        <v>-1.016631709418738e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.004889890719077581</v>
+        <v>-2.70221583616357e-08</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.001691919472609111</v>
+        <v>-7.301306967748854e-09</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.002001376861599638</v>
+        <v>-2.002894085525031e-09</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.0002378398555284965</v>
+        <v>-5.569377322746621e-10</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0004587444981323517</v>
+        <v>-1.567081835303345e-10</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.000285598530263501</v>
+        <v>-4.454000587105487e-11</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.0003045710067490282</v>
+        <v>-1.2766106795385e-11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>124</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4050763767361135</v>
+        <v>0.139543713441247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5120855780847893</v>
+        <v>0.0290634147312792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03405821919655087</v>
+        <v>-0.02952187011611682</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06416505370658369</v>
+        <v>-0.01109949505515588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04376347402652232</v>
+        <v>-0.0136071485377996</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06523268811044602</v>
+        <v>-0.002936351246916579</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007386034914570921</v>
+        <v>0.007518968865560013</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00461266739393517</v>
+        <v>0.005454450753467992</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.004731948822204231</v>
+        <v>0.0009044531503147174</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.003942581874057328</v>
+        <v>-0.001026668546648288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003507193515970427</v>
+        <v>-0.001900900449587958</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.001188852263396248</v>
+        <v>0.0003705134748846874</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0009696780712434593</v>
+        <v>0.000172027497813675</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.107734244025991e-05</v>
+        <v>-0.0001601219336772823</v>
       </c>
       <c r="P3" t="n">
-        <v>-6.157347906401409e-05</v>
+        <v>-0.0002558708379716309</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.200708665047636e-05</v>
+        <v>0.001066703670033544</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.9142830715360258</v>
+        <v>0.01127486656826834</v>
       </c>
       <c r="S3" t="n">
-        <v>1.028720385152508</v>
+        <v>-0.00124627498080381</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.04673179311135221</v>
+        <v>-0.003828858260354702</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.08098576017745185</v>
+        <v>-0.005484303572058894</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.008832142633465531</v>
+        <v>0.001575323997410763</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03941141986833962</v>
+        <v>0.0004742718225188076</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.01200947159076038</v>
+        <v>0.0008559305319495971</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00395318411345008</v>
+        <v>-0.003272361684547728</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.01125752534664982</v>
+        <v>0.002548067463179718</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.003101814236554725</v>
+        <v>0.0002428782215850563</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.006841985201295434</v>
+        <v>0.0001269236600130033</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.0008106332535820857</v>
+        <v>-0.003374105164459601</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.001602774588835361</v>
+        <v>0.002569875292477458</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.151187711691689e-05</v>
+        <v>0.0004602554171022254</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0007582302560917137</v>
+        <v>0.0003149251310019314</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.0001417299941277904</v>
+        <v>-0.003237414443272643</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.9142832392607141</v>
+        <v>0.01405565862506687</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.03581384028903888</v>
+        <v>0.009779456703508122</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08969006914268163</v>
+        <v>0.0008299908304550793</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02024023003143011</v>
+        <v>-0.003387486192065575</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.002926116157024039</v>
+        <v>0.006096612841669796</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.03041546704494269</v>
+        <v>0.002220534394186469</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.006629297656421902</v>
+        <v>-0.002350868216827891</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0124137076851851</v>
+        <v>-0.004043911685726616</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.002031726850731813</v>
+        <v>0.005913449988054716</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.002352213030864659</v>
+        <v>0.002260996568150145</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1.148020128644299e-05</v>
+        <v>-0.002626521682870816</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.000247307431735858</v>
+        <v>-0.004549030191947322</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0004785481240292743</v>
+        <v>0.005259936697857782</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0001457861619967204</v>
+        <v>0.00204973927795439</v>
       </c>
       <c r="AV3" t="n">
-        <v>-7.018348746302297e-05</v>
+        <v>-0.0025585198194883</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.760229064980772e-05</v>
+        <v>-0.004468771227134445</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.4050761207783605</v>
+        <v>-0.0256079014477279</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1155862883417625</v>
+        <v>0.008953514344171283</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.1430637644973335</v>
+        <v>0.00560979162481151</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.06008217863876134</v>
+        <v>0.003511485148837577</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.07396522583432556</v>
+        <v>-0.02293755189261376</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.05075486341933101</v>
+        <v>0.009730096424327206</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.00458461459573293</v>
+        <v>0.006630371483889611</v>
       </c>
       <c r="BE3" t="n">
-        <v>-7.785622219581064e-05</v>
+        <v>0.004498304723828633</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.002682928118181173</v>
+        <v>-0.0216096785733148</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.0007314428214345588</v>
+        <v>0.009592530588479087</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0001402515473226643</v>
+        <v>0.006728115222927294</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.001789214876935175</v>
+        <v>0.004701702787112659</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.001293340690867532</v>
+        <v>-0.02084647598198663</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0003896954610354395</v>
+        <v>0.009141879682961058</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.0003483904427190865</v>
+        <v>0.006643144443703022</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.0001307628006025799</v>
+        <v>0.004791362038764907</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>128</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>0.163747127307401</v>
+        <v>0.1049835518755519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7547676418206392</v>
+        <v>0.01844695783999283</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05517322664084649</v>
+        <v>-0.02525341414511862</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1069999948224127</v>
+        <v>-0.01900599060637153</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02457799466219577</v>
+        <v>-0.0147865912159872</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07753114127831502</v>
+        <v>0.002567552392138601</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01474239497513978</v>
+        <v>0.01008262025248042</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01753811301327745</v>
+        <v>0.005666743060521762</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.01698289028740566</v>
+        <v>0.001282311135452642</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.002090956104020308</v>
+        <v>-0.002351322019506741</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006452269463133385</v>
+        <v>-0.003533877527086185</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0002322469381286892</v>
+        <v>-0.001138307712727495</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0027668232799885</v>
+        <v>0.001507207577031179</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00100784530069265</v>
+        <v>0.001595341646699962</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0002590296752376376</v>
+        <v>-5.389086407418331e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.915488935723424e-05</v>
+        <v>-0.0005797527235779398</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.9865023873981118</v>
+        <v>0.007099998302921857</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8912096544284557</v>
+        <v>0.0001177071080911021</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06266362713408809</v>
+        <v>-0.001176546212430743</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06644390846488624</v>
+        <v>-0.005270619026883249</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.0210505205420252</v>
+        <v>-0.001093761947433555</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0230898660683645</v>
+        <v>0.002018917043404213</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.0144479851841789</v>
+        <v>0.00170463162726356</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.002426892818088349</v>
+        <v>-0.002488645530137574</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.02263325110097066</v>
+        <v>-0.000552405579545736</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.002873872858154298</v>
+        <v>0.001595852167643058</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.005649195743252487</v>
+        <v>0.000578597950909324</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.000951478920590859</v>
+        <v>-0.002575173267917732</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.0001778173142385812</v>
+        <v>-0.0005144093220780903</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.001262291698026094</v>
+        <v>0.002214214478367896</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0008560414640869239</v>
+        <v>0.0008157203047872812</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.0001103788648000816</v>
+        <v>-0.002474078096961898</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9865017159016038</v>
+        <v>0.005048453064282097</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.04065258083234974</v>
+        <v>0.007767658510714914</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1482146092834169</v>
+        <v>0.00312496439996186</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.07720299104036313</v>
+        <v>-0.00330031361426274</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.03274800081657381</v>
+        <v>-0.0009586186541179131</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.07095715620301951</v>
+        <v>0.004188415251769002</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.003733941559928588</v>
+        <v>0.002276031493748508</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.02319998439946825</v>
+        <v>-0.002670435926927385</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.004295369642823423</v>
+        <v>-0.000522023058209295</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.00270875529842984</v>
+        <v>0.003984225285967932</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.001763114654731701</v>
+        <v>0.001512904940233559</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.002556762640933575</v>
+        <v>-0.003509254285331218</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.002342954471107076</v>
+        <v>-0.001119149587117659</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0001170499600344355</v>
+        <v>0.003899245344941174</v>
       </c>
       <c r="AV4" t="n">
-        <v>-4.276415678579457e-05</v>
+        <v>0.001610945188621694</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.598311349621819e-05</v>
+        <v>-0.003574109218009255</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1637470899013591</v>
+        <v>-0.01959009513750554</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1263552360685677</v>
+        <v>0.00071956598222992</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.08195470833447496</v>
+        <v>0.006711006149180887</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1284020650510224</v>
+        <v>1.226374883993132e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.009214384483135208</v>
+        <v>-0.01591087548911093</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.06734738910670285</v>
+        <v>0.0002479961725227454</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.01230592208471124</v>
+        <v>0.009861670777274435</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.007733213892452778</v>
+        <v>0.0003595693329627711</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.009431214706573376</v>
+        <v>-0.01407338348306375</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.004102356859721746</v>
+        <v>-0.0001274639617997208</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.00273250800027959</v>
+        <v>0.01134556865181284</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0007503577622520199</v>
+        <v>0.0005465204787361014</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.001694704569465064</v>
+        <v>-0.01337485181656418</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.0001278749895948242</v>
+        <v>-0.0004782167307032031</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0002106901372802523</v>
+        <v>0.01217117959956354</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0002770737068385136</v>
+        <v>0.0008068280643025121</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>132</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3014840648981372</v>
+        <v>0.1230501413091973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6170345808376881</v>
+        <v>0.01859541852357439</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.009052623644342728</v>
+        <v>-0.03249026218025305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09797996318814514</v>
+        <v>-0.01155389740956819</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07414998348519954</v>
+        <v>-0.009640192535135008</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02514352853082445</v>
+        <v>-0.001215632119220828</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03107819276789242</v>
+        <v>0.003760699157906608</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007931751822042109</v>
+        <v>0.004156657628458165</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001482627717176919</v>
+        <v>0.002815282204624105</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002999336541603606</v>
+        <v>-0.001246502790816892</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001604997217019302</v>
+        <v>-0.004340588668180157</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008566635845863836</v>
+        <v>0.0003812200314319029</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0005909381321636618</v>
+        <v>0.002602775454007486</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.000379785145454416</v>
+        <v>-0.0001714530114792265</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0001977115339218883</v>
+        <v>-0.002580159009488001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001187604516377894</v>
+        <v>0.0008562777497053163</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.9534714479212365</v>
+        <v>0.01232835225532878</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9268024981592921</v>
+        <v>-0.01613454967455224</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.03529070179572507</v>
+        <v>0.005616951112248223</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03385596906534435</v>
+        <v>-0.0008710250091277202</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01421967173478375</v>
+        <v>0.002505813183994889</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.02658173437919338</v>
+        <v>-0.01094659579174154</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03518220482954122</v>
+        <v>0.006510768052309665</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01282359021138223</v>
+        <v>0.00111450124145313</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01255596882371861</v>
+        <v>0.002162246029868612</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001253122153968114</v>
+        <v>-0.009384753244828714</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002872659164556462</v>
+        <v>0.005030940279091189</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.001614175460171545</v>
+        <v>0.001943225866899963</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0009585138826632751</v>
+        <v>0.001222186487465541</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.0004838117191142233</v>
+        <v>-0.007904248059135944</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0003747655085633526</v>
+        <v>0.004323743843845846</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0003435222340294478</v>
+        <v>0.002482443426878979</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.9534721086502785</v>
+        <v>-0.0008087769650086594</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01090179852448404</v>
+        <v>0.01626259589302075</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.06994343640749459</v>
+        <v>0.003229186432601807</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.09383386439146232</v>
+        <v>-0.01015179303852299</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.04679819301181654</v>
+        <v>0.0005641695673535415</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.007306513628481545</v>
+        <v>0.01273091085598917</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.01625615058532451</v>
+        <v>-0.000109266165771455</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001326181157260598</v>
+        <v>-0.00981918201560769</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.007790821919668226</v>
+        <v>0.0003633813825765166</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.001208458117235327</v>
+        <v>0.01129937378376956</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0006762932114802441</v>
+        <v>-0.0005448457078400071</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0002813143381182618</v>
+        <v>-0.009765775605049664</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0009303025012793606</v>
+        <v>0.0003638234843916298</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.0002291453320103746</v>
+        <v>0.0103886869073789</v>
       </c>
       <c r="AV5" t="n">
-        <v>6.558764188177888e-05</v>
+        <v>-0.0008499130392313023</v>
       </c>
       <c r="AW5" t="n">
-        <v>-2.315963445900873e-05</v>
+        <v>-0.009370528167278425</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.3014842251825339</v>
+        <v>0.04133503352146148</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.04784754409172309</v>
+        <v>-0.005205502023660968</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.06152678059297737</v>
+        <v>-0.01042714808834202</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.1922385855041298</v>
+        <v>-0.003226040978329309</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.02368668094491693</v>
+        <v>0.03291497766326121</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.02041562981160482</v>
+        <v>-0.007188256767625772</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.007773878473986123</v>
+        <v>-0.01414900472674216</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.01579710362119446</v>
+        <v>-0.002702958548245911</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0004207754175793439</v>
+        <v>0.02797274950628199</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.002351067641320989</v>
+        <v>-0.007074113910765146</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.001260590261182256</v>
+        <v>-0.01546372091221582</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002668274215445479</v>
+        <v>-0.001469051428146809</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0001678396844858434</v>
+        <v>0.02469183055044741</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.0004768933666213541</v>
+        <v>-0.006546217468561639</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.0002477643521301666</v>
+        <v>-0.01579432926830675</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0003252764625862348</v>
+        <v>-0.000195898340706749</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>134</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3218743443448274</v>
+        <v>0.07488015115741013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6009113140854493</v>
+        <v>0.03102150928023046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009800510101974129</v>
+        <v>-0.02096489513367967</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07382714126247338</v>
+        <v>-0.0100867286230571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003269019036089294</v>
+        <v>-0.01550840613021449</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08583254228283095</v>
+        <v>0.005171951698225217</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.00177245941815554</v>
+        <v>0.007851878533453999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01396606710493221</v>
+        <v>0.01072863714540708</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.002544327391305124</v>
+        <v>-0.005525610864941384</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0005598923574024624</v>
+        <v>-0.001442693954476393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004677646114583442</v>
+        <v>-0.005861998038869254</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0008220289889591571</v>
+        <v>0.00519946906746974</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001766667539976501</v>
+        <v>-0.002411605167973371</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0005204605421661292</v>
+        <v>0.003609951827053167</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0001144022965175992</v>
+        <v>-0.00296185133039181</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.000133870488740826</v>
+        <v>0.004038640913803569</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.9467834908717004</v>
+        <v>0.03059521663861636</v>
       </c>
       <c r="S6" t="n">
-        <v>0.953568732726719</v>
+        <v>-0.007033925842783759</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.04430606761690962</v>
+        <v>-0.01431853018241609</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1118695896342425</v>
+        <v>-0.01467032217875543</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.05057435539312192</v>
+        <v>0.003958271915456559</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01361025745931714</v>
+        <v>0.005529853083862014</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002066897290895112</v>
+        <v>0.006543079872176821</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001468495016528505</v>
+        <v>-0.007594377012921301</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.0209219855749126</v>
+        <v>0.002255043241177942</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.000109436826792411</v>
+        <v>-0.001325018087671733</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.006023326197068705</v>
+        <v>0.001722694953332962</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001001937960586412</v>
+        <v>-0.006054467407441273</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.0003126037565190539</v>
+        <v>0.005447978587208169</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.0003661983206423958</v>
+        <v>0.0005196935224761967</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0005737775301834407</v>
+        <v>0.001449889997588008</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0001927658097073511</v>
+        <v>-0.007025081099906286</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.946782503332531</v>
+        <v>0.02052651542366684</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.02338544592472017</v>
+        <v>-0.01284383020928093</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.08597496479686098</v>
+        <v>0.01084738613153238</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.02360705924145643</v>
+        <v>-0.00691698497160137</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03713583058869591</v>
+        <v>0.01911930636498456</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.04794494999387285</v>
+        <v>-0.01671143529187171</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.008256883422039535</v>
+        <v>0.004126063752701435</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.01182358030756277</v>
+        <v>-0.007313821662924143</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.004620427440797067</v>
+        <v>0.01939281015375459</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.003127068575169708</v>
+        <v>-0.01533686373642313</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.001210747474018284</v>
+        <v>0.004702624173091908</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.001478826882628441</v>
+        <v>-0.00758940884264012</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0008211980819571238</v>
+        <v>0.01760896073671442</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.0002628735229835277</v>
+        <v>-0.01519511040242095</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0002994174533330365</v>
+        <v>0.005010567800072618</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.0001819891114641002</v>
+        <v>-0.006897667316551247</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.3218748426501474</v>
+        <v>-0.03727137270171028</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.008560723295974827</v>
+        <v>0.02060715759692758</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0485532037802679</v>
+        <v>0.01195998047325191</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.1509640685095355</v>
+        <v>0.00036962675827251</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.02000767578445432</v>
+        <v>-0.03335688279528938</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.06450459420705387</v>
+        <v>0.019521785329579</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.001008682221007282</v>
+        <v>0.01004883814568481</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.0008614407955673323</v>
+        <v>0.001350876918734611</v>
       </c>
       <c r="BF6" t="n">
-        <v>-6.709622187536226e-05</v>
+        <v>-0.03024116425276874</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.003729714547289141</v>
+        <v>0.01981871549832492</v>
       </c>
       <c r="BH6" t="n">
-        <v>3.048599108331672e-05</v>
+        <v>0.008899655277832793</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.002655088448053246</v>
+        <v>0.0004137895789294286</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.001552993602791296</v>
+        <v>-0.02867863613322083</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.0009009620872255068</v>
+        <v>0.01972700471533461</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.0003474049762306756</v>
+        <v>0.00808346865018509</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0001913461410816207</v>
+        <v>7.8411097148956e-05</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>136</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3133533813417362</v>
+        <v>0.1184991295072778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6553544138053993</v>
+        <v>0.02582114366281359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06380251416658241</v>
+        <v>-0.01336452497258792</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07652247222514967</v>
+        <v>-0.02256250329983168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001386447025057608</v>
+        <v>0.003066954708341933</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01604746806987324</v>
+        <v>-0.001877560050411846</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02728811117417669</v>
+        <v>-0.003918775804688787</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.008468178975677924</v>
+        <v>0.0001649729924893708</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0007625327810686609</v>
+        <v>0.001608262558947918</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002657072963597103</v>
+        <v>-0.004855742847151259</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0004313377700041161</v>
+        <v>-0.003837791308866949</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0006940248881600383</v>
+        <v>0.004307433565510638</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0009148607858413189</v>
+        <v>0.003893056845114573</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001909339223956638</v>
+        <v>-0.003585729040663016</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0004025282386317117</v>
+        <v>-0.004081337923802724</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0002453706625220122</v>
+        <v>0.003376205376058705</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.9496365089558276</v>
+        <v>0.02256859776553637</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9287359014661591</v>
+        <v>0.00934984012370511</v>
       </c>
       <c r="T7" t="n">
-        <v>0.007254510737552157</v>
+        <v>-0.005308141614327668</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08578580282521736</v>
+        <v>-0.02012861977796988</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.1292826987999718</v>
+        <v>-0.02000960811390001</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03046521072601028</v>
+        <v>0.008716696830596617</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0523165100170482</v>
+        <v>0.009530358666092852</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.01865456433091487</v>
+        <v>-0.003326740819343095</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.02064620186379216</v>
+        <v>-0.01667537512652699</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01341505932982973</v>
+        <v>0.006273105471674175</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.003263124834749759</v>
+        <v>0.008619110909250485</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.00128328172438415</v>
+        <v>0.0009416068059905508</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.004270360533452732</v>
+        <v>-0.01322710824311683</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.002128519765708392</v>
+        <v>0.00485928143968571</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001335103326996236</v>
+        <v>0.006108192775219201</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.0009261268209213864</v>
+        <v>0.001708802907429439</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.9496361411346079</v>
+        <v>-0.0003071722099333147</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.04838608395797787</v>
+        <v>0.005175633760581798</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1377647368826084</v>
+        <v>0.004980137416661343</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0757286035439029</v>
+        <v>-0.0009801247737251044</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.05528558769070963</v>
+        <v>-0.002270834009234663</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.02660926940130114</v>
+        <v>0.001703110942284424</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.001426051924848359</v>
+        <v>0.003191482220749845</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.001424265115444608</v>
+        <v>-0.001417753627720175</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.002644348130121771</v>
+        <v>-0.002357266390682833</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.004172074498432723</v>
+        <v>0.0007740758611517206</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.002840309263229025</v>
+        <v>0.002497354563771718</v>
       </c>
       <c r="AS7" t="n">
-        <v>-6.675658655631487e-06</v>
+        <v>-0.001120050753931579</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.0007775053882913899</v>
+        <v>-0.001886792171206457</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0002768143316346876</v>
+        <v>0.0005075278548267741</v>
       </c>
       <c r="AV7" t="n">
-        <v>-1.314230542866793e-05</v>
+        <v>0.00210990749605157</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0001204855983302063</v>
+        <v>-0.0008494859268218794</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.3133529773908245</v>
+        <v>0.01562015112259869</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.1442485837515199</v>
+        <v>-0.002434076586467774</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.204888954699173</v>
+        <v>-0.0009644644206445597</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1655700204243138</v>
+        <v>-0.00437310306595847</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.1728874906800364</v>
+        <v>0.01083065787808212</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.03155289269277192</v>
+        <v>-0.004317354722038757</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.01892576857856584</v>
+        <v>-0.000757374749419713</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.01076528899056047</v>
+        <v>-0.004995272492189283</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.01288205223256324</v>
+        <v>0.009320390275405837</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.006252711466080895</v>
+        <v>-0.004211289149114544</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.009021912413421268</v>
+        <v>0.0001516671277608298</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.001055861323757881</v>
+        <v>-0.004960291544208402</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.004051527025968933</v>
+        <v>0.008371400591782732</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0004071330918207086</v>
+        <v>-0.003965984685401044</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.001052079706952356</v>
+        <v>0.0009021612847813666</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0002426630285033038</v>
+        <v>-0.004916695369835379</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>138</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3690196134760966</v>
+        <v>0.09384459625486963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5346030248682327</v>
+        <v>0.01451295604730513</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01426606160277157</v>
+        <v>-0.02094952901284065</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07369428322658379</v>
+        <v>-0.01473554651246812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003896419016868203</v>
+        <v>-0.009996043239988726</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07334033583726092</v>
+        <v>0.003812252195129076</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.007490480184694732</v>
+        <v>0.008508556926387236</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01344715413018998</v>
+        <v>0.002715906475864006</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.413722214015743e-05</v>
+        <v>-0.001957583172046556</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001754991369753935</v>
+        <v>-0.00174059023665473</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004494024267691406</v>
+        <v>-0.0001052984651427186</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0004756027416513238</v>
+        <v>2.947905193742288e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002115272539387942</v>
+        <v>-0.0004922810195527746</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.00053849814024966</v>
+        <v>0.000596307636279711</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.396041172266977e-05</v>
+        <v>0.001026620173684756</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0002420585548833032</v>
+        <v>-0.0002561763966580401</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.9294216932978593</v>
+        <v>0.01700990841257951</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9062894341106915</v>
+        <v>-0.006966356899237676</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01545745796927287</v>
+        <v>-0.009752469877074909</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1337790502361365</v>
+        <v>-0.0006678851923385561</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.08787527250613202</v>
+        <v>0.006121309401051052</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002399079690214447</v>
+        <v>-0.003386948607789739</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0002426061749983837</v>
+        <v>-0.002972902364645008</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.009130042692512972</v>
+        <v>0.001139732380926102</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.02442755107577141</v>
+        <v>0.006029267876082372</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.002684723975489245</v>
+        <v>-0.004237484936640979</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.006238129433973213</v>
+        <v>-0.00344845413440328</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.00313762079392421</v>
+        <v>0.001005536436395486</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.001049348754155117</v>
+        <v>0.006110767916036017</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.001129579746265172</v>
+        <v>-0.003708494000662608</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0007581734929597609</v>
+        <v>-0.002972322492555613</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0005567030493763932</v>
+        <v>0.0006967960822743688</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.9294213619481695</v>
+        <v>0.003039417146948803</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01113754321955492</v>
+        <v>0.001762178634292179</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1037216073695193</v>
+        <v>-0.0005858565058235364</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.0003067497743215325</v>
+        <v>-6.897176692017198e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.02415686771544796</v>
+        <v>0.001555316716114398</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.04459032630148611</v>
+        <v>3.931749699441619e-06</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.008506229563403984</v>
+        <v>-0.0011586441451952</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.01271512642301532</v>
+        <v>-0.0001548764370008853</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.003968686557659609</v>
+        <v>0.001550032043472498</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.002969432486869025</v>
+        <v>5.160250197055604e-05</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.001447630911523756</v>
+        <v>-0.00114769598837642</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0009646893023234651</v>
+        <v>-0.0002882711080095148</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0008048073872721229</v>
+        <v>0.001360276562771759</v>
       </c>
       <c r="AU8" t="n">
-        <v>3.37927315822054e-05</v>
+        <v>1.938687131388338e-05</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.0002740482211880662</v>
+        <v>-0.001031085864868294</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.0002066345143723707</v>
+        <v>-0.0002678068033338809</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.3690200704147314</v>
+        <v>-0.01267524135617442</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.0428275229458423</v>
+        <v>0.004985655348787333</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.06953906358794225</v>
+        <v>0.002182823677628697</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.1353062425456879</v>
+        <v>0.002051204377530308</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.003327179282322014</v>
+        <v>-0.01109546159332651</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.07277803711484562</v>
+        <v>0.005520498151716377</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.003754687755315944</v>
+        <v>0.002107598617407283</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.002658456316091975</v>
+        <v>0.002622377100971285</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.004511416209470761</v>
+        <v>-0.010363406580223</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.006394664429567453</v>
+        <v>0.005593268145367588</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.001046292282447374</v>
+        <v>0.001640000340764262</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.002454081969027697</v>
+        <v>0.002846177928438252</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.002645342307915081</v>
+        <v>-0.009892926655725769</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.0009089584130587146</v>
+        <v>0.005551854938222837</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.0007532142698214627</v>
+        <v>0.001151076784510728</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.000108088504301159</v>
+        <v>0.003024479200304082</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>144</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4848715207777904</v>
+        <v>0.06397361898907927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4365592493303426</v>
+        <v>0.01538404566674286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0743059915200984</v>
+        <v>-0.009006273132175337</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03967436503999441</v>
+        <v>-0.005479779083904042</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04280513247576443</v>
+        <v>0.001740502354252381</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03671485278578657</v>
+        <v>0.0008430613126758284</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.007352409569211715</v>
+        <v>-0.0007755083231075796</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.006817114616726799</v>
+        <v>-0.000552207030228952</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.004029909929445291</v>
+        <v>0.001364866310595804</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.002012509353439759</v>
+        <v>-6.476688554798299e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001027195175789021</v>
+        <v>-0.0009040799024269024</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0003090681321341154</v>
+        <v>-0.0004168008222211483</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0006210959764517867</v>
+        <v>0.001231731593813239</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002076486585705659</v>
+        <v>5.874205696774094e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>4.483108590231799e-05</v>
+        <v>-0.0008150601326183457</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.95227052413719e-07</v>
+        <v>-0.000392139581953129</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.8745858887191884</v>
+        <v>0.003804852720028834</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8626299649933263</v>
+        <v>0.001783017417281357</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.07563128977895581</v>
+        <v>-0.00238743056914844</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03562880770911338</v>
+        <v>-0.004647117122452324</v>
       </c>
       <c r="V9" t="n">
-        <v>0.08771517237270941</v>
+        <v>0.003847672972377223</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.02261284868497719</v>
+        <v>0.002876917293840229</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.01440404321751343</v>
+        <v>-0.001882771050288681</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01306017870149367</v>
+        <v>-0.004260093198772103</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.008908406215063114</v>
+        <v>0.003085923968843086</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.005154650604135904</v>
+        <v>0.002712032467396807</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.002303046267587827</v>
+        <v>-0.001569981834650833</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.134186258717326e-05</v>
+        <v>-0.003763020325661899</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.0004366625526336867</v>
+        <v>0.002513836891028691</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0001749841581485149</v>
+        <v>0.00252245022432751</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.29311893106814e-05</v>
+        <v>-0.001309284220343037</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0001173625181723884</v>
+        <v>-0.003327005633804663</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.8745852236173106</v>
+        <v>0.004598983637149432</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.100518772645247</v>
+        <v>0.007991134722341387</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.05316197100436638</v>
+        <v>-0.0001046147478447682</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.02134950290152021</v>
+        <v>-0.001279392177908493</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.01635290611740973</v>
+        <v>-0.002674066876355905</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.02426422830430199</v>
+        <v>0.003898872545384393</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.007989735858803077</v>
+        <v>4.566340844265539e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.01182214995362367</v>
+        <v>-0.0009996967625428004</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.001673152068411656</v>
+        <v>-0.002367155866347916</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0009172164187982975</v>
+        <v>0.003127569265793804</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.0009071390714378131</v>
+        <v>0.0001878750893608665</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.0005271379367352159</v>
+        <v>-0.0009479123902958401</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.001149175986355469</v>
+        <v>-0.00205339814347528</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0002846167759060306</v>
+        <v>0.002599291794626331</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.000180934997326541</v>
+        <v>0.0003280973642864886</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0001083894473051702</v>
+        <v>-0.0008745206479409259</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.4848714789940338</v>
+        <v>-0.01683860178617064</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.1897697897233316</v>
+        <v>0.007884453463522685</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0.04849691054611589</v>
+        <v>0.004660154369985734</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.3081217919108781</v>
+        <v>0.001330498197291022</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.01001659135663708</v>
+        <v>-0.01348124021461969</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.1124441333158163</v>
+        <v>0.006635747949786963</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.009942973810742115</v>
+        <v>0.004890180780604913</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.03192513241757161</v>
+        <v>0.001210085058099985</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.006343978036680374</v>
+        <v>-0.01150748050973594</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01398594078538121</v>
+        <v>0.005148544419495731</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.000716567207291331</v>
+        <v>0.004737085147038324</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.005669452698007783</v>
+        <v>0.001063071874397973</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.001113173087110683</v>
+        <v>-0.009871794796422372</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.002573281156978433</v>
+        <v>0.003935554743932992</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.0004268549992955522</v>
+        <v>0.004494046713656366</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.001226095727696189</v>
+        <v>0.0009612406759290652</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>146</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CostaRica</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3438387558303854</v>
+        <v>0.1227562978514976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.590303299911781</v>
+        <v>-0.05251311984724102</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008156174413838705</v>
+        <v>0.004230388969199188</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07329955066322483</v>
+        <v>-0.002902604842339715</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01333156738983637</v>
+        <v>0.008045749664641047</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06448827940663449</v>
+        <v>-0.006354521551797342</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01613133689362956</v>
+        <v>0.004061184381028624</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.005375739152064869</v>
+        <v>-0.002353081624914453</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.00628839518291318</v>
+        <v>0.001038245573496587</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.002261747984917314</v>
+        <v>-0.001347353145466368</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004550680048434507</v>
+        <v>0.002174285240067885</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0008791412282790189</v>
+        <v>-0.001514040001311093</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001207921279411759</v>
+        <v>0.0002846296120817694</v>
       </c>
       <c r="O10" t="n">
-        <v>7.32724473853082e-05</v>
+        <v>-0.000399682736139432</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.785228023681531e-05</v>
+        <v>0.001192059727216734</v>
       </c>
       <c r="Q10" t="n">
-        <v>-7.898291263211857e-05</v>
+        <v>-0.0009510525432417747</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.9390299903016741</v>
+        <v>0.002297918160643122</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8573777649247527</v>
+        <v>0.009703372473002389</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001095283013438934</v>
+        <v>-0.004842163911363419</v>
       </c>
       <c r="U10" t="n">
-        <v>0.143873406537388</v>
+        <v>-0.01821644604806742</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.03316115064511437</v>
+        <v>0.01873618901449229</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01801641104614364</v>
+        <v>0.003418695882056598</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.004264605020036087</v>
+        <v>-0.006796196450591646</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01188854139458275</v>
+        <v>-0.01058398129205502</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.02045059901697651</v>
+        <v>0.0139476931609648</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.008442000091565196</v>
+        <v>0.001386148035110116</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.007304815301326449</v>
+        <v>-0.006284305247422992</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002185232427432215</v>
+        <v>-0.005255889125598723</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0008704669946941608</v>
+        <v>0.009574047157431799</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.0008043666519089787</v>
+        <v>0.0002533069119623693</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0009281061529965847</v>
+        <v>-0.005096440670585237</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0003864400161937273</v>
+        <v>-0.002241948049982852</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.9390290651883085</v>
+        <v>0.00175719613211123</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03404173784593158</v>
+        <v>-0.001334960701748478</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.07753607999227037</v>
+        <v>0.00211535141580135</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.04730226292387678</v>
+        <v>-0.00226783241244908</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.008599166083046512</v>
+        <v>0.001006728850160181</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.06468728866308543</v>
+        <v>-0.0003567593481199521</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.005555254170268055</v>
+        <v>0.001181293516089229</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.008391566742589399</v>
+        <v>-0.001514884323037338</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.0001404847703504688</v>
+        <v>0.0006025834360637556</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.001308220351237278</v>
+        <v>-2.588848753490948e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001075416958737245</v>
+        <v>0.0005640235078399469</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.001273733813126107</v>
+        <v>-0.000926362552678098</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0014075995684579</v>
+        <v>0.000375314851959187</v>
       </c>
       <c r="AU10" t="n">
-        <v>-3.225019846662166e-05</v>
+        <v>8.478309226103389e-05</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.0004562826323109343</v>
+        <v>0.0002394601958647776</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.634593869316613e-05</v>
+        <v>-0.0005626965802314023</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.34383870941628</v>
+        <v>0.02227022140769776</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.1276263225872404</v>
+        <v>-0.005556856365549382</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1264534229485861</v>
+        <v>-0.005898075316138602</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.1882480661909532</v>
+        <v>0.0006740258685641203</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.02664558795370851</v>
+        <v>0.01240247105786239</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.1210407186253386</v>
+        <v>-0.005481277469650625</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.01412853001643217</v>
+        <v>-0.004951974318305261</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.01340549056699247</v>
+        <v>0.001769210389177897</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.001954511104808679</v>
+        <v>0.007301255735925623</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.01386693362617031</v>
+        <v>-0.004458387553569532</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.001285739694047217</v>
+        <v>-0.003381607521108446</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.004394307212142502</v>
+        <v>0.002154795594633442</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.002389104293517689</v>
+        <v>0.004279118216240935</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.001935667579944032</v>
+        <v>-0.003449132307486318</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.0007079425286387953</v>
+        <v>-0.002102949148977539</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0008511347342567274</v>
+        <v>0.002052966933111999</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>156</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8285065051263508</v>
+        <v>0.1146465167779718</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.009116949557401277</v>
+        <v>0.0155036414717679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1503077039490209</v>
+        <v>-0.02720999012355243</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04426882778086644</v>
+        <v>-0.01374986645293059</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09282045117950831</v>
+        <v>-0.005704603592154824</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03532130203864585</v>
+        <v>0.002387027856251775</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04216410789777053</v>
+        <v>0.004063295150726002</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01061638951318255</v>
+        <v>0.001024718568935149</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007674330169801227</v>
+        <v>0.001030566386410033</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005442361573649645</v>
+        <v>-0.0003192334219048347</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006592701214672053</v>
+        <v>-0.001898797182962696</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.00155445515888092</v>
+        <v>-0.0007559830440972206</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0007517290350977212</v>
+        <v>0.001568330433515474</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0009968798296213174</v>
+        <v>0.0007780401373937927</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0009709726175560581</v>
+        <v>-0.001205652330911126</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0001754846705176778</v>
+        <v>-0.000685562158378033</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.5599789288883265</v>
+        <v>0.003470157143739201</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8923980123646371</v>
+        <v>-0.0006888517834547427</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.4546070010507979</v>
+        <v>0.004505102934367814</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09240473358645246</v>
+        <v>-0.008937241217438668</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01454019092790881</v>
+        <v>0.0008519047767370637</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04297738926513227</v>
+        <v>0.004526159798546411</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.04281173587798721</v>
+        <v>0.002622061066296441</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01243190956358896</v>
+        <v>-0.006767244977032363</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0002527304556840938</v>
+        <v>-0.0002655573787530931</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.006634880385583672</v>
+        <v>0.004754149133652081</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.00601299285192557</v>
+        <v>0.001599783201505957</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.001594241259272235</v>
+        <v>-0.005835799496943211</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.0004337874634077027</v>
+        <v>-0.0005463237475686779</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001286271934256917</v>
+        <v>0.004961619537400005</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.0007690849209723297</v>
+        <v>0.001101777330150559</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.317131085023186e-05</v>
+        <v>-0.005351696321202239</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.5599793607462776</v>
+        <v>-0.0004093286593633733</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2342072457335176</v>
+        <v>0.0123097173518704</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0037128061908768</v>
+        <v>0.005186889494304248</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.04950830903402097</v>
+        <v>-0.003571434474269507</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.008739055096209512</v>
+        <v>-0.0007178523746806794</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.06384728332964361</v>
+        <v>0.00651212693872589</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01073787064342475</v>
+        <v>0.001479696459248213</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.01785936653346162</v>
+        <v>-0.004712700053772943</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.004947762344992439</v>
+        <v>-0.0008119878253176479</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.01043537007172443</v>
+        <v>0.005811401145417725</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.003980771312461684</v>
+        <v>0.001107665810764145</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.003040948205217336</v>
+        <v>-0.005058685753601931</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.001956230790964677</v>
+        <v>-0.0009293789020622892</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.001367507871072216</v>
+        <v>0.005276126572164929</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.001033420025457455</v>
+        <v>0.0008846087223266268</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.000328403874714322</v>
+        <v>-0.004949876458460768</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.8285075112462572</v>
+        <v>-0.03681783166357327</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.5331181206367409</v>
+        <v>0.003646169421702095</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.08600564855125187</v>
+        <v>0.01371822720198466</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1849971048494369</v>
+        <v>0.0003142856170632596</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.05746904951874628</v>
+        <v>-0.02693072801693204</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0.06565314485125481</v>
+        <v>0.003329359660398852</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.02646254283305099</v>
+        <v>0.01802522320350382</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.02517393117297324</v>
+        <v>-0.0007965303863766771</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.01476862585596161</v>
+        <v>-0.02262442419354305</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.008427301445497888</v>
+        <v>0.00299675034391083</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.006446288080848985</v>
+        <v>0.01890944833855373</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.002269663531600917</v>
+        <v>-0.001713305966155085</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.003377991437395915</v>
+        <v>-0.02039845074898919</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0.000551772439424352</v>
+        <v>0.002882642672316463</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.001420808161269304</v>
+        <v>0.01863893520713182</v>
       </c>
       <c r="BM11" t="n">
-        <v>-1.416522198216573e-05</v>
+        <v>-0.002327627513634828</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>158</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>NewZealand</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1442316840833317</v>
+        <v>0.0516552290743626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8953756339548492</v>
+        <v>0.01470808662288823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04195669068889376</v>
+        <v>-0.009546114852112472</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.007518307668600791</v>
+        <v>-0.00652632882325797</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01586062686836474</v>
+        <v>0.0004827949401870914</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09399851653100702</v>
+        <v>0.00178710502608701</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03233865609620001</v>
+        <v>0.0004290221773556539</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01294125105985659</v>
+        <v>-0.0003176793254985046</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01612288196499425</v>
+        <v>-0.000208487317845877</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01757372455905611</v>
+        <v>1.519391793683705e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00839344221389114</v>
+        <v>5.793363548961743e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.004497726711633365</v>
+        <v>1.435696064621676e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.004427866027874624</v>
+        <v>-1.027967596734893e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003312481555496747</v>
+        <v>-6.896739574661728e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>0.00206167823973804</v>
+        <v>4.596461755835343e-07</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001027989758101308</v>
+        <v>1.905312130839832e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.9895439587673869</v>
+        <v>0.01116050538570891</v>
       </c>
       <c r="S12" t="n">
-        <v>1.055645722001571</v>
+        <v>-0.006082821459333889</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08677196433029352</v>
+        <v>-0.007656688378597072</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1305696651227911</v>
+        <v>0.0003782901818471765</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.2136801457918044</v>
+        <v>0.00231915989528573</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1989770107661301</v>
+        <v>0.0004812761104757841</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04012082620859606</v>
+        <v>-0.0004590945358561479</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.03881115196396673</v>
+        <v>-0.0002493202329550739</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.04808285344181627</v>
+        <v>3.989332062961791e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03681418134217268</v>
+        <v>7.416341999107932e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01397924645226205</v>
+        <v>1.310545755774903e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.009285219793996281</v>
+        <v>-1.459857454796304e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.01132132231040826</v>
+        <v>-7.941132135760842e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.006890995416271964</v>
+        <v>1.210952786748771e-06</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.004110390528114549</v>
+        <v>2.409994894165029e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.00201601985324164</v>
+        <v>4.495942563226199e-07</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.9895445693518776</v>
+        <v>0.001586826983802742</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1706259437613352</v>
+        <v>0.002156265995886442</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.009041860649422447</v>
+        <v>-0.000268646610452665</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.07457932397919298</v>
+        <v>-0.0007851309713398116</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.04975281560482313</v>
+        <v>-0.0001093464301563776</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.03049752869985035</v>
+        <v>0.0001785771193605189</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.004700684891917883</v>
+        <v>7.566646606087195e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.002423131866778145</v>
+        <v>-2.271755924951134e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.005278903754262969</v>
+        <v>-2.547806937410158e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.00727830034219515</v>
+        <v>-2.157353323356061e-06</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.0005698447089520836</v>
+        <v>5.717612521834326e-06</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.001877692896257826</v>
+        <v>2.347097570713905e-06</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0008849585771122793</v>
+        <v>-7.110119970661167e-07</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.001438800341970536</v>
+        <v>-8.231681599906479e-07</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.000199744608844741</v>
+        <v>-7.80902732291459e-08</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.0005175002199350187</v>
+        <v>1.857854398514674e-07</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1442322714291229</v>
+        <v>-0.01192629848450967</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.3127911302379672</v>
+        <v>0.0005558131788184649</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.08171181496803001</v>
+        <v>0.000551119942915826</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.0606690967259432</v>
+        <v>-0.0002833565944039948</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.03971063829441827</v>
+        <v>8.293577159594978e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0588490812012106</v>
+        <v>0.0001143573827125099</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0.01972909556518024</v>
+        <v>-2.065692952888411e-05</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.01756126934750882</v>
+        <v>-3.532645431747607e-05</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.006808306288842757</v>
+        <v>-1.937995296174419e-06</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01244982168115594</v>
+        <v>8.13981461083241e-06</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0.003472380158053039</v>
+        <v>2.638325614108075e-06</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.004766874766020274</v>
+        <v>-1.195604255462057e-06</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.001070594757526572</v>
+        <v>-1.006622129289285e-06</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.002835967509899117</v>
+        <v>-1.918705675359202e-08</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.0005489430581580002</v>
+        <v>2.467961923221375e-07</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.001206706597459254</v>
+        <v>8.352571357759901e-08</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>174</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8097009248676282</v>
+        <v>0.08008490897106037</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0105673031512229</v>
+        <v>0.02049750097137831</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1646168531389416</v>
+        <v>0.001392818018163969</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008305395359478076</v>
+        <v>-0.01104359493790519</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04858008079030213</v>
+        <v>6.577057204368286e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0469331759371571</v>
+        <v>0.004334443218148775</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.007790417763081009</v>
+        <v>0.003321949537820941</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003351583417038999</v>
+        <v>0.0007721055332187054</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005933766894515583</v>
+        <v>-0.0002710481901137948</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001288665764845348</v>
+        <v>0.001285570352539435</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004408983471857822</v>
+        <v>0.0004125706790729557</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001973426056066615</v>
+        <v>0.0004722271746882219</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0005780685622264667</v>
+        <v>-0.000324548178657218</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0003329815676745679</v>
+        <v>0.0009839031545346389</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0002950203344999874</v>
+        <v>7.318130400827289e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0001041022614697409</v>
+        <v>0.0002990047338804476</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.5868421878827332</v>
+        <v>0.03229289491878035</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9089438159509792</v>
+        <v>-0.003984354279537201</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.359748066357491</v>
+        <v>-0.005623448102711591</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04608044501176083</v>
+        <v>-0.00903181709412817</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02586973132441919</v>
+        <v>-0.002255908968536653</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.07752673801323655</v>
+        <v>-0.00454496311176412</v>
       </c>
       <c r="X13" t="n">
-        <v>0.07902416973953416</v>
+        <v>-0.0001831772385121747</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.04638543100651267</v>
+        <v>-0.000911876622169982</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004429125303126133</v>
+        <v>4.740649248066927e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01165508873149737</v>
+        <v>-0.003382124547357773</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.008715303023814527</v>
+        <v>-0.0004127823349160804</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.006497373119206425</v>
+        <v>-0.0004418321659074234</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.003584107399695665</v>
+        <v>0.001086780673311211</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.346136746898479e-05</v>
+        <v>-0.002036073167016095</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.001481402164895341</v>
+        <v>-8.999211361345843e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.001242779029432732</v>
+        <v>-0.0005287323384353274</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.5868426639321511</v>
+        <v>0.01242830939211533</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1964369532566222</v>
+        <v>-0.001418158724264716</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.06264329531088783</v>
+        <v>0.0005394420252026828</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.09285966536497259</v>
+        <v>-0.003070465034918146</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.05089981649283026</v>
+        <v>0.01230907816049443</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.003451173311006842</v>
+        <v>-0.001214137968316363</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.007821378560371989</v>
+        <v>0.0006954154149000813</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.001602953371866139</v>
+        <v>-0.005818009565030841</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.001652399618075766</v>
+        <v>0.008654414569338287</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.003760577193160601</v>
+        <v>-0.001231972637271113</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.002806330814803346</v>
+        <v>0.001856406486728626</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.001086042082279872</v>
+        <v>-0.006125087744276806</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.0006815076786402055</v>
+        <v>0.006261740032125088</v>
       </c>
       <c r="AU13" t="n">
-        <v>-9.816243251897089e-06</v>
+        <v>-0.001477484656942829</v>
       </c>
       <c r="AV13" t="n">
-        <v>-4.813132300296062e-05</v>
+        <v>0.00268728738010636</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.689789169625181e-06</v>
+        <v>-0.00573594438375501</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.8097017723806589</v>
+        <v>-0.03996281084950486</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.4903136229809453</v>
+        <v>0.003574519183770013</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.01199880790504917</v>
+        <v>0.002255009542441982</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1300923260270175</v>
+        <v>0.01067779366606054</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.06638922076080254</v>
+        <v>-0.02585354081152394</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.02881511974473445</v>
+        <v>0.003137549310304285</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.03789421568319422</v>
+        <v>-0.0007482171399481523</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.006016591057362116</v>
+        <v>0.01332427097702306</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0179513476398462</v>
+        <v>-0.01848119988499445</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01130130116038896</v>
+        <v>0.002960851601958374</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.002837886608802767</v>
+        <v>-0.003461092038109547</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.0006609499912415687</v>
+        <v>0.0136074298543592</v>
       </c>
       <c r="BJ13" t="n">
-        <v>6.83208715955282e-05</v>
+        <v>-0.01355917446475267</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.001226290305064408</v>
+        <v>0.003190458355351557</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.001418493836068769</v>
+        <v>-0.005533049742910151</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0003843983346682679</v>
+        <v>0.01264045896295691</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>182</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SouthAfrica</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3847917345523592</v>
+        <v>0.07923756672349065</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5535253893326102</v>
+        <v>0.02082020702659378</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02838852967219771</v>
+        <v>0.005524471117922476</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0640208898397408</v>
+        <v>0.00149316360339195</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03712478087817129</v>
+        <v>0.0004172780315380647</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03990996176567892</v>
+        <v>0.0001233670354644427</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0292080036803331</v>
+        <v>3.969356702460635e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004863212377513408</v>
+        <v>1.422278714904763e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001427354931324608</v>
+        <v>5.69720605089454e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0002434319491128362</v>
+        <v>2.505586642023372e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0008797189944218396</v>
+        <v>1.176264008529106e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001269394754169549</v>
+        <v>5.747219187646665e-07</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0002351956273632934</v>
+        <v>2.871992679152815e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0005939881837172515</v>
+        <v>1.452614243969571e-07</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0001892229155362274</v>
+        <v>7.393582954299339e-08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.211104742349327e-05</v>
+        <v>3.775458608489556e-08</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.923003910439091</v>
+        <v>0.0003837090142036787</v>
       </c>
       <c r="S14" t="n">
-        <v>1.004667511772179</v>
+        <v>-8.734280006580362e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.03315767105345108</v>
+        <v>-0.0001185871307747091</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.02661645984570862</v>
+        <v>-7.996019490642786e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.0624848323783921</v>
+        <v>-4.596176085135439e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01394277702143727</v>
+        <v>-2.484764320412645e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04024521820035649</v>
+        <v>-1.306875570470313e-05</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.003215830299712496</v>
+        <v>-6.783811298040876e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.01952057892093607</v>
+        <v>-3.498641917734991e-06</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.007699825242712138</v>
+        <v>-1.798531480565123e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.00176614623579508</v>
+        <v>-9.230552531041896e-07</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.001067980439822956</v>
+        <v>-4.733462315546247e-07</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.002135025455954944</v>
+        <v>-2.426322840981256e-07</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.0001159784047762818</v>
+        <v>-1.243443887659355e-07</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0007533838148518416</v>
+        <v>-6.371726109070593e-08</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0001074440708714419</v>
+        <v>-3.264858116784862e-08</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.923004628811542</v>
+        <v>0.00150620972588517</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.05320860973277204</v>
+        <v>0.002280905007242804</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.05220937489211781</v>
+        <v>0.001561102822921151</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0474850832882928</v>
+        <v>0.0009019084464534175</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.009984355382604799</v>
+        <v>0.0004886459527438919</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.015468519423057</v>
+        <v>0.000257267335851794</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.004282851772439084</v>
+        <v>0.0001336101237806187</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.003790990006510654</v>
+        <v>6.892426804780275e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.004626189567745752</v>
+        <v>3.543598454084734e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.001682910764621268</v>
+        <v>1.818784816973696e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0006268750899519094</v>
+        <v>9.327092755397063e-06</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.992543672365572e-05</v>
+        <v>4.781046059709338e-06</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.0001243931524449875</v>
+        <v>2.450214284963972e-06</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0001228780539358151</v>
+        <v>1.255557967116896e-06</v>
       </c>
       <c r="AV14" t="n">
-        <v>-1.49202382658073e-05</v>
+        <v>6.433464243306444e-07</v>
       </c>
       <c r="AW14" t="n">
-        <v>-3.477438130648022e-05</v>
+        <v>3.296404839568482e-07</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.384791207000692</v>
+        <v>-0.006583410977599945</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.07633787644655608</v>
+        <v>-0.003351469633069661</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.09534952031337923</v>
+        <v>-0.001711555107756271</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.1145980704578169</v>
+        <v>-0.0008754826838070544</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.05319539721924124</v>
+        <v>-0.0004481891872274848</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.0226418738459081</v>
+        <v>-0.000229539160287585</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.003938530413519028</v>
+        <v>-0.0001175829782348789</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0003901037450393934</v>
+        <v>-6.023916829202413e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001825562902482454</v>
+        <v>-3.086293737288521e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.0004539282502866934</v>
+        <v>-1.581275777045438e-05</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0.000857805683035299</v>
+        <v>-8.101848259698886e-06</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.001090052586814765</v>
+        <v>-4.15110483011192e-06</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.0005723315673955288</v>
+        <v>-2.126889244237563e-06</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0002786159920642432</v>
+        <v>-1.089749930288387e-06</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.0001474358416630557</v>
+        <v>-5.583534851276079e-07</v>
       </c>
       <c r="BM14" t="n">
-        <v>4.353313819392361e-05</v>
+        <v>-2.860828468720562e-07</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>184</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6429293729288906</v>
+        <v>0.04040861222662547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237163965426806</v>
+        <v>0.01550535418286673</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03143416027602409</v>
+        <v>-0.008141324349192758</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08968106689065554</v>
+        <v>-0.01067587013389464</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06616849743340328</v>
+        <v>-0.01026165241846269</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03784557107811497</v>
+        <v>0.007078674539528265</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02962729100764531</v>
+        <v>0.01122382282496107</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0105592880894768</v>
+        <v>0.00786216196806549</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007802750431957276</v>
+        <v>-0.005625029370614279</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0009416077389815371</v>
+        <v>-0.004770846710725585</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.004278816010974632</v>
+        <v>-0.001635704877067478</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004527040626971495</v>
+        <v>0.004815157881958195</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0003667540517079937</v>
+        <v>0.0007712031513981196</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0008540817935859082</v>
+        <v>0.001661259000261881</v>
       </c>
       <c r="P15" t="n">
-        <v>8.751573166789059e-05</v>
+        <v>-0.0007578957200531799</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0005280459325416118</v>
+        <v>0.0006193433432732943</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.7659274215401248</v>
+        <v>0.03291068079144724</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9959534656685385</v>
+        <v>-0.006446989318374365</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.06307283730922074</v>
+        <v>-0.01578486942741848</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1071682087371644</v>
+        <v>-0.01240741573867901</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.1526858969637453</v>
+        <v>0.004616779098550458</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02774842128966958</v>
+        <v>0.002081451676353098</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1122926256258181</v>
+        <v>0.003857446429022549</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.04097758139647222</v>
+        <v>-0.001630116907978952</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0007847957316148161</v>
+        <v>0.001693888916419898</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.01455893222722727</v>
+        <v>-0.006981740465776082</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002114231660519022</v>
+        <v>-0.001763329351572734</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01082484236510286</v>
+        <v>0.0006938787139644281</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.005150339958173854</v>
+        <v>0.006919852450413499</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002029991967397878</v>
+        <v>-0.00284533905371283</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.002645502087766251</v>
+        <v>-0.002547822883868376</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0004383459112110149</v>
+        <v>-0.002366354928797499</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.7659244296548737</v>
+        <v>0.01565489832375624</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0687417603063277</v>
+        <v>0.005362476457165839</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.05386435869680478</v>
+        <v>0.001248344702052583</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.07791743901217986</v>
+        <v>-0.005737091267630159</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.01671786416845803</v>
+        <v>0.0103600759683076</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.03537756334240635</v>
+        <v>0.001809850800998988</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003619212294544993</v>
+        <v>0.0003273601260847473</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.01414955228324263</v>
+        <v>-0.004779749819872365</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.003381117133440508</v>
+        <v>0.008645642835034781</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.005757692653870923</v>
+        <v>0.0006065837143575848</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.005255352366905569</v>
+        <v>-0.0009299125277487353</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.0006427832285838186</v>
+        <v>-0.005147721517132298</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.001535367304777255</v>
+        <v>0.007230345939561661</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.387071276681066e-05</v>
+        <v>0.0006941453622673929</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.0006261290779188398</v>
+        <v>-0.0007780175895356887</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0006486177423763548</v>
+        <v>-0.004920908304253646</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.6429303445271715</v>
+        <v>-0.0216457408154606</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.1294619653136884</v>
+        <v>0.008985614444063121</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.06510101381974819</v>
+        <v>0.00325513219545284</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.1990676364458306</v>
+        <v>-0.001000265151093202</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.02036821846657469</v>
+        <v>-0.01830604334361614</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.1353871150240612</v>
+        <v>0.008165526174584496</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.03641145930888784</v>
+        <v>0.004492261681401714</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.008934024683549714</v>
+        <v>0.001112379091964906</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.02536601567821084</v>
+        <v>-0.01530503441202021</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.002808617251942952</v>
+        <v>0.006873333866661999</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.01308855788709861</v>
+        <v>0.003862669245360789</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0.006177633782655786</v>
+        <v>0.00150404046393863</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.003434744413432534</v>
+        <v>-0.012817922021351</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.003807819377764897</v>
+        <v>0.006252588642328317</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0006548736993592072</v>
+        <v>0.003591267962280425</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.001258249996315877</v>
+        <v>0.001543954934111376</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>186</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5281855747905394</v>
+        <v>0.1180269535246118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3577600100310349</v>
+        <v>0.02846964926312819</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02184427567577391</v>
+        <v>-0.02353097589561519</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03714468370778993</v>
+        <v>-0.02189699464167224</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.006881933084184763</v>
+        <v>-0.006055244425029512</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02838857179864113</v>
+        <v>0.00229036965625488</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02323578490478199</v>
+        <v>0.005203230393154124</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0001987743487600743</v>
+        <v>0.001329237231116575</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0004972873075352029</v>
+        <v>0.000480742006495144</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.003205300520347545</v>
+        <v>-0.001566357982147682</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001013098709902173</v>
+        <v>-0.0003347862878372581</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0008485715930359793</v>
+        <v>-0.0004799106975896016</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0002155563336375163</v>
+        <v>0.001010740032326097</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.000455141170826362</v>
+        <v>-0.000281301736653301</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0002623975925282857</v>
+        <v>9.392216195061783e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.959094718908374e-05</v>
+        <v>-0.0004373631383127145</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.8491293374581032</v>
+        <v>0.001388445877881471</v>
       </c>
       <c r="S16" t="n">
-        <v>1.123911791343141</v>
+        <v>-0.001340985032400263</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.1857135660616892</v>
+        <v>0.003415202612227299</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.05967021117233949</v>
+        <v>-0.004432067424822671</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.1294482955651045</v>
+        <v>0.004592711620659904</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1172736289877988</v>
+        <v>-0.000813993260498907</v>
       </c>
       <c r="X16" t="n">
-        <v>0.002085002632646115</v>
+        <v>0.0006950488049765085</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.01567497381633834</v>
+        <v>-0.004327611617002776</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01835462583864539</v>
+        <v>0.003834816737054291</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01891377298238604</v>
+        <v>-0.0001970443270333367</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.002433421876947957</v>
+        <v>0.0003725003288298592</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.001168157544708691</v>
+        <v>-0.003511099827000765</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.002679638915410328</v>
+        <v>0.003223398405785554</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.00264098696568921</v>
+        <v>-7.979193858766583e-07</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.0002806869746476567</v>
+        <v>-3.20213321598955e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.0002722676877187867</v>
+        <v>-0.002866503647110472</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.8491301108184116</v>
+        <v>-0.004760567977244165</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.01309770594276651</v>
+        <v>0.0110153076559547</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.029949252304099</v>
+        <v>0.002328405149879766</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.003842934564356078</v>
+        <v>0.0001178365744930645</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.02478878663519494</v>
+        <v>-0.004215472810464456</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.02036482721142645</v>
+        <v>0.004032797661013955</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0005018687586897507</v>
+        <v>-0.001098180233272349</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.002160319077241239</v>
+        <v>-0.0004867920990838367</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.001461608875078935</v>
+        <v>-0.002499739202079135</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0.00144092979631554</v>
+        <v>0.004100621236315712</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.001158054340389528</v>
+        <v>-0.000729479955633851</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.0003457139515219559</v>
+        <v>-0.0009493017690508465</v>
       </c>
       <c r="AT16" t="n">
-        <v>-8.003870052266892e-05</v>
+        <v>-0.002081876598817967</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.535781620726778e-05</v>
+        <v>0.003516362215534856</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.15961892941244e-06</v>
+        <v>-0.0005228276330551216</v>
       </c>
       <c r="AW16" t="n">
-        <v>-1.301811941872848e-05</v>
+        <v>-0.001074753316011005</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.5281851474767016</v>
+        <v>-0.03200977731849915</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.005532480570656048</v>
+        <v>0.01729776160396961</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.1572344961206364</v>
+        <v>0.009237391840297784</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.06303034124021954</v>
+        <v>0.0007378945193183644</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.02825759125189367</v>
+        <v>-0.0262152629622433</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.03990885353479992</v>
+        <v>0.01593216680581409</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0.02271850262587567</v>
+        <v>0.009713611065920894</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.001973302362186512</v>
+        <v>-0.001447364729823284</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.002109668019655591</v>
+        <v>-0.02241711279137607</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.001487628210969092</v>
+        <v>0.01424949586831235</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.00205034581633073</v>
+        <v>0.00955664258420809</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.0005328369282169902</v>
+        <v>-0.003072410951650585</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.0001451486648931595</v>
+        <v>-0.01918187774553403</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.0005240256761202574</v>
+        <v>0.01289583144322574</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.0004547576328327203</v>
+        <v>0.009158545901590388</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0001156562752880334</v>
+        <v>-0.004259319638425967</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>199</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2217266856103739</v>
+        <v>0.08449047156165435</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.050578907212606</v>
+        <v>0.006230707098163257</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2545503589526818</v>
+        <v>0.0004099919023335529</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4410409453256979</v>
+        <v>1.38986585641695e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>0.009020849889764095</v>
+        <v>-1.631273195110516e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2150051156272659</v>
+        <v>-9.925903669918857e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1041149043846668</v>
+        <v>-5.383877582024652e-06</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04058757356652042</v>
+        <v>-2.877147459772862e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1103576168672424</v>
+        <v>-1.534371080114018e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01798362630099705</v>
+        <v>-8.180360192448959e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.04109898190939821</v>
+        <v>-4.361106431343959e-07</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02600883749706469</v>
+        <v>-2.324975843768399e-07</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.02295488316442033</v>
+        <v>-1.239480939358237e-07</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01640711413734107</v>
+        <v>-6.607865746469013e-08</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.001308096209077389</v>
+        <v>-3.522755988946646e-08</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.003017385617695639</v>
+        <v>-1.878035996158723e-08</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9751088325969546</v>
+        <v>0.000476816831713464</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.5834053101506314</v>
+        <v>-0.0001868669145195259</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.2052081931568323</v>
+        <v>-0.0001327101885412402</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.2885545960762047</v>
+        <v>-7.323215211246442e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.006565181480145617</v>
+        <v>-3.922741910568236e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>0.006301485866219737</v>
+        <v>-2.092671724756406e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0365304353532783</v>
+        <v>-1.115740640296862e-05</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.000242670405972218</v>
+        <v>-5.94826547068951e-06</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.07685439513465882</v>
+        <v>-3.17111871436645e-06</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03286819148610043</v>
+        <v>-1.690573139021469e-06</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.008757560006496721</v>
+        <v>-9.012708614925778e-07</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.01097464976010605</v>
+        <v>-4.804815132328385e-07</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.005420346041964668</v>
+        <v>-2.56152166228955e-07</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.01074553792411333</v>
+        <v>-1.365587029169837e-07</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.006097283152317484</v>
+        <v>-7.280156797134462e-08</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.00169201228237663</v>
+        <v>-3.881164792728399e-08</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.9751089009254518</v>
+        <v>0.001338987333910252</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.2317177061441649</v>
+        <v>0.001452319737566873</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.2322514861531889</v>
+        <v>0.0008296550373372649</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.4166051891694929</v>
+        <v>0.0004464581450565906</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.07687243835332638</v>
+        <v>0.0002383255714901187</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.3140920796327985</v>
+        <v>0.0001270784585538873</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.02428090164354248</v>
+        <v>6.774925703080464e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.06347451050960004</v>
+        <v>3.611831404316471e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.06652830499174803</v>
+        <v>1.925524472052364e-05</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.01178709853889362</v>
+        <v>1.026527111442499e-05</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.03558418808945349</v>
+        <v>5.472575708444101e-06</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.02061369842706211</v>
+        <v>2.917515211186908e-06</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0.02805273070900921</v>
+        <v>1.555372725848344e-06</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0.005853405189306484</v>
+        <v>8.291933857341153e-07</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.004628549937750735</v>
+        <v>4.420558876352101e-07</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.002570696641599674</v>
+        <v>2.356668675296754e-07</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.2217274299730712</v>
+        <v>0.006080368845540966</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.2459573830119656</v>
+        <v>0.003249931327774816</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.1597866437294508</v>
+        <v>0.001733218501530636</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.2991164649614767</v>
+        <v>0.0009240529646330911</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.03092030421683579</v>
+        <v>0.0004926305473896635</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.1255774415805717</v>
+        <v>0.0002626292708747575</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.00613755433890132</v>
+        <v>0.000140011768047547</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.0124756011058448</v>
+        <v>7.464245218144341e-05</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.05745654698872595</v>
+        <v>3.979305203701053e-05</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0227371853034553</v>
+        <v>2.121429481890057e-05</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0.0144917695837301</v>
+        <v>1.130967044425698e-05</v>
       </c>
       <c r="BI17" t="n">
-        <v>-0.008226559873475574</v>
+        <v>6.029361175729655e-06</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.01205391678821805</v>
+        <v>3.214346197471268e-06</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0.006766053998943583</v>
+        <v>1.713617939953287e-06</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0.00213362586292614</v>
+        <v>9.13556370013751e-07</v>
       </c>
       <c r="BM17" t="n">
-        <v>-0.0008878163404785174</v>
+        <v>4.870311063710247e-07</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>228</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9289237327094592</v>
+        <v>0.1067496839451767</v>
       </c>
       <c r="C18" t="n">
-        <v>1.259174053884291</v>
+        <v>0.03543899397394197</v>
       </c>
       <c r="D18" t="n">
-        <v>1.179118299072892</v>
+        <v>-0.02039090940627832</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3321966164389888</v>
+        <v>-0.0140936541664533</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7447498144214114</v>
+        <v>0.002875543992637365</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5775653577793404</v>
+        <v>0.00452539990871457</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5140814933010103</v>
+        <v>0.0001211865216194675</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4360851111312833</v>
+        <v>-0.001242124810341156</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4188911139018608</v>
+        <v>-0.0002875108945105031</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3524492736907016</v>
+        <v>0.0002888982016044049</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3234077254492633</v>
+        <v>0.0001394702378505665</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2844307366119548</v>
+        <v>-5.23711490988364e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2552855269583267</v>
+        <v>-4.972890261207935e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2257928182125937</v>
+        <v>4.5010819090311e-06</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2022889820860778</v>
+        <v>1.483686510777111e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1794990897397643</v>
+        <v>1.770367265190098e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3702699657047579</v>
+        <v>0.05188196436214818</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1313288694332457</v>
+        <v>-0.02776324663602418</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.05873803811804684</v>
+        <v>-0.03439388770219737</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0447556897237277</v>
+        <v>0.00178662940356091</v>
       </c>
       <c r="V18" t="n">
-        <v>0.009334654043956808</v>
+        <v>0.009568919373381302</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.03519955546260597</v>
+        <v>0.00152937365626273</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01302155242782566</v>
+        <v>-0.002383906529866926</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.01850230805978392</v>
+        <v>-0.0009110256153562659</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.01256857362369332</v>
+        <v>0.0004802637250887193</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.01405769591478985</v>
+        <v>0.0003532402055457755</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.0104548684948467</v>
+        <v>-6.231190161895481e-05</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.01059108198114854</v>
+        <v>-0.0001115778147252073</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.008766291636281634</v>
+        <v>-5.349992599670424e-06</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.008148421444233098</v>
+        <v>3.013508633260003e-05</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.00705377936397425</v>
+        <v>7.651595672978745e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.006417894064417992</v>
+        <v>-6.871215618872905e-06</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.3702697512842271</v>
+        <v>0.004399764768975543</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.459390171821639</v>
+        <v>0.002253757713779784</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.918306172800098</v>
+        <v>-0.0001964359408218502</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.1316449286415476</v>
+        <v>-0.0007169744284036861</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.007362486731906</v>
+        <v>-7.387355093271417e-05</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.7658410429340322</v>
+        <v>0.000182384716150181</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.6029995023336387</v>
+        <v>5.868812356104986e-05</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.519753151888689</v>
+        <v>-3.922105108748999e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.5280931263877024</v>
+        <v>-2.439862433797498e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.4229682491309981</v>
+        <v>5.985962926846652e-06</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.3961914383684004</v>
+        <v>8.052690428282478e-06</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.3476197923644707</v>
+        <v>-3.110169957499342e-08</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.3121272118727177</v>
+        <v>-2.259970705588202e-06</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.2751564959408083</v>
+        <v>-4.528610143580333e-07</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.2475009651325079</v>
+        <v>5.400151564782096e-07</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.2190666150577761</v>
+        <v>2.370267554931592e-07</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.9289249388257219</v>
+        <v>-0.007956771426273268</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.2039099308863898</v>
+        <v>0.00182419637779591</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.1683415493871087</v>
+        <v>-0.001926965173999483</v>
       </c>
       <c r="BA18" t="n">
-        <v>-0.05682709195378735</v>
+        <v>-0.0002541481723557643</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.04654800430383399</v>
+        <v>0.0003122126685849431</v>
       </c>
       <c r="BC18" t="n">
-        <v>-0.05859084664779191</v>
+        <v>0.000170531960132292</v>
       </c>
       <c r="BD18" t="n">
-        <v>-0.01346755378042605</v>
+        <v>-6.06752785264662e-05</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.02265175281451967</v>
+        <v>-5.835373472053479e-05</v>
       </c>
       <c r="BF18" t="n">
-        <v>-0.0147958330933565</v>
+        <v>4.672749919088376e-06</v>
       </c>
       <c r="BG18" t="n">
-        <v>-0.01811647951899867</v>
+        <v>1.73716725719587e-05</v>
       </c>
       <c r="BH18" t="n">
-        <v>-0.01200404322837892</v>
+        <v>2.22105112358178e-06</v>
       </c>
       <c r="BI18" t="n">
-        <v>-0.01330189004830933</v>
+        <v>-4.40403442580691e-06</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-0.01058634186465743</v>
+        <v>-1.521946298637795e-06</v>
       </c>
       <c r="BK18" t="n">
-        <v>-0.01000913886621839</v>
+        <v>9.219361647611162e-07</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.008563423457325026</v>
+        <v>6.141861724681456e-07</v>
       </c>
       <c r="BM18" t="n">
-        <v>-0.007880001603635875</v>
+        <v>-1.325789019993938e-07</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>273</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7618360222413723</v>
+        <v>0.1376471617584953</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2095085918062934</v>
+        <v>0.0221754692209265</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04674366224913424</v>
+        <v>-0.04437763806081053</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.06202178671571193</v>
+        <v>-0.01273182094785971</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1470319423908208</v>
+        <v>-0.0003535220906169002</v>
       </c>
       <c r="G19" t="n">
-        <v>0.188476334002395</v>
+        <v>-0.008426236084050387</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09218899962068526</v>
+        <v>0.002773392649414524</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02387345422441845</v>
+        <v>0.00546005854743299</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01808091844664314</v>
+        <v>0.006951022254944339</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04162164150659435</v>
+        <v>-0.003378628247797956</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05513671889514481</v>
+        <v>-0.003639783151601022</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03132119141126924</v>
+        <v>-0.001789148351814391</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01884294064314148</v>
+        <v>0.004103921155752164</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01342819924282079</v>
+        <v>-0.001101776118592078</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01486020228573029</v>
+        <v>-0.0004356618089418862</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01646002697577619</v>
+        <v>-0.0009993147735652612</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.6477696528881092</v>
+        <v>0.00513479263764406</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4616292028714356</v>
+        <v>-0.0104889105150755</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1709897582806233</v>
+        <v>-0.001540693173525488</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1146750519272905</v>
+        <v>-0.006186310956883271</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.09847434880623945</v>
+        <v>0.02263175791764478</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.1622142059446835</v>
+        <v>-0.001763329595412533</v>
       </c>
       <c r="X19" t="n">
-        <v>0.08230545975004581</v>
+        <v>-0.003126135577858338</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06458232336848682</v>
+        <v>-0.009396122150041472</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02361279070896502</v>
+        <v>0.01158268294745655</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.002711864846408073</v>
+        <v>-0.003315905513382307</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.03799758517655605</v>
+        <v>0.001526230073905242</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01535922209581187</v>
+        <v>-0.006525980536120614</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01290397265143594</v>
+        <v>0.007938331595963383</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.005722384824277861</v>
+        <v>-0.003351164434356714</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.004025418699216549</v>
+        <v>0.002370077420456225</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.006637927515641787</v>
+        <v>-0.005489320140416314</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.6477690099002985</v>
+        <v>0.0006758959641481109</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.1807158690085023</v>
+        <v>0.007562536585690705</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.1149831621519337</v>
+        <v>0.002018960612914131</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.05504879169957767</v>
+        <v>-0.002035307208810479</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.3292174786584783</v>
+        <v>-0.005443999008783137</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.1589689765238377</v>
+        <v>0.002532233089465141</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.06013090158807221</v>
+        <v>0.001481142370368007</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.02990494811856775</v>
+        <v>0.000589429005696099</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.04136206297921906</v>
+        <v>-0.002671473007772222</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.09069572863838998</v>
+        <v>0.001686944689331652</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.05434373131345284</v>
+        <v>0.0001433107965108933</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.02800048141006684</v>
+        <v>0.0005372704225321861</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.008935551876036963</v>
+        <v>-0.001909088328415164</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.01542304637007324</v>
+        <v>0.001174044764910349</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.02586409057928049</v>
+        <v>-0.0001474663879908775</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.01731923864142345</v>
+        <v>0.0007200929907025526</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.7618361889228361</v>
+        <v>-0.01916041427801387</v>
       </c>
       <c r="AY19" t="n">
-        <v>-0.03112772567209447</v>
+        <v>0.002593674423055737</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.2739626714592687</v>
+        <v>-0.0008257419774659674</v>
       </c>
       <c r="BA19" t="n">
-        <v>-0.08442469993982454</v>
+        <v>0.004494539801462485</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.4267143543438595</v>
+        <v>-0.009789284748096962</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.1921656754418299</v>
+        <v>0.003876305847068418</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.05834108722094111</v>
+        <v>-0.001700514604430413</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.1098183050030587</v>
+        <v>0.004482933991444961</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.00104375503902808</v>
+        <v>-0.006672025887563808</v>
       </c>
       <c r="BG19" t="n">
-        <v>-0.1087553773489624</v>
+        <v>0.003403338068332104</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.03156569237727059</v>
+        <v>-0.002213110151963905</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.0147411683939089</v>
+        <v>0.004057136899554598</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.02144154161581082</v>
+        <v>-0.00473674084104461</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.0118563905507306</v>
+        <v>0.002978806512214799</v>
       </c>
       <c r="BL19" t="n">
-        <v>-0.02253336823714747</v>
+        <v>-0.002414066091048292</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.006249345761521693</v>
+        <v>0.003406659559804096</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8575106248340479</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.04840802517769371</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.03497816328983877</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1059339713441684</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.02275806176333852</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.03012175457800484</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.02168555897007441</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.00503943628445478</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.009263706675240202</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.002413945817407579</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.004768883271930382</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-0.006999437284130057</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.0006562815933225131</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.001464500765153553</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.0008327419708821599</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0007969996932184046</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-0.5144673150587297</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.624512254807492</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.06942539753646768</v>
-      </c>
-      <c r="U20" t="n">
-        <v>-0.1646589669687237</v>
-      </c>
-      <c r="V20" t="n">
-        <v>-0.02966776566498452</v>
-      </c>
-      <c r="W20" t="n">
-        <v>-0.0918339412727083</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.1453815285048142</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.007131529409192885</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>-0.03050732326330285</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>-0.01704633432936381</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-0.01901232816769757</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0.03567240570208369</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.0008616783160138217</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>-0.005869734614224955</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>-0.006282304165964498</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>-0.003638780770357427</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.5144666296426111</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.1954303650651251</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>-0.001113541602004733</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0.1055076386909126</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.01675651371160198</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>-0.0330539918751286</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0.0345609332645887</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-0.003983371209337422</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0.01472049954200364</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>-0.003585895912880199</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>-0.007758589139347327</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0.005812858064975197</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>-0.001379503754318858</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0.003579085459013601</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>-0.001621966127590127</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>-0.001614574472074385</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0.8575087352854808</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>-0.4551554886979465</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0.130789872504494</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>-0.2496397387260499</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0.06088434600292952</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0.1954729127248511</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>-0.1021541705601631</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0.02391070430982762</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>-0.06881798722839888</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0.02549132723629749</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0.03968973487535662</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>-0.01968032770445124</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0.003552353542672109</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>-0.01807140683197337</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0.00831636671828776</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0.00809802717082903</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5299771945245424</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3312381706933257</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.04100169155697256</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.03239013603071945</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.04325853076192607</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.02100397291576622</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.002990322162260611</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.004706863392938391</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.003835584193269541</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.000824074617917149</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0005508361447611747</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.0005659482247692806</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.0001625547264103742</v>
-      </c>
-      <c r="O21" t="n">
-        <v>9.003476096678629e-05</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8.022331119200349e-05</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.539965495178621e-05</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-0.8480119945450872</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.096063950850017</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-0.1496977609086478</v>
-      </c>
-      <c r="U21" t="n">
-        <v>-0.2913145170671399</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.2235449958725653</v>
-      </c>
-      <c r="W21" t="n">
-        <v>-0.00184166239557962</v>
-      </c>
-      <c r="X21" t="n">
-        <v>-0.06040153690974194</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.03515145531659918</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.001337189876177667</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>-0.009501335021258521</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.005374122021945578</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.661876809227734e-05</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>-0.00141420710361814</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.0008922410179428046</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>-4.107639451596176e-05</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>-0.0002164833777829186</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0.848010524860986</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.07044953886786184</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.03413302434078684</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.04876898514278863</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0.04191026834333668</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.007739195910137567</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0.004475461016497562</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.005296079928231391</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0.00250458138424333</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0.0005416447856630003</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0.0006706159559271493</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0.000417368041560285</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0.0001198171161397839</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>9.091188525431996e-05</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>6.125830467921712e-05</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>2.12873831785779e-05</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0.5299781070807769</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.2327375469087258</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>-0.234181855548173</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>-0.00702815153209934</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0.1326745910355242</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>-0.05034146781091645</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>-0.0118435926146572</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0.0236198300749548</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>-0.006076395214104997</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>-0.002730032462272816</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0.003606329030606672</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>-0.0008907341743138534</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>-0.0003630380358278034</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0.0005397858078807146</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>-0.000160949160252262</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>-4.190595854308789e-05</v>
-      </c>
+      <c r="A20" s="1" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ind-IRs-to-composite-shocks.xlsx
+++ b/ind-IRs-to-composite-shocks.xlsx
@@ -957,797 +957,797 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.139543713441247</v>
+        <v>0.1230501413091973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0290634147312792</v>
+        <v>0.01859541852357439</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02952187011611682</v>
+        <v>-0.03249026218025305</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01109949505515588</v>
+        <v>-0.01155389740956819</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0136071485377996</v>
+        <v>-0.009640192535135008</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.002936351246916579</v>
+        <v>-0.001215632119220828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007518968865560013</v>
+        <v>0.003760699157906608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005454450753467992</v>
+        <v>0.004156657628458165</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0009044531503147174</v>
+        <v>0.002815282204624105</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.001026668546648288</v>
+        <v>-0.001246502790816892</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.001900900449587958</v>
+        <v>-0.004340588668180157</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003705134748846874</v>
+        <v>0.0003812200314319029</v>
       </c>
       <c r="N3" t="n">
-        <v>0.000172027497813675</v>
+        <v>0.002602775454007486</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0001601219336772823</v>
+        <v>-0.0001714530114792265</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0002558708379716309</v>
+        <v>-0.002580159009488001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001066703670033544</v>
+        <v>0.0008562777497053163</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01127486656826834</v>
+        <v>0.01232835225532878</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.00124627498080381</v>
+        <v>-0.01613454967455224</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.003828858260354702</v>
+        <v>0.005616951112248223</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.005484303572058894</v>
+        <v>-0.0008710250091277202</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001575323997410763</v>
+        <v>0.002505813183994889</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0004742718225188076</v>
+        <v>-0.01094659579174154</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0008559305319495971</v>
+        <v>0.006510768052309665</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.003272361684547728</v>
+        <v>0.00111450124145313</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002548067463179718</v>
+        <v>0.002162246029868612</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0002428782215850563</v>
+        <v>-0.009384753244828714</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001269236600130033</v>
+        <v>0.005030940279091189</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.003374105164459601</v>
+        <v>0.001943225866899963</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002569875292477458</v>
+        <v>0.001222186487465541</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0004602554171022254</v>
+        <v>-0.007904248059135944</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0003149251310019314</v>
+        <v>0.004323743843845846</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.003237414443272643</v>
+        <v>0.002482443426878979</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.01405565862506687</v>
+        <v>-0.0008087769650086594</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.009779456703508122</v>
+        <v>0.01626259589302075</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0008299908304550793</v>
+        <v>0.003229186432601807</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.003387486192065575</v>
+        <v>-0.01015179303852299</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.006096612841669796</v>
+        <v>0.0005641695673535415</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.002220534394186469</v>
+        <v>0.01273091085598917</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.002350868216827891</v>
+        <v>-0.000109266165771455</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.004043911685726616</v>
+        <v>-0.00981918201560769</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.005913449988054716</v>
+        <v>0.0003633813825765166</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.002260996568150145</v>
+        <v>0.01129937378376956</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.002626521682870816</v>
+        <v>-0.0005448457078400071</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.004549030191947322</v>
+        <v>-0.009765775605049664</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.005259936697857782</v>
+        <v>0.0003638234843916298</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.00204973927795439</v>
+        <v>0.0103886869073789</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.0025585198194883</v>
+        <v>-0.0008499130392313023</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.004468771227134445</v>
+        <v>-0.009370528167278425</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.0256079014477279</v>
+        <v>0.04133503352146148</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.008953514344171283</v>
+        <v>-0.005205502023660968</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.00560979162481151</v>
+        <v>-0.01042714808834202</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.003511485148837577</v>
+        <v>-0.003226040978329309</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.02293755189261376</v>
+        <v>0.03291497766326121</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.009730096424327206</v>
+        <v>-0.007188256767625772</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.006630371483889611</v>
+        <v>-0.01414900472674216</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.004498304723828633</v>
+        <v>-0.002702958548245911</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.0216096785733148</v>
+        <v>0.02797274950628199</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.009592530588479087</v>
+        <v>-0.007074113910765146</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.006728115222927294</v>
+        <v>-0.01546372091221582</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.004701702787112659</v>
+        <v>-0.001469051428146809</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.02084647598198663</v>
+        <v>0.02469183055044741</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.009141879682961058</v>
+        <v>-0.006546217468561639</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.006643144443703022</v>
+        <v>-0.01579432926830675</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.004791362038764907</v>
+        <v>-0.000195898340706749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1049835518755519</v>
+        <v>0.06397361898907927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01844695783999283</v>
+        <v>0.01538404566674286</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02525341414511862</v>
+        <v>-0.009006273132175337</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01900599060637153</v>
+        <v>-0.005479779083904042</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0147865912159872</v>
+        <v>0.001740502354252381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002567552392138601</v>
+        <v>0.0008430613126758284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01008262025248042</v>
+        <v>-0.0007755083231075796</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005666743060521762</v>
+        <v>-0.000552207030228952</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001282311135452642</v>
+        <v>0.001364866310595804</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.002351322019506741</v>
+        <v>-6.476688554798299e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.003533877527086185</v>
+        <v>-0.0009040799024269024</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.001138307712727495</v>
+        <v>-0.0004168008222211483</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001507207577031179</v>
+        <v>0.001231731593813239</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001595341646699962</v>
+        <v>5.874205696774094e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>-5.389086407418331e-05</v>
+        <v>-0.0008150601326183457</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0005797527235779398</v>
+        <v>-0.000392139581953129</v>
       </c>
       <c r="R4" t="n">
-        <v>0.007099998302921857</v>
+        <v>0.003804852720028834</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001177071080911021</v>
+        <v>0.001783017417281357</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.001176546212430743</v>
+        <v>-0.00238743056914844</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.005270619026883249</v>
+        <v>-0.004647117122452324</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.001093761947433555</v>
+        <v>0.003847672972377223</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002018917043404213</v>
+        <v>0.002876917293840229</v>
       </c>
       <c r="X4" t="n">
-        <v>0.00170463162726356</v>
+        <v>-0.001882771050288681</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.002488645530137574</v>
+        <v>-0.004260093198772103</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.000552405579545736</v>
+        <v>0.003085923968843086</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001595852167643058</v>
+        <v>0.002712032467396807</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.000578597950909324</v>
+        <v>-0.001569981834650833</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.002575173267917732</v>
+        <v>-0.003763020325661899</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.0005144093220780903</v>
+        <v>0.002513836891028691</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.002214214478367896</v>
+        <v>0.00252245022432751</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0008157203047872812</v>
+        <v>-0.001309284220343037</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.002474078096961898</v>
+        <v>-0.003327005633804663</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.005048453064282097</v>
+        <v>0.004598983637149432</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.007767658510714914</v>
+        <v>0.007991134722341387</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.00312496439996186</v>
+        <v>-0.0001046147478447682</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.00330031361426274</v>
+        <v>-0.001279392177908493</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.0009586186541179131</v>
+        <v>-0.002674066876355905</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.004188415251769002</v>
+        <v>0.003898872545384393</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.002276031493748508</v>
+        <v>4.566340844265539e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.002670435926927385</v>
+        <v>-0.0009996967625428004</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.000522023058209295</v>
+        <v>-0.002367155866347916</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.003984225285967932</v>
+        <v>0.003127569265793804</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.001512904940233559</v>
+        <v>0.0001878750893608665</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.003509254285331218</v>
+        <v>-0.0009479123902958401</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.001119149587117659</v>
+        <v>-0.00205339814347528</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.003899245344941174</v>
+        <v>0.002599291794626331</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001610945188621694</v>
+        <v>0.0003280973642864886</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.003574109218009255</v>
+        <v>-0.0008745206479409259</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.01959009513750554</v>
+        <v>-0.01683860178617064</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.00071956598222992</v>
+        <v>0.007884453463522685</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.006711006149180887</v>
+        <v>0.004660154369985734</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.226374883993132e-05</v>
+        <v>0.001330498197291022</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.01591087548911093</v>
+        <v>-0.01348124021461969</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0002479961725227454</v>
+        <v>0.006635747949786963</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.009861670777274435</v>
+        <v>0.004890180780604913</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0003595693329627711</v>
+        <v>0.001210085058099985</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.01407338348306375</v>
+        <v>-0.01150748050973594</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.0001274639617997208</v>
+        <v>0.005148544419495731</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.01134556865181284</v>
+        <v>0.004737085147038324</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0005465204787361014</v>
+        <v>0.001063071874397973</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.01337485181656418</v>
+        <v>-0.009871794796422372</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.0004782167307032031</v>
+        <v>0.003935554743932992</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.01217117959956354</v>
+        <v>0.004494046713656366</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0008068280643025121</v>
+        <v>0.0009612406759290652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1230501413091973</v>
+        <v>0.1180269535246118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01859541852357439</v>
+        <v>0.02846964926312819</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03249026218025305</v>
+        <v>-0.02353097589561519</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01155389740956819</v>
+        <v>-0.02189699464167224</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.009640192535135008</v>
+        <v>-0.006055244425029512</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.001215632119220828</v>
+        <v>0.00229036965625488</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003760699157906608</v>
+        <v>0.005203230393154124</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004156657628458165</v>
+        <v>0.001329237231116575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002815282204624105</v>
+        <v>0.000480742006495144</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.001246502790816892</v>
+        <v>-0.001566357982147682</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.004340588668180157</v>
+        <v>-0.0003347862878372581</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003812200314319029</v>
+        <v>-0.0004799106975896016</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002602775454007486</v>
+        <v>0.001010740032326097</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0001714530114792265</v>
+        <v>-0.000281301736653301</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.002580159009488001</v>
+        <v>9.392216195061783e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0008562777497053163</v>
+        <v>-0.0004373631383127145</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01232835225532878</v>
+        <v>0.001388445877881471</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.01613454967455224</v>
+        <v>-0.001340985032400263</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005616951112248223</v>
+        <v>0.003415202612227299</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.0008710250091277202</v>
+        <v>-0.004432067424822671</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002505813183994889</v>
+        <v>0.004592711620659904</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.01094659579174154</v>
+        <v>-0.000813993260498907</v>
       </c>
       <c r="X5" t="n">
-        <v>0.006510768052309665</v>
+        <v>0.0006950488049765085</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00111450124145313</v>
+        <v>-0.004327611617002776</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002162246029868612</v>
+        <v>0.003834816737054291</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.009384753244828714</v>
+        <v>-0.0001970443270333367</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.005030940279091189</v>
+        <v>0.0003725003288298592</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.001943225866899963</v>
+        <v>-0.003511099827000765</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001222186487465541</v>
+        <v>0.003223398405785554</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.007904248059135944</v>
+        <v>-7.979193858766583e-07</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.004323743843845846</v>
+        <v>-3.20213321598955e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.002482443426878979</v>
+        <v>-0.002866503647110472</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.0008087769650086594</v>
+        <v>-0.004760567977244165</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01626259589302075</v>
+        <v>0.0110153076559547</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.003229186432601807</v>
+        <v>0.002328405149879766</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.01015179303852299</v>
+        <v>0.0001178365744930645</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0005641695673535415</v>
+        <v>-0.004215472810464456</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.01273091085598917</v>
+        <v>0.004032797661013955</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.000109266165771455</v>
+        <v>-0.001098180233272349</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.00981918201560769</v>
+        <v>-0.0004867920990838367</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0003633813825765166</v>
+        <v>-0.002499739202079135</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01129937378376956</v>
+        <v>0.004100621236315712</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.0005448457078400071</v>
+        <v>-0.000729479955633851</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.009765775605049664</v>
+        <v>-0.0009493017690508465</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0003638234843916298</v>
+        <v>-0.002081876598817967</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0103886869073789</v>
+        <v>0.003516362215534856</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.0008499130392313023</v>
+        <v>-0.0005228276330551216</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.009370528167278425</v>
+        <v>-0.001074753316011005</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.04133503352146148</v>
+        <v>-0.03200977731849915</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0.005205502023660968</v>
+        <v>0.01729776160396961</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.01042714808834202</v>
+        <v>0.009237391840297784</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.003226040978329309</v>
+        <v>0.0007378945193183644</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.03291497766326121</v>
+        <v>-0.0262152629622433</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.007188256767625772</v>
+        <v>0.01593216680581409</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0.01414900472674216</v>
+        <v>0.009713611065920894</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.002702958548245911</v>
+        <v>-0.001447364729823284</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.02797274950628199</v>
+        <v>-0.02241711279137607</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.007074113910765146</v>
+        <v>0.01424949586831235</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.01546372091221582</v>
+        <v>0.00955664258420809</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.001469051428146809</v>
+        <v>-0.003072410951650585</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.02469183055044741</v>
+        <v>-0.01918187774553403</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.006546217468561639</v>
+        <v>0.01289583144322574</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.01579432926830675</v>
+        <v>0.009158545901590388</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.000195898340706749</v>
+        <v>-0.004259319638425967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07488015115741013</v>
+        <v>0.08449047156165435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03102150928023046</v>
+        <v>0.006230707098163257</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02096489513367967</v>
+        <v>0.0004099919023335529</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0100867286230571</v>
+        <v>1.38986585641695e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01550840613021449</v>
+        <v>-1.631273195110516e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005171951698225217</v>
+        <v>-9.925903669918857e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007851878533453999</v>
+        <v>-5.383877582024652e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01072863714540708</v>
+        <v>-2.877147459772862e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.005525610864941384</v>
+        <v>-1.534371080114018e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.001442693954476393</v>
+        <v>-8.180360192448959e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.005861998038869254</v>
+        <v>-4.361106431343959e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00519946906746974</v>
+        <v>-2.324975843768399e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.002411605167973371</v>
+        <v>-1.239480939358237e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003609951827053167</v>
+        <v>-6.607865746469013e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.00296185133039181</v>
+        <v>-3.522755988946646e-08</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004038640913803569</v>
+        <v>-1.878035996158723e-08</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03059521663861636</v>
+        <v>0.000476816831713464</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.007033925842783759</v>
+        <v>-0.0001868669145195259</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01431853018241609</v>
+        <v>-0.0001327101885412402</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.01467032217875543</v>
+        <v>-7.323215211246442e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.003958271915456559</v>
+        <v>-3.922741910568236e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.005529853083862014</v>
+        <v>-2.092671724756406e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.006543079872176821</v>
+        <v>-1.115740640296862e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.007594377012921301</v>
+        <v>-5.94826547068951e-06</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002255043241177942</v>
+        <v>-3.17111871436645e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.001325018087671733</v>
+        <v>-1.690573139021469e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001722694953332962</v>
+        <v>-9.012708614925778e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.006054467407441273</v>
+        <v>-4.804815132328385e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.005447978587208169</v>
+        <v>-2.56152166228955e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0005196935224761967</v>
+        <v>-1.365587029169837e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.001449889997588008</v>
+        <v>-7.280156797134462e-08</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.007025081099906286</v>
+        <v>-3.881164792728399e-08</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02052651542366684</v>
+        <v>0.001338987333910252</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.01284383020928093</v>
+        <v>0.001452319737566873</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.01084738613153238</v>
+        <v>0.0008296550373372649</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.00691698497160137</v>
+        <v>0.0004464581450565906</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.01911930636498456</v>
+        <v>0.0002383255714901187</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.01671143529187171</v>
+        <v>0.0001270784585538873</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.004126063752701435</v>
+        <v>6.774925703080464e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.007313821662924143</v>
+        <v>3.611831404316471e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.01939281015375459</v>
+        <v>1.925524472052364e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.01533686373642313</v>
+        <v>1.026527111442499e-05</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.004702624173091908</v>
+        <v>5.472575708444101e-06</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.00758940884264012</v>
+        <v>2.917515211186908e-06</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.01760896073671442</v>
+        <v>1.555372725848344e-06</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.01519511040242095</v>
+        <v>8.291933857341153e-07</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.005010567800072618</v>
+        <v>4.420558876352101e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.006897667316551247</v>
+        <v>2.356668675296754e-07</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.03727137270171028</v>
+        <v>0.006080368845540966</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.02060715759692758</v>
+        <v>0.003249931327774816</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.01195998047325191</v>
+        <v>0.001733218501530636</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.00036962675827251</v>
+        <v>0.0009240529646330911</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.03335688279528938</v>
+        <v>0.0004926305473896635</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.019521785329579</v>
+        <v>0.0002626292708747575</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01004883814568481</v>
+        <v>0.000140011768047547</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.001350876918734611</v>
+        <v>7.464245218144341e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.03024116425276874</v>
+        <v>3.979305203701053e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01981871549832492</v>
+        <v>2.121429481890057e-05</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.008899655277832793</v>
+        <v>1.130967044425698e-05</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0004137895789294286</v>
+        <v>6.029361175729655e-06</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.02867863613322083</v>
+        <v>3.214346197471268e-06</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.01972700471533461</v>
+        <v>1.713617939953287e-06</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.00808346865018509</v>
+        <v>9.13556370013751e-07</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.8411097148956e-05</v>
+        <v>4.870311063710247e-07</v>
       </c>
     </row>
     <row r="7">
@@ -1952,2389 +1952,2389 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09384459625486963</v>
+        <v>0.1067496839451767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01451295604730513</v>
+        <v>0.03543899397394197</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02094952901284065</v>
+        <v>-0.02039090940627832</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01473554651246812</v>
+        <v>-0.0140936541664533</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009996043239988726</v>
+        <v>0.002875543992637365</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003812252195129076</v>
+        <v>0.00452539990871457</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008508556926387236</v>
+        <v>0.0001211865216194675</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002715906475864006</v>
+        <v>-0.001242124810341156</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.001957583172046556</v>
+        <v>-0.0002875108945105031</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.00174059023665473</v>
+        <v>0.0002888982016044049</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0001052984651427186</v>
+        <v>0.0001394702378505665</v>
       </c>
       <c r="M8" t="n">
-        <v>2.947905193742288e-05</v>
+        <v>-5.23711490988364e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0004922810195527746</v>
+        <v>-4.972890261207935e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.000596307636279711</v>
+        <v>4.5010819090311e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001026620173684756</v>
+        <v>1.483686510777111e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0002561763966580401</v>
+        <v>1.770367265190098e-06</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01700990841257951</v>
+        <v>0.05188196436214818</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.006966356899237676</v>
+        <v>-0.02776324663602418</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.009752469877074909</v>
+        <v>-0.03439388770219737</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0006678851923385561</v>
+        <v>0.00178662940356091</v>
       </c>
       <c r="V8" t="n">
-        <v>0.006121309401051052</v>
+        <v>0.009568919373381302</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.003386948607789739</v>
+        <v>0.00152937365626273</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.002972902364645008</v>
+        <v>-0.002383906529866926</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001139732380926102</v>
+        <v>-0.0009110256153562659</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.006029267876082372</v>
+        <v>0.0004802637250887193</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.004237484936640979</v>
+        <v>0.0003532402055457755</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.00344845413440328</v>
+        <v>-6.231190161895481e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.001005536436395486</v>
+        <v>-0.0001115778147252073</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.006110767916036017</v>
+        <v>-5.349992599670424e-06</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.003708494000662608</v>
+        <v>3.013508633260003e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.002972322492555613</v>
+        <v>7.651595672978745e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0006967960822743688</v>
+        <v>-6.871215618872905e-06</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.003039417146948803</v>
+        <v>0.004399764768975543</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001762178634292179</v>
+        <v>0.002253757713779784</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.0005858565058235364</v>
+        <v>-0.0001964359408218502</v>
       </c>
       <c r="AK8" t="n">
-        <v>-6.897176692017198e-05</v>
+        <v>-0.0007169744284036861</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.001555316716114398</v>
+        <v>-7.387355093271417e-05</v>
       </c>
       <c r="AM8" t="n">
-        <v>3.931749699441619e-06</v>
+        <v>0.000182384716150181</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.0011586441451952</v>
+        <v>5.868812356104986e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.0001548764370008853</v>
+        <v>-3.922105108748999e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.001550032043472498</v>
+        <v>-2.439862433797498e-05</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5.160250197055604e-05</v>
+        <v>5.985962926846652e-06</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.00114769598837642</v>
+        <v>8.052690428282478e-06</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.0002882711080095148</v>
+        <v>-3.110169957499342e-08</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001360276562771759</v>
+        <v>-2.259970705588202e-06</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.938687131388338e-05</v>
+        <v>-4.528610143580333e-07</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.001031085864868294</v>
+        <v>5.400151564782096e-07</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.0002678068033338809</v>
+        <v>2.370267554931592e-07</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.01267524135617442</v>
+        <v>-0.007956771426273268</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.004985655348787333</v>
+        <v>0.00182419637779591</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.002182823677628697</v>
+        <v>-0.001926965173999483</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.002051204377530308</v>
+        <v>-0.0002541481723557643</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.01109546159332651</v>
+        <v>0.0003122126685849431</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.005520498151716377</v>
+        <v>0.000170531960132292</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.002107598617407283</v>
+        <v>-6.06752785264662e-05</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.002622377100971285</v>
+        <v>-5.835373472053479e-05</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.010363406580223</v>
+        <v>4.672749919088376e-06</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.005593268145367588</v>
+        <v>1.73716725719587e-05</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.001640000340764262</v>
+        <v>2.22105112358178e-06</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.002846177928438252</v>
+        <v>-4.40403442580691e-06</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.009892926655725769</v>
+        <v>-1.521946298637795e-06</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.005551854938222837</v>
+        <v>9.219361647611162e-07</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.001151076784510728</v>
+        <v>6.141861724681456e-07</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.003024479200304082</v>
+        <v>-1.325789019993938e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>CostaRica</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06397361898907927</v>
+        <v>0.1227562978514976</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01538404566674286</v>
+        <v>-0.05251311984724102</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.009006273132175337</v>
+        <v>0.004230388969199188</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.005479779083904042</v>
+        <v>-0.002902604842339715</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001740502354252381</v>
+        <v>0.008045749664641047</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0008430613126758284</v>
+        <v>-0.006354521551797342</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0007755083231075796</v>
+        <v>0.004061184381028624</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.000552207030228952</v>
+        <v>-0.002353081624914453</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001364866310595804</v>
+        <v>0.001038245573496587</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.476688554798299e-06</v>
+        <v>-0.001347353145466368</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0009040799024269024</v>
+        <v>0.002174285240067885</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0004168008222211483</v>
+        <v>-0.001514040001311093</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001231731593813239</v>
+        <v>0.0002846296120817694</v>
       </c>
       <c r="O9" t="n">
-        <v>5.874205696774094e-05</v>
+        <v>-0.000399682736139432</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0008150601326183457</v>
+        <v>0.001192059727216734</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.000392139581953129</v>
+        <v>-0.0009510525432417747</v>
       </c>
       <c r="R9" t="n">
-        <v>0.003804852720028834</v>
+        <v>0.002297918160643122</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001783017417281357</v>
+        <v>0.009703372473002389</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.00238743056914844</v>
+        <v>-0.004842163911363419</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.004647117122452324</v>
+        <v>-0.01821644604806742</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003847672972377223</v>
+        <v>0.01873618901449229</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002876917293840229</v>
+        <v>0.003418695882056598</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.001882771050288681</v>
+        <v>-0.006796196450591646</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.004260093198772103</v>
+        <v>-0.01058398129205502</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.003085923968843086</v>
+        <v>0.0139476931609648</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.002712032467396807</v>
+        <v>0.001386148035110116</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.001569981834650833</v>
+        <v>-0.006284305247422992</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.003763020325661899</v>
+        <v>-0.005255889125598723</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002513836891028691</v>
+        <v>0.009574047157431799</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00252245022432751</v>
+        <v>0.0002533069119623693</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.001309284220343037</v>
+        <v>-0.005096440670585237</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.003327005633804663</v>
+        <v>-0.002241948049982852</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.004598983637149432</v>
+        <v>0.00175719613211123</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.007991134722341387</v>
+        <v>-0.001334960701748478</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.0001046147478447682</v>
+        <v>0.00211535141580135</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.001279392177908493</v>
+        <v>-0.00226783241244908</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.002674066876355905</v>
+        <v>0.001006728850160181</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.003898872545384393</v>
+        <v>-0.0003567593481199521</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.566340844265539e-05</v>
+        <v>0.001181293516089229</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.0009996967625428004</v>
+        <v>-0.001514884323037338</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0.002367155866347916</v>
+        <v>0.0006025834360637556</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.003127569265793804</v>
+        <v>-2.588848753490948e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0001878750893608665</v>
+        <v>0.0005640235078399469</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.0009479123902958401</v>
+        <v>-0.000926362552678098</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.00205339814347528</v>
+        <v>0.000375314851959187</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.002599291794626331</v>
+        <v>8.478309226103389e-05</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0003280973642864886</v>
+        <v>0.0002394601958647776</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0008745206479409259</v>
+        <v>-0.0005626965802314023</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.01683860178617064</v>
+        <v>0.02227022140769776</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.007884453463522685</v>
+        <v>-0.005556856365549382</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.004660154369985734</v>
+        <v>-0.005898075316138602</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.001330498197291022</v>
+        <v>0.0006740258685641203</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0.01348124021461969</v>
+        <v>0.01240247105786239</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.006635747949786963</v>
+        <v>-0.005481277469650625</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.004890180780604913</v>
+        <v>-0.004951974318305261</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.001210085058099985</v>
+        <v>0.001769210389177897</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.01150748050973594</v>
+        <v>0.007301255735925623</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.005148544419495731</v>
+        <v>-0.004458387553569532</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.004737085147038324</v>
+        <v>-0.003381607521108446</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.001063071874397973</v>
+        <v>0.002154795594633442</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.009871794796422372</v>
+        <v>0.004279118216240935</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.003935554743932992</v>
+        <v>-0.003449132307486318</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.004494046713656366</v>
+        <v>-0.002102949148977539</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.0009612406759290652</v>
+        <v>0.002052966933111999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CostaRica</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1227562978514976</v>
+        <v>0.1049835518755519</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.05251311984724102</v>
+        <v>0.01844695783999283</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004230388969199188</v>
+        <v>-0.02525341414511862</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.002902604842339715</v>
+        <v>-0.01900599060637153</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008045749664641047</v>
+        <v>-0.0147865912159872</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006354521551797342</v>
+        <v>0.002567552392138601</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004061184381028624</v>
+        <v>0.01008262025248042</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002353081624914453</v>
+        <v>0.005666743060521762</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001038245573496587</v>
+        <v>0.001282311135452642</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.001347353145466368</v>
+        <v>-0.002351322019506741</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002174285240067885</v>
+        <v>-0.003533877527086185</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.001514040001311093</v>
+        <v>-0.001138307712727495</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0002846296120817694</v>
+        <v>0.001507207577031179</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.000399682736139432</v>
+        <v>0.001595341646699962</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001192059727216734</v>
+        <v>-5.389086407418331e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0009510525432417747</v>
+        <v>-0.0005797527235779398</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002297918160643122</v>
+        <v>0.007099998302921857</v>
       </c>
       <c r="S10" t="n">
-        <v>0.009703372473002389</v>
+        <v>0.0001177071080911021</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.004842163911363419</v>
+        <v>-0.001176546212430743</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01821644604806742</v>
+        <v>-0.005270619026883249</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01873618901449229</v>
+        <v>-0.001093761947433555</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003418695882056598</v>
+        <v>0.002018917043404213</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.006796196450591646</v>
+        <v>0.00170463162726356</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.01058398129205502</v>
+        <v>-0.002488645530137574</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0139476931609648</v>
+        <v>-0.000552405579545736</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001386148035110116</v>
+        <v>0.001595852167643058</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.006284305247422992</v>
+        <v>0.000578597950909324</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.005255889125598723</v>
+        <v>-0.002575173267917732</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.009574047157431799</v>
+        <v>-0.0005144093220780903</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0002533069119623693</v>
+        <v>0.002214214478367896</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.005096440670585237</v>
+        <v>0.0008157203047872812</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.002241948049982852</v>
+        <v>-0.002474078096961898</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.00175719613211123</v>
+        <v>0.005048453064282097</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.001334960701748478</v>
+        <v>0.007767658510714914</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.00211535141580135</v>
+        <v>0.00312496439996186</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.00226783241244908</v>
+        <v>-0.00330031361426274</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001006728850160181</v>
+        <v>-0.0009586186541179131</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.0003567593481199521</v>
+        <v>0.004188415251769002</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.001181293516089229</v>
+        <v>0.002276031493748508</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.001514884323037338</v>
+        <v>-0.002670435926927385</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0006025834360637556</v>
+        <v>-0.000522023058209295</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-2.588848753490948e-05</v>
+        <v>0.003984225285967932</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0005640235078399469</v>
+        <v>0.001512904940233559</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.000926362552678098</v>
+        <v>-0.003509254285331218</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.000375314851959187</v>
+        <v>-0.001119149587117659</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.478309226103389e-05</v>
+        <v>0.003899245344941174</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0002394601958647776</v>
+        <v>0.001610945188621694</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.0005626965802314023</v>
+        <v>-0.003574109218009255</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.02227022140769776</v>
+        <v>-0.01959009513750554</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.005556856365549382</v>
+        <v>0.00071956598222992</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0.005898075316138602</v>
+        <v>0.006711006149180887</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0006740258685641203</v>
+        <v>1.226374883993132e-05</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.01240247105786239</v>
+        <v>-0.01591087548911093</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.005481277469650625</v>
+        <v>0.0002479961725227454</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0.004951974318305261</v>
+        <v>0.009861670777274435</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.001769210389177897</v>
+        <v>0.0003595693329627711</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.007301255735925623</v>
+        <v>-0.01407338348306375</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.004458387553569532</v>
+        <v>-0.0001274639617997208</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.003381607521108446</v>
+        <v>0.01134556865181284</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.002154795594633442</v>
+        <v>0.0005465204787361014</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.004279118216240935</v>
+        <v>-0.01337485181656418</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.003449132307486318</v>
+        <v>-0.0004782167307032031</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.002102949148977539</v>
+        <v>0.01217117959956354</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.002052966933111999</v>
+        <v>0.0008068280643025121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1146465167779718</v>
+        <v>0.07488015115741013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0155036414717679</v>
+        <v>0.03102150928023046</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02720999012355243</v>
+        <v>-0.02096489513367967</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01374986645293059</v>
+        <v>-0.0100867286230571</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.005704603592154824</v>
+        <v>-0.01550840613021449</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002387027856251775</v>
+        <v>0.005171951698225217</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004063295150726002</v>
+        <v>0.007851878533453999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001024718568935149</v>
+        <v>0.01072863714540708</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001030566386410033</v>
+        <v>-0.005525610864941384</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0003192334219048347</v>
+        <v>-0.001442693954476393</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001898797182962696</v>
+        <v>-0.005861998038869254</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0007559830440972206</v>
+        <v>0.00519946906746974</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001568330433515474</v>
+        <v>-0.002411605167973371</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0007780401373937927</v>
+        <v>0.003609951827053167</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001205652330911126</v>
+        <v>-0.00296185133039181</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.000685562158378033</v>
+        <v>0.004038640913803569</v>
       </c>
       <c r="R11" t="n">
-        <v>0.003470157143739201</v>
+        <v>0.03059521663861636</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0006888517834547427</v>
+        <v>-0.007033925842783759</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004505102934367814</v>
+        <v>-0.01431853018241609</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.008937241217438668</v>
+        <v>-0.01467032217875543</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0008519047767370637</v>
+        <v>0.003958271915456559</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004526159798546411</v>
+        <v>0.005529853083862014</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002622061066296441</v>
+        <v>0.006543079872176821</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.006767244977032363</v>
+        <v>-0.007594377012921301</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.0002655573787530931</v>
+        <v>0.002255043241177942</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.004754149133652081</v>
+        <v>-0.001325018087671733</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.001599783201505957</v>
+        <v>0.001722694953332962</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.005835799496943211</v>
+        <v>-0.006054467407441273</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.0005463237475686779</v>
+        <v>0.005447978587208169</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.004961619537400005</v>
+        <v>0.0005196935224761967</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.001101777330150559</v>
+        <v>0.001449889997588008</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.005351696321202239</v>
+        <v>-0.007025081099906286</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.0004093286593633733</v>
+        <v>0.02052651542366684</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0123097173518704</v>
+        <v>-0.01284383020928093</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.005186889494304248</v>
+        <v>0.01084738613153238</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.003571434474269507</v>
+        <v>-0.00691698497160137</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.0007178523746806794</v>
+        <v>0.01911930636498456</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.00651212693872589</v>
+        <v>-0.01671143529187171</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.001479696459248213</v>
+        <v>0.004126063752701435</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.004712700053772943</v>
+        <v>-0.007313821662924143</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.0008119878253176479</v>
+        <v>0.01939281015375459</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.005811401145417725</v>
+        <v>-0.01533686373642313</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001107665810764145</v>
+        <v>0.004702624173091908</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.005058685753601931</v>
+        <v>-0.00758940884264012</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.0009293789020622892</v>
+        <v>0.01760896073671442</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.005276126572164929</v>
+        <v>-0.01519511040242095</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0008846087223266268</v>
+        <v>0.005010567800072618</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.004949876458460768</v>
+        <v>-0.006897667316551247</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.03681783166357327</v>
+        <v>-0.03727137270171028</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.003646169421702095</v>
+        <v>0.02060715759692758</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01371822720198466</v>
+        <v>0.01195998047325191</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0003142856170632596</v>
+        <v>0.00036962675827251</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.02693072801693204</v>
+        <v>-0.03335688279528938</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.003329359660398852</v>
+        <v>0.019521785329579</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.01802522320350382</v>
+        <v>0.01004883814568481</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.0007965303863766771</v>
+        <v>0.001350876918734611</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0.02262442419354305</v>
+        <v>-0.03024116425276874</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.00299675034391083</v>
+        <v>0.01981871549832492</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01890944833855373</v>
+        <v>0.008899655277832793</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0.001713305966155085</v>
+        <v>0.0004137895789294286</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.02039845074898919</v>
+        <v>-0.02867863613322083</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.002882642672316463</v>
+        <v>0.01972700471533461</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.01863893520713182</v>
+        <v>0.00808346865018509</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.002327627513634828</v>
+        <v>7.8411097148956e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NewZealand</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0516552290743626</v>
+        <v>0.1146465167779718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01470808662288823</v>
+        <v>0.0155036414717679</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.009546114852112472</v>
+        <v>-0.02720999012355243</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.00652632882325797</v>
+        <v>-0.01374986645293059</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0004827949401870914</v>
+        <v>-0.005704603592154824</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00178710502608701</v>
+        <v>0.002387027856251775</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0004290221773556539</v>
+        <v>0.004063295150726002</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0003176793254985046</v>
+        <v>0.001024718568935149</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.000208487317845877</v>
+        <v>0.001030566386410033</v>
       </c>
       <c r="K12" t="n">
-        <v>1.519391793683705e-05</v>
+        <v>-0.0003192334219048347</v>
       </c>
       <c r="L12" t="n">
-        <v>5.793363548961743e-05</v>
+        <v>-0.001898797182962696</v>
       </c>
       <c r="M12" t="n">
-        <v>1.435696064621676e-05</v>
+        <v>-0.0007559830440972206</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.027967596734893e-05</v>
+        <v>0.001568330433515474</v>
       </c>
       <c r="O12" t="n">
-        <v>-6.896739574661728e-06</v>
+        <v>0.0007780401373937927</v>
       </c>
       <c r="P12" t="n">
-        <v>4.596461755835343e-07</v>
+        <v>-0.001205652330911126</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.905312130839832e-06</v>
+        <v>-0.000685562158378033</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01116050538570891</v>
+        <v>0.003470157143739201</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.006082821459333889</v>
+        <v>-0.0006888517834547427</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.007656688378597072</v>
+        <v>0.004505102934367814</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003782901818471765</v>
+        <v>-0.008937241217438668</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00231915989528573</v>
+        <v>0.0008519047767370637</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0004812761104757841</v>
+        <v>0.004526159798546411</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.0004590945358561479</v>
+        <v>0.002622061066296441</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.0002493202329550739</v>
+        <v>-0.006767244977032363</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.989332062961791e-05</v>
+        <v>-0.0002655573787530931</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.416341999107932e-05</v>
+        <v>0.004754149133652081</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.310545755774903e-05</v>
+        <v>0.001599783201505957</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.459857454796304e-05</v>
+        <v>-0.005835799496943211</v>
       </c>
       <c r="AD12" t="n">
-        <v>-7.941132135760842e-06</v>
+        <v>-0.0005463237475686779</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.210952786748771e-06</v>
+        <v>0.004961619537400005</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.409994894165029e-06</v>
+        <v>0.001101777330150559</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.495942563226199e-07</v>
+        <v>-0.005351696321202239</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.001586826983802742</v>
+        <v>-0.0004093286593633733</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.002156265995886442</v>
+        <v>0.0123097173518704</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.000268646610452665</v>
+        <v>0.005186889494304248</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.0007851309713398116</v>
+        <v>-0.003571434474269507</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.0001093464301563776</v>
+        <v>-0.0007178523746806794</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0001785771193605189</v>
+        <v>0.00651212693872589</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.566646606087195e-05</v>
+        <v>0.001479696459248213</v>
       </c>
       <c r="AO12" t="n">
-        <v>-2.271755924951134e-05</v>
+        <v>-0.004712700053772943</v>
       </c>
       <c r="AP12" t="n">
-        <v>-2.547806937410158e-05</v>
+        <v>-0.0008119878253176479</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-2.157353323356061e-06</v>
+        <v>0.005811401145417725</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.717612521834326e-06</v>
+        <v>0.001107665810764145</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.347097570713905e-06</v>
+        <v>-0.005058685753601931</v>
       </c>
       <c r="AT12" t="n">
-        <v>-7.110119970661167e-07</v>
+        <v>-0.0009293789020622892</v>
       </c>
       <c r="AU12" t="n">
-        <v>-8.231681599906479e-07</v>
+        <v>0.005276126572164929</v>
       </c>
       <c r="AV12" t="n">
-        <v>-7.80902732291459e-08</v>
+        <v>0.0008846087223266268</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.857854398514674e-07</v>
+        <v>-0.004949876458460768</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.01192629848450967</v>
+        <v>-0.03681783166357327</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0005558131788184649</v>
+        <v>0.003646169421702095</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.000551119942915826</v>
+        <v>0.01371822720198466</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.0002833565944039948</v>
+        <v>0.0003142856170632596</v>
       </c>
       <c r="BB12" t="n">
-        <v>8.293577159594978e-05</v>
+        <v>-0.02693072801693204</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0001143573827125099</v>
+        <v>0.003329359660398852</v>
       </c>
       <c r="BD12" t="n">
-        <v>-2.065692952888411e-05</v>
+        <v>0.01802522320350382</v>
       </c>
       <c r="BE12" t="n">
-        <v>-3.532645431747607e-05</v>
+        <v>-0.0007965303863766771</v>
       </c>
       <c r="BF12" t="n">
-        <v>-1.937995296174419e-06</v>
+        <v>-0.02262442419354305</v>
       </c>
       <c r="BG12" t="n">
-        <v>8.13981461083241e-06</v>
+        <v>0.00299675034391083</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.638325614108075e-06</v>
+        <v>0.01890944833855373</v>
       </c>
       <c r="BI12" t="n">
-        <v>-1.195604255462057e-06</v>
+        <v>-0.001713305966155085</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-1.006622129289285e-06</v>
+        <v>-0.02039845074898919</v>
       </c>
       <c r="BK12" t="n">
-        <v>-1.918705675359202e-08</v>
+        <v>0.002882642672316463</v>
       </c>
       <c r="BL12" t="n">
-        <v>2.467961923221375e-07</v>
+        <v>0.01863893520713182</v>
       </c>
       <c r="BM12" t="n">
-        <v>8.352571357759901e-08</v>
+        <v>-0.002327627513634828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08008490897106037</v>
+        <v>0.1376471617584953</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02049750097137831</v>
+        <v>0.0221754692209265</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001392818018163969</v>
+        <v>-0.04437763806081053</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01104359493790519</v>
+        <v>-0.01273182094785971</v>
       </c>
       <c r="F13" t="n">
-        <v>6.577057204368286e-05</v>
+        <v>-0.0003535220906169002</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004334443218148775</v>
+        <v>-0.008426236084050387</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003321949537820941</v>
+        <v>0.002773392649414524</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007721055332187054</v>
+        <v>0.00546005854743299</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0002710481901137948</v>
+        <v>0.006951022254944339</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001285570352539435</v>
+        <v>-0.003378628247797956</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004125706790729557</v>
+        <v>-0.003639783151601022</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0004722271746882219</v>
+        <v>-0.001789148351814391</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.000324548178657218</v>
+        <v>0.004103921155752164</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0009839031545346389</v>
+        <v>-0.001101776118592078</v>
       </c>
       <c r="P13" t="n">
-        <v>7.318130400827289e-05</v>
+        <v>-0.0004356618089418862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0002990047338804476</v>
+        <v>-0.0009993147735652612</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03229289491878035</v>
+        <v>0.00513479263764406</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.003984354279537201</v>
+        <v>-0.0104889105150755</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.005623448102711591</v>
+        <v>-0.001540693173525488</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.00903181709412817</v>
+        <v>-0.006186310956883271</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.002255908968536653</v>
+        <v>0.02263175791764478</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.00454496311176412</v>
+        <v>-0.001763329595412533</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.0001831772385121747</v>
+        <v>-0.003126135577858338</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.000911876622169982</v>
+        <v>-0.009396122150041472</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.740649248066927e-05</v>
+        <v>0.01158268294745655</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.003382124547357773</v>
+        <v>-0.003315905513382307</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.0004127823349160804</v>
+        <v>0.001526230073905242</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.0004418321659074234</v>
+        <v>-0.006525980536120614</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001086780673311211</v>
+        <v>0.007938331595963383</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.002036073167016095</v>
+        <v>-0.003351164434356714</v>
       </c>
       <c r="AF13" t="n">
-        <v>-8.999211361345843e-05</v>
+        <v>0.002370077420456225</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.0005287323384353274</v>
+        <v>-0.005489320140416314</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.01242830939211533</v>
+        <v>0.0006758959641481109</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.001418158724264716</v>
+        <v>0.007562536585690705</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0005394420252026828</v>
+        <v>0.002018960612914131</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.003070465034918146</v>
+        <v>-0.002035307208810479</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01230907816049443</v>
+        <v>-0.005443999008783137</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.001214137968316363</v>
+        <v>0.002532233089465141</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0006954154149000813</v>
+        <v>0.001481142370368007</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.005818009565030841</v>
+        <v>0.000589429005696099</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.008654414569338287</v>
+        <v>-0.002671473007772222</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.001231972637271113</v>
+        <v>0.001686944689331652</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001856406486728626</v>
+        <v>0.0001433107965108933</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.006125087744276806</v>
+        <v>0.0005372704225321861</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.006261740032125088</v>
+        <v>-0.001909088328415164</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.001477484656942829</v>
+        <v>0.001174044764910349</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.00268728738010636</v>
+        <v>-0.0001474663879908775</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.00573594438375501</v>
+        <v>0.0007200929907025526</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.03996281084950486</v>
+        <v>-0.01916041427801387</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.003574519183770013</v>
+        <v>0.002593674423055737</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.002255009542441982</v>
+        <v>-0.0008257419774659674</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.01067779366606054</v>
+        <v>0.004494539801462485</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.02585354081152394</v>
+        <v>-0.009789284748096962</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.003137549310304285</v>
+        <v>0.003876305847068418</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.0007482171399481523</v>
+        <v>-0.001700514604430413</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.01332427097702306</v>
+        <v>0.004482933991444961</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.01848119988499445</v>
+        <v>-0.006672025887563808</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.002960851601958374</v>
+        <v>0.003403338068332104</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.003461092038109547</v>
+        <v>-0.002213110151963905</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0136074298543592</v>
+        <v>0.004057136899554598</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.01355917446475267</v>
+        <v>-0.00473674084104461</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.003190458355351557</v>
+        <v>0.002978806512214799</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.005533049742910151</v>
+        <v>-0.002414066091048292</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.01264045896295691</v>
+        <v>0.003406659559804096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SouthAfrica</t>
+          <t>NewZealand</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07923756672349065</v>
+        <v>0.0516552290743626</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02082020702659378</v>
+        <v>0.01470808662288823</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005524471117922476</v>
+        <v>-0.009546114852112472</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00149316360339195</v>
+        <v>-0.00652632882325797</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004172780315380647</v>
+        <v>0.0004827949401870914</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001233670354644427</v>
+        <v>0.00178710502608701</v>
       </c>
       <c r="H14" t="n">
-        <v>3.969356702460635e-05</v>
+        <v>0.0004290221773556539</v>
       </c>
       <c r="I14" t="n">
-        <v>1.422278714904763e-05</v>
+        <v>-0.0003176793254985046</v>
       </c>
       <c r="J14" t="n">
-        <v>5.69720605089454e-06</v>
+        <v>-0.000208487317845877</v>
       </c>
       <c r="K14" t="n">
-        <v>2.505586642023372e-06</v>
+        <v>1.519391793683705e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>1.176264008529106e-06</v>
+        <v>5.793363548961743e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>5.747219187646665e-07</v>
+        <v>1.435696064621676e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>2.871992679152815e-07</v>
+        <v>-1.027967596734893e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.452614243969571e-07</v>
+        <v>-6.896739574661728e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>7.393582954299339e-08</v>
+        <v>4.596461755835343e-07</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.775458608489556e-08</v>
+        <v>1.905312130839832e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0003837090142036787</v>
+        <v>0.01116050538570891</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.734280006580362e-05</v>
+        <v>-0.006082821459333889</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.0001185871307747091</v>
+        <v>-0.007656688378597072</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.996019490642786e-05</v>
+        <v>0.0003782901818471765</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.596176085135439e-05</v>
+        <v>0.00231915989528573</v>
       </c>
       <c r="W14" t="n">
-        <v>-2.484764320412645e-05</v>
+        <v>0.0004812761104757841</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.306875570470313e-05</v>
+        <v>-0.0004590945358561479</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.783811298040876e-06</v>
+        <v>-0.0002493202329550739</v>
       </c>
       <c r="Z14" t="n">
-        <v>-3.498641917734991e-06</v>
+        <v>3.989332062961791e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>-1.798531480565123e-06</v>
+        <v>7.416341999107932e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>-9.230552531041896e-07</v>
+        <v>1.310545755774903e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>-4.733462315546247e-07</v>
+        <v>-1.459857454796304e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>-2.426322840981256e-07</v>
+        <v>-7.941132135760842e-06</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1.243443887659355e-07</v>
+        <v>1.210952786748771e-06</v>
       </c>
       <c r="AF14" t="n">
-        <v>-6.371726109070593e-08</v>
+        <v>2.409994894165029e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>-3.264858116784862e-08</v>
+        <v>4.495942563226199e-07</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.00150620972588517</v>
+        <v>0.001586826983802742</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.002280905007242804</v>
+        <v>0.002156265995886442</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.001561102822921151</v>
+        <v>-0.000268646610452665</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0009019084464534175</v>
+        <v>-0.0007851309713398116</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0004886459527438919</v>
+        <v>-0.0001093464301563776</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.000257267335851794</v>
+        <v>0.0001785771193605189</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.0001336101237806187</v>
+        <v>7.566646606087195e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.892426804780275e-05</v>
+        <v>-2.271755924951134e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.543598454084734e-05</v>
+        <v>-2.547806937410158e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.818784816973696e-05</v>
+        <v>-2.157353323356061e-06</v>
       </c>
       <c r="AR14" t="n">
-        <v>9.327092755397063e-06</v>
+        <v>5.717612521834326e-06</v>
       </c>
       <c r="AS14" t="n">
-        <v>4.781046059709338e-06</v>
+        <v>2.347097570713905e-06</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.450214284963972e-06</v>
+        <v>-7.110119970661167e-07</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.255557967116896e-06</v>
+        <v>-8.231681599906479e-07</v>
       </c>
       <c r="AV14" t="n">
-        <v>6.433464243306444e-07</v>
+        <v>-7.80902732291459e-08</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.296404839568482e-07</v>
+        <v>1.857854398514674e-07</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.006583410977599945</v>
+        <v>-0.01192629848450967</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.003351469633069661</v>
+        <v>0.0005558131788184649</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.001711555107756271</v>
+        <v>0.000551119942915826</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.0008754826838070544</v>
+        <v>-0.0002833565944039948</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.0004481891872274848</v>
+        <v>8.293577159594978e-05</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0.000229539160287585</v>
+        <v>0.0001143573827125099</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.0001175829782348789</v>
+        <v>-2.065692952888411e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>-6.023916829202413e-05</v>
+        <v>-3.532645431747607e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>-3.086293737288521e-05</v>
+        <v>-1.937995296174419e-06</v>
       </c>
       <c r="BG14" t="n">
-        <v>-1.581275777045438e-05</v>
+        <v>8.13981461083241e-06</v>
       </c>
       <c r="BH14" t="n">
-        <v>-8.101848259698886e-06</v>
+        <v>2.638325614108075e-06</v>
       </c>
       <c r="BI14" t="n">
-        <v>-4.15110483011192e-06</v>
+        <v>-1.195604255462057e-06</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-2.126889244237563e-06</v>
+        <v>-1.006622129289285e-06</v>
       </c>
       <c r="BK14" t="n">
-        <v>-1.089749930288387e-06</v>
+        <v>-1.918705675359202e-08</v>
       </c>
       <c r="BL14" t="n">
-        <v>-5.583534851276079e-07</v>
+        <v>2.467961923221375e-07</v>
       </c>
       <c r="BM14" t="n">
-        <v>-2.860828468720562e-07</v>
+        <v>8.352571357759901e-08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04040861222662547</v>
+        <v>0.08008490897106037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01550535418286673</v>
+        <v>0.02049750097137831</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.008141324349192758</v>
+        <v>0.001392818018163969</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01067587013389464</v>
+        <v>-0.01104359493790519</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01026165241846269</v>
+        <v>6.577057204368286e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007078674539528265</v>
+        <v>0.004334443218148775</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01122382282496107</v>
+        <v>0.003321949537820941</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00786216196806549</v>
+        <v>0.0007721055332187054</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.005625029370614279</v>
+        <v>-0.0002710481901137948</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.004770846710725585</v>
+        <v>0.001285570352539435</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.001635704877067478</v>
+        <v>0.0004125706790729557</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004815157881958195</v>
+        <v>0.0004722271746882219</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0007712031513981196</v>
+        <v>-0.000324548178657218</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001661259000261881</v>
+        <v>0.0009839031545346389</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0007578957200531799</v>
+        <v>7.318130400827289e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0006193433432732943</v>
+        <v>0.0002990047338804476</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03291068079144724</v>
+        <v>0.03229289491878035</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.006446989318374365</v>
+        <v>-0.003984354279537201</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.01578486942741848</v>
+        <v>-0.005623448102711591</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01240741573867901</v>
+        <v>-0.00903181709412817</v>
       </c>
       <c r="V15" t="n">
-        <v>0.004616779098550458</v>
+        <v>-0.002255908968536653</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002081451676353098</v>
+        <v>-0.00454496311176412</v>
       </c>
       <c r="X15" t="n">
-        <v>0.003857446429022549</v>
+        <v>-0.0001831772385121747</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.001630116907978952</v>
+        <v>-0.000911876622169982</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.001693888916419898</v>
+        <v>4.740649248066927e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.006981740465776082</v>
+        <v>-0.003382124547357773</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.001763329351572734</v>
+        <v>-0.0004127823349160804</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0006938787139644281</v>
+        <v>-0.0004418321659074234</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.006919852450413499</v>
+        <v>0.001086780673311211</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.00284533905371283</v>
+        <v>-0.002036073167016095</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.002547822883868376</v>
+        <v>-8.999211361345843e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.002366354928797499</v>
+        <v>-0.0005287323384353274</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.01565489832375624</v>
+        <v>0.01242830939211533</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.005362476457165839</v>
+        <v>-0.001418158724264716</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.001248344702052583</v>
+        <v>0.0005394420252026828</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.005737091267630159</v>
+        <v>-0.003070465034918146</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.0103600759683076</v>
+        <v>0.01230907816049443</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.001809850800998988</v>
+        <v>-0.001214137968316363</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0003273601260847473</v>
+        <v>0.0006954154149000813</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.004779749819872365</v>
+        <v>-0.005818009565030841</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.008645642835034781</v>
+        <v>0.008654414569338287</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0006065837143575848</v>
+        <v>-0.001231972637271113</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.0009299125277487353</v>
+        <v>0.001856406486728626</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.005147721517132298</v>
+        <v>-0.006125087744276806</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.007230345939561661</v>
+        <v>0.006261740032125088</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0006941453622673929</v>
+        <v>-0.001477484656942829</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.0007780175895356887</v>
+        <v>0.00268728738010636</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.004920908304253646</v>
+        <v>-0.00573594438375501</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.0216457408154606</v>
+        <v>-0.03996281084950486</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.008985614444063121</v>
+        <v>0.003574519183770013</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.00325513219545284</v>
+        <v>0.002255009542441982</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.001000265151093202</v>
+        <v>0.01067779366606054</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.01830604334361614</v>
+        <v>-0.02585354081152394</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.008165526174584496</v>
+        <v>0.003137549310304285</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.004492261681401714</v>
+        <v>-0.0007482171399481523</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.001112379091964906</v>
+        <v>0.01332427097702306</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.01530503441202021</v>
+        <v>-0.01848119988499445</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.006873333866661999</v>
+        <v>0.002960851601958374</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.003862669245360789</v>
+        <v>-0.003461092038109547</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.00150404046393863</v>
+        <v>0.0136074298543592</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.012817922021351</v>
+        <v>-0.01355917446475267</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.006252588642328317</v>
+        <v>0.003190458355351557</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.003591267962280425</v>
+        <v>-0.005533049742910151</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.001543954934111376</v>
+        <v>0.01264045896295691</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1180269535246118</v>
+        <v>0.09384459625486963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02846964926312819</v>
+        <v>0.01451295604730513</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02353097589561519</v>
+        <v>-0.02094952901284065</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02189699464167224</v>
+        <v>-0.01473554651246812</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.006055244425029512</v>
+        <v>-0.009996043239988726</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00229036965625488</v>
+        <v>0.003812252195129076</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005203230393154124</v>
+        <v>0.008508556926387236</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001329237231116575</v>
+        <v>0.002715906475864006</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000480742006495144</v>
+        <v>-0.001957583172046556</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.001566357982147682</v>
+        <v>-0.00174059023665473</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0003347862878372581</v>
+        <v>-0.0001052984651427186</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0004799106975896016</v>
+        <v>2.947905193742288e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001010740032326097</v>
+        <v>-0.0004922810195527746</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.000281301736653301</v>
+        <v>0.000596307636279711</v>
       </c>
       <c r="P16" t="n">
-        <v>9.392216195061783e-05</v>
+        <v>0.001026620173684756</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.0004373631383127145</v>
+        <v>-0.0002561763966580401</v>
       </c>
       <c r="R16" t="n">
-        <v>0.001388445877881471</v>
+        <v>0.01700990841257951</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.001340985032400263</v>
+        <v>-0.006966356899237676</v>
       </c>
       <c r="T16" t="n">
-        <v>0.003415202612227299</v>
+        <v>-0.009752469877074909</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.004432067424822671</v>
+        <v>-0.0006678851923385561</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004592711620659904</v>
+        <v>0.006121309401051052</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.000813993260498907</v>
+        <v>-0.003386948607789739</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0006950488049765085</v>
+        <v>-0.002972902364645008</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.004327611617002776</v>
+        <v>0.001139732380926102</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.003834816737054291</v>
+        <v>0.006029267876082372</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.0001970443270333367</v>
+        <v>-0.004237484936640979</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0003725003288298592</v>
+        <v>-0.00344845413440328</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.003511099827000765</v>
+        <v>0.001005536436395486</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.003223398405785554</v>
+        <v>0.006110767916036017</v>
       </c>
       <c r="AE16" t="n">
-        <v>-7.979193858766583e-07</v>
+        <v>-0.003708494000662608</v>
       </c>
       <c r="AF16" t="n">
-        <v>-3.20213321598955e-05</v>
+        <v>-0.002972322492555613</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.002866503647110472</v>
+        <v>0.0006967960822743688</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.004760567977244165</v>
+        <v>0.003039417146948803</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0110153076559547</v>
+        <v>0.001762178634292179</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.002328405149879766</v>
+        <v>-0.0005858565058235364</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0001178365744930645</v>
+        <v>-6.897176692017198e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.004215472810464456</v>
+        <v>0.001555316716114398</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.004032797661013955</v>
+        <v>3.931749699441619e-06</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.001098180233272349</v>
+        <v>-0.0011586441451952</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.0004867920990838367</v>
+        <v>-0.0001548764370008853</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.002499739202079135</v>
+        <v>0.001550032043472498</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.004100621236315712</v>
+        <v>5.160250197055604e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.000729479955633851</v>
+        <v>-0.00114769598837642</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.0009493017690508465</v>
+        <v>-0.0002882711080095148</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0.002081876598817967</v>
+        <v>0.001360276562771759</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.003516362215534856</v>
+        <v>1.938687131388338e-05</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.0005228276330551216</v>
+        <v>-0.001031085864868294</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.001074753316011005</v>
+        <v>-0.0002678068033338809</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.03200977731849915</v>
+        <v>-0.01267524135617442</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.01729776160396961</v>
+        <v>0.004985655348787333</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.009237391840297784</v>
+        <v>0.002182823677628697</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.0007378945193183644</v>
+        <v>0.002051204377530308</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.0262152629622433</v>
+        <v>-0.01109546159332651</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.01593216680581409</v>
+        <v>0.005520498151716377</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.009713611065920894</v>
+        <v>0.002107598617407283</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.001447364729823284</v>
+        <v>0.002622377100971285</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0.02241711279137607</v>
+        <v>-0.010363406580223</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.01424949586831235</v>
+        <v>0.005593268145367588</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.00955664258420809</v>
+        <v>0.001640000340764262</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0.003072410951650585</v>
+        <v>0.002846177928438252</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.01918187774553403</v>
+        <v>-0.009892926655725769</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.01289583144322574</v>
+        <v>0.005551854938222837</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.009158545901590388</v>
+        <v>0.001151076784510728</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0.004259319638425967</v>
+        <v>0.003024479200304082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08449047156165435</v>
+        <v>0.139543713441247</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006230707098163257</v>
+        <v>0.0290634147312792</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004099919023335529</v>
+        <v>-0.02952187011611682</v>
       </c>
       <c r="E17" t="n">
-        <v>1.38986585641695e-07</v>
+        <v>-0.01109949505515588</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.631273195110516e-05</v>
+        <v>-0.0136071485377996</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.925903669918857e-06</v>
+        <v>-0.002936351246916579</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.383877582024652e-06</v>
+        <v>0.007518968865560013</v>
       </c>
       <c r="I17" t="n">
-        <v>-2.877147459772862e-06</v>
+        <v>0.005454450753467992</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.534371080114018e-06</v>
+        <v>0.0009044531503147174</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.180360192448959e-07</v>
+        <v>-0.001026668546648288</v>
       </c>
       <c r="L17" t="n">
-        <v>-4.361106431343959e-07</v>
+        <v>-0.001900900449587958</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.324975843768399e-07</v>
+        <v>0.0003705134748846874</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.239480939358237e-07</v>
+        <v>0.000172027497813675</v>
       </c>
       <c r="O17" t="n">
-        <v>-6.607865746469013e-08</v>
+        <v>-0.0001601219336772823</v>
       </c>
       <c r="P17" t="n">
-        <v>-3.522755988946646e-08</v>
+        <v>-0.0002558708379716309</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.878035996158723e-08</v>
+        <v>0.001066703670033544</v>
       </c>
       <c r="R17" t="n">
-        <v>0.000476816831713464</v>
+        <v>0.01127486656826834</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0001868669145195259</v>
+        <v>-0.00124627498080381</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0001327101885412402</v>
+        <v>-0.003828858260354702</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.323215211246442e-05</v>
+        <v>-0.005484303572058894</v>
       </c>
       <c r="V17" t="n">
-        <v>-3.922741910568236e-05</v>
+        <v>0.001575323997410763</v>
       </c>
       <c r="W17" t="n">
-        <v>-2.092671724756406e-05</v>
+        <v>0.0004742718225188076</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.115740640296862e-05</v>
+        <v>0.0008559305319495971</v>
       </c>
       <c r="Y17" t="n">
-        <v>-5.94826547068951e-06</v>
+        <v>-0.003272361684547728</v>
       </c>
       <c r="Z17" t="n">
-        <v>-3.17111871436645e-06</v>
+        <v>0.002548067463179718</v>
       </c>
       <c r="AA17" t="n">
-        <v>-1.690573139021469e-06</v>
+        <v>0.0002428782215850563</v>
       </c>
       <c r="AB17" t="n">
-        <v>-9.012708614925778e-07</v>
+        <v>0.0001269236600130033</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.804815132328385e-07</v>
+        <v>-0.003374105164459601</v>
       </c>
       <c r="AD17" t="n">
-        <v>-2.56152166228955e-07</v>
+        <v>0.002569875292477458</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.365587029169837e-07</v>
+        <v>0.0004602554171022254</v>
       </c>
       <c r="AF17" t="n">
-        <v>-7.280156797134462e-08</v>
+        <v>0.0003149251310019314</v>
       </c>
       <c r="AG17" t="n">
-        <v>-3.881164792728399e-08</v>
+        <v>-0.003237414443272643</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.001338987333910252</v>
+        <v>0.01405565862506687</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.001452319737566873</v>
+        <v>0.009779456703508122</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0008296550373372649</v>
+        <v>0.0008299908304550793</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0004464581450565906</v>
+        <v>-0.003387486192065575</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0002383255714901187</v>
+        <v>0.006096612841669796</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0001270784585538873</v>
+        <v>0.002220534394186469</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.774925703080464e-05</v>
+        <v>-0.002350868216827891</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.611831404316471e-05</v>
+        <v>-0.004043911685726616</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.925524472052364e-05</v>
+        <v>0.005913449988054716</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.026527111442499e-05</v>
+        <v>0.002260996568150145</v>
       </c>
       <c r="AR17" t="n">
-        <v>5.472575708444101e-06</v>
+        <v>-0.002626521682870816</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.917515211186908e-06</v>
+        <v>-0.004549030191947322</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.555372725848344e-06</v>
+        <v>0.005259936697857782</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.291933857341153e-07</v>
+        <v>0.00204973927795439</v>
       </c>
       <c r="AV17" t="n">
-        <v>4.420558876352101e-07</v>
+        <v>-0.0025585198194883</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.356668675296754e-07</v>
+        <v>-0.004468771227134445</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.006080368845540966</v>
+        <v>-0.0256079014477279</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.003249931327774816</v>
+        <v>0.008953514344171283</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.001733218501530636</v>
+        <v>0.00560979162481151</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0009240529646330911</v>
+        <v>0.003511485148837577</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0004926305473896635</v>
+        <v>-0.02293755189261376</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0002626292708747575</v>
+        <v>0.009730096424327206</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.000140011768047547</v>
+        <v>0.006630371483889611</v>
       </c>
       <c r="BE17" t="n">
-        <v>7.464245218144341e-05</v>
+        <v>0.004498304723828633</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.979305203701053e-05</v>
+        <v>-0.0216096785733148</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.121429481890057e-05</v>
+        <v>0.009592530588479087</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.130967044425698e-05</v>
+        <v>0.006728115222927294</v>
       </c>
       <c r="BI17" t="n">
-        <v>6.029361175729655e-06</v>
+        <v>0.004701702787112659</v>
       </c>
       <c r="BJ17" t="n">
-        <v>3.214346197471268e-06</v>
+        <v>-0.02084647598198663</v>
       </c>
       <c r="BK17" t="n">
-        <v>1.713617939953287e-06</v>
+        <v>0.009141879682961058</v>
       </c>
       <c r="BL17" t="n">
-        <v>9.13556370013751e-07</v>
+        <v>0.006643144443703022</v>
       </c>
       <c r="BM17" t="n">
-        <v>4.870311063710247e-07</v>
+        <v>0.004791362038764907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>SouthAfrica</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1067496839451767</v>
+        <v>0.07923756672349065</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03543899397394197</v>
+        <v>0.02082020702659378</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02039090940627832</v>
+        <v>0.005524471117922476</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0140936541664533</v>
+        <v>0.00149316360339195</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002875543992637365</v>
+        <v>0.0004172780315380647</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00452539990871457</v>
+        <v>0.0001233670354644427</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001211865216194675</v>
+        <v>3.969356702460635e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001242124810341156</v>
+        <v>1.422278714904763e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0002875108945105031</v>
+        <v>5.69720605089454e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002888982016044049</v>
+        <v>2.505586642023372e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001394702378505665</v>
+        <v>1.176264008529106e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>-5.23711490988364e-05</v>
+        <v>5.747219187646665e-07</v>
       </c>
       <c r="N18" t="n">
-        <v>-4.972890261207935e-05</v>
+        <v>2.871992679152815e-07</v>
       </c>
       <c r="O18" t="n">
-        <v>4.5010819090311e-06</v>
+        <v>1.452614243969571e-07</v>
       </c>
       <c r="P18" t="n">
-        <v>1.483686510777111e-05</v>
+        <v>7.393582954299339e-08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.770367265190098e-06</v>
+        <v>3.775458608489556e-08</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05188196436214818</v>
+        <v>0.0003837090142036787</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.02776324663602418</v>
+        <v>-8.734280006580362e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.03439388770219737</v>
+        <v>-0.0001185871307747091</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00178662940356091</v>
+        <v>-7.996019490642786e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>0.009568919373381302</v>
+        <v>-4.596176085135439e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>0.00152937365626273</v>
+        <v>-2.484764320412645e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.002383906529866926</v>
+        <v>-1.306875570470313e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.0009110256153562659</v>
+        <v>-6.783811298040876e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0004802637250887193</v>
+        <v>-3.498641917734991e-06</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0003532402055457755</v>
+        <v>-1.798531480565123e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>-6.231190161895481e-05</v>
+        <v>-9.230552531041896e-07</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.0001115778147252073</v>
+        <v>-4.733462315546247e-07</v>
       </c>
       <c r="AD18" t="n">
-        <v>-5.349992599670424e-06</v>
+        <v>-2.426322840981256e-07</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.013508633260003e-05</v>
+        <v>-1.243443887659355e-07</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.651595672978745e-06</v>
+        <v>-6.371726109070593e-08</v>
       </c>
       <c r="AG18" t="n">
-        <v>-6.871215618872905e-06</v>
+        <v>-3.264858116784862e-08</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.004399764768975543</v>
+        <v>0.00150620972588517</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.002253757713779784</v>
+        <v>0.002280905007242804</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.0001964359408218502</v>
+        <v>0.001561102822921151</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.0007169744284036861</v>
+        <v>0.0009019084464534175</v>
       </c>
       <c r="AL18" t="n">
-        <v>-7.387355093271417e-05</v>
+        <v>0.0004886459527438919</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.000182384716150181</v>
+        <v>0.000257267335851794</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.868812356104986e-05</v>
+        <v>0.0001336101237806187</v>
       </c>
       <c r="AO18" t="n">
-        <v>-3.922105108748999e-05</v>
+        <v>6.892426804780275e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>-2.439862433797498e-05</v>
+        <v>3.543598454084734e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5.985962926846652e-06</v>
+        <v>1.818784816973696e-05</v>
       </c>
       <c r="AR18" t="n">
-        <v>8.052690428282478e-06</v>
+        <v>9.327092755397063e-06</v>
       </c>
       <c r="AS18" t="n">
-        <v>-3.110169957499342e-08</v>
+        <v>4.781046059709338e-06</v>
       </c>
       <c r="AT18" t="n">
-        <v>-2.259970705588202e-06</v>
+        <v>2.450214284963972e-06</v>
       </c>
       <c r="AU18" t="n">
-        <v>-4.528610143580333e-07</v>
+        <v>1.255557967116896e-06</v>
       </c>
       <c r="AV18" t="n">
-        <v>5.400151564782096e-07</v>
+        <v>6.433464243306444e-07</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.370267554931592e-07</v>
+        <v>3.296404839568482e-07</v>
       </c>
       <c r="AX18" t="n">
-        <v>-0.007956771426273268</v>
+        <v>-0.006583410977599945</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.00182419637779591</v>
+        <v>-0.003351469633069661</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.001926965173999483</v>
+        <v>-0.001711555107756271</v>
       </c>
       <c r="BA18" t="n">
-        <v>-0.0002541481723557643</v>
+        <v>-0.0008754826838070544</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.0003122126685849431</v>
+        <v>-0.0004481891872274848</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.000170531960132292</v>
+        <v>-0.000229539160287585</v>
       </c>
       <c r="BD18" t="n">
-        <v>-6.06752785264662e-05</v>
+        <v>-0.0001175829782348789</v>
       </c>
       <c r="BE18" t="n">
-        <v>-5.835373472053479e-05</v>
+        <v>-6.023916829202413e-05</v>
       </c>
       <c r="BF18" t="n">
-        <v>4.672749919088376e-06</v>
+        <v>-3.086293737288521e-05</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.73716725719587e-05</v>
+        <v>-1.581275777045438e-05</v>
       </c>
       <c r="BH18" t="n">
-        <v>2.22105112358178e-06</v>
+        <v>-8.101848259698886e-06</v>
       </c>
       <c r="BI18" t="n">
-        <v>-4.40403442580691e-06</v>
+        <v>-4.15110483011192e-06</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-1.521946298637795e-06</v>
+        <v>-2.126889244237563e-06</v>
       </c>
       <c r="BK18" t="n">
-        <v>9.219361647611162e-07</v>
+        <v>-1.089749930288387e-06</v>
       </c>
       <c r="BL18" t="n">
-        <v>6.141861724681456e-07</v>
+        <v>-5.583534851276079e-07</v>
       </c>
       <c r="BM18" t="n">
-        <v>-1.325789019993938e-07</v>
+        <v>-2.860828468720562e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1376471617584953</v>
+        <v>0.04040861222662547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0221754692209265</v>
+        <v>0.01550535418286673</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04437763806081053</v>
+        <v>-0.008141324349192758</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01273182094785971</v>
+        <v>-0.01067587013389464</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0003535220906169002</v>
+        <v>-0.01026165241846269</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.008426236084050387</v>
+        <v>0.007078674539528265</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002773392649414524</v>
+        <v>0.01122382282496107</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00546005854743299</v>
+        <v>0.00786216196806549</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006951022254944339</v>
+        <v>-0.005625029370614279</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.003378628247797956</v>
+        <v>-0.004770846710725585</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.003639783151601022</v>
+        <v>-0.001635704877067478</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.001789148351814391</v>
+        <v>0.004815157881958195</v>
       </c>
       <c r="N19" t="n">
-        <v>0.004103921155752164</v>
+        <v>0.0007712031513981196</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.001101776118592078</v>
+        <v>0.001661259000261881</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0004356618089418862</v>
+        <v>-0.0007578957200531799</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0009993147735652612</v>
+        <v>0.0006193433432732943</v>
       </c>
       <c r="R19" t="n">
-        <v>0.00513479263764406</v>
+        <v>0.03291068079144724</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0104889105150755</v>
+        <v>-0.006446989318374365</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.001540693173525488</v>
+        <v>-0.01578486942741848</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.006186310956883271</v>
+        <v>-0.01240741573867901</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02263175791764478</v>
+        <v>0.004616779098550458</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.001763329595412533</v>
+        <v>0.002081451676353098</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.003126135577858338</v>
+        <v>0.003857446429022549</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.009396122150041472</v>
+        <v>-0.001630116907978952</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01158268294745655</v>
+        <v>0.001693888916419898</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.003315905513382307</v>
+        <v>-0.006981740465776082</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.001526230073905242</v>
+        <v>-0.001763329351572734</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.006525980536120614</v>
+        <v>0.0006938787139644281</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.007938331595963383</v>
+        <v>0.006919852450413499</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.003351164434356714</v>
+        <v>-0.00284533905371283</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.002370077420456225</v>
+        <v>-0.002547822883868376</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.005489320140416314</v>
+        <v>-0.002366354928797499</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.0006758959641481109</v>
+        <v>0.01565489832375624</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.007562536585690705</v>
+        <v>0.005362476457165839</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.002018960612914131</v>
+        <v>0.001248344702052583</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.002035307208810479</v>
+        <v>-0.005737091267630159</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.005443999008783137</v>
+        <v>0.0103600759683076</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.002532233089465141</v>
+        <v>0.001809850800998988</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.001481142370368007</v>
+        <v>0.0003273601260847473</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.000589429005696099</v>
+        <v>-0.004779749819872365</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.002671473007772222</v>
+        <v>0.008645642835034781</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.001686944689331652</v>
+        <v>0.0006065837143575848</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.0001433107965108933</v>
+        <v>-0.0009299125277487353</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0005372704225321861</v>
+        <v>-0.005147721517132298</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.001909088328415164</v>
+        <v>0.007230345939561661</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.001174044764910349</v>
+        <v>0.0006941453622673929</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.0001474663879908775</v>
+        <v>-0.0007780175895356887</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.0007200929907025526</v>
+        <v>-0.004920908304253646</v>
       </c>
       <c r="AX19" t="n">
-        <v>-0.01916041427801387</v>
+        <v>-0.0216457408154606</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.002593674423055737</v>
+        <v>0.008985614444063121</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-0.0008257419774659674</v>
+        <v>0.00325513219545284</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.004494539801462485</v>
+        <v>-0.001000265151093202</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.009789284748096962</v>
+        <v>-0.01830604334361614</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.003876305847068418</v>
+        <v>0.008165526174584496</v>
       </c>
       <c r="BD19" t="n">
-        <v>-0.001700514604430413</v>
+        <v>0.004492261681401714</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.004482933991444961</v>
+        <v>0.001112379091964906</v>
       </c>
       <c r="BF19" t="n">
-        <v>-0.006672025887563808</v>
+        <v>-0.01530503441202021</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.003403338068332104</v>
+        <v>0.006873333866661999</v>
       </c>
       <c r="BH19" t="n">
-        <v>-0.002213110151963905</v>
+        <v>0.003862669245360789</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.004057136899554598</v>
+        <v>0.00150404046393863</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-0.00473674084104461</v>
+        <v>-0.012817922021351</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.002978806512214799</v>
+        <v>0.006252588642328317</v>
       </c>
       <c r="BL19" t="n">
-        <v>-0.002414066091048292</v>
+        <v>0.003591267962280425</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.003406659559804096</v>
+        <v>0.001543954934111376</v>
       </c>
     </row>
     <row r="20">

--- a/ind-IRs-to-composite-shocks.xlsx
+++ b/ind-IRs-to-composite-shocks.xlsx
@@ -765,193 +765,193 @@
         <v>0.0695406874190876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02106926393148691</v>
+        <v>0.09060995135057451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006347969588341568</v>
+        <v>0.09695792093891607</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001904681491315422</v>
+        <v>0.0988626024302315</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005697252187102015</v>
+        <v>0.09943232764894169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001700187492117307</v>
+        <v>0.09960234639815342</v>
       </c>
       <c r="H2" t="n">
-        <v>5.064810900599707e-05</v>
+        <v>0.09965299450715942</v>
       </c>
       <c r="I2" t="n">
-        <v>1.506777712107932e-05</v>
+        <v>0.0996680622842805</v>
       </c>
       <c r="J2" t="n">
-        <v>4.478096686955287e-06</v>
+        <v>0.09967254038096746</v>
       </c>
       <c r="K2" t="n">
-        <v>1.329844863145426e-06</v>
+        <v>0.0996738702258306</v>
       </c>
       <c r="L2" t="n">
-        <v>3.946856289373988e-07</v>
+        <v>0.09967426491145955</v>
       </c>
       <c r="M2" t="n">
-        <v>1.170860098882009e-07</v>
+        <v>0.09967438199746943</v>
       </c>
       <c r="N2" t="n">
-        <v>3.47222778894752e-08</v>
+        <v>0.09967441671974732</v>
       </c>
       <c r="O2" t="n">
-        <v>1.029428430234456e-08</v>
+        <v>0.09967442701403162</v>
       </c>
       <c r="P2" t="n">
-        <v>3.051376479439471e-09</v>
+        <v>0.0996744300654081</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.043316508889504e-10</v>
+        <v>0.09967443096973976</v>
       </c>
       <c r="R2" t="n">
         <v>0.00913343409873984</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.004351178754520058</v>
+        <v>0.004782255344219782</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.002893449365286492</v>
+        <v>0.00188880597893329</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.001221935632630526</v>
+        <v>0.0006668703463027636</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0004449174838126092</v>
+        <v>0.0002219528624901544</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0001506555151679898</v>
+        <v>7.129734732216452e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.891589472642542e-05</v>
+        <v>2.23814525957391e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.546499114656427e-05</v>
+        <v>6.916461449174834e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>-4.802749785075327e-06</v>
+        <v>2.113711664099507e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.473078731120342e-06</v>
+        <v>6.406329329791651e-07</v>
       </c>
       <c r="AB2" t="n">
-        <v>-4.478158958726529e-07</v>
+        <v>1.928170371065122e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.35257522232935e-07</v>
+        <v>5.755951487357724e-08</v>
       </c>
       <c r="AD2" t="n">
-        <v>-4.065830245954416e-08</v>
+        <v>1.690121241403309e-08</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.217844823797383e-08</v>
+        <v>4.722764176059255e-09</v>
       </c>
       <c r="AF2" t="n">
-        <v>-3.638105048049538e-09</v>
+        <v>1.084659128009717e-09</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.084635282658195e-09</v>
+        <v>2.384535152222103e-14</v>
       </c>
       <c r="AH2" t="n">
         <v>0.001201724098566393</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.000327138706431372</v>
+        <v>0.001528862804997765</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.034801892142852e-05</v>
+        <v>0.001619210823919194</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.527188045971709e-05</v>
+        <v>0.001644482704378911</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.146988991030842e-06</v>
+        <v>0.001651629693369942</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.039982326186388e-06</v>
+        <v>0.001653669675696128</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.867510905237644e-07</v>
+        <v>0.001654256426786652</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.698203666343525e-07</v>
+        <v>0.001654426247153286</v>
       </c>
       <c r="AP2" t="n">
-        <v>4.939746836695603e-08</v>
+        <v>0.001654475644621653</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.442630506402301e-08</v>
+        <v>0.001654490070926717</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.226458832308171e-09</v>
+        <v>0.00165449429738555</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.241293551169436e-09</v>
+        <v>0.001654495538679101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.65269185960522e-10</v>
+        <v>0.001654495903948287</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.076479165706643e-10</v>
+        <v>0.001654496011596203</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.176183058331248e-11</v>
+        <v>0.001654496043358034</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.379894813419359e-12</v>
+        <v>0.001654496052737929</v>
       </c>
       <c r="AX2" t="n">
         <v>-0.007243605336999629</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.00171296150814319</v>
+        <v>-0.008956566845142819</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0004090158280420278</v>
+        <v>-0.009365582673184847</v>
       </c>
       <c r="BA2" t="n">
-        <v>-9.878468560531539e-05</v>
+        <v>-0.009464367358790162</v>
       </c>
       <c r="BB2" t="n">
-        <v>-2.417452326147717e-05</v>
+        <v>-0.00948854188205164</v>
       </c>
       <c r="BC2" t="n">
-        <v>-6.004167218191768e-06</v>
+        <v>-0.009494546049269831</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.515514019214275e-06</v>
+        <v>-0.009496061563289046</v>
       </c>
       <c r="BE2" t="n">
-        <v>-3.89114187530444e-07</v>
+        <v>-0.009496450677476577</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.016631709418738e-07</v>
+        <v>-0.009496552340647519</v>
       </c>
       <c r="BG2" t="n">
-        <v>-2.70221583616357e-08</v>
+        <v>-0.009496579362805881</v>
       </c>
       <c r="BH2" t="n">
-        <v>-7.301306967748854e-09</v>
+        <v>-0.009496586664112848</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2.002894085525031e-09</v>
+        <v>-0.009496588667006933</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-5.569377322746621e-10</v>
+        <v>-0.009496589223944665</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.567081835303345e-10</v>
+        <v>-0.009496589380652848</v>
       </c>
       <c r="BL2" t="n">
-        <v>-4.454000587105487e-11</v>
+        <v>-0.009496589425192853</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.2766106795385e-11</v>
+        <v>-0.00949658943795896</v>
       </c>
     </row>
     <row r="3">
@@ -964,193 +964,193 @@
         <v>0.1230501413091973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01859541852357439</v>
+        <v>0.1416455598327717</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03249026218025305</v>
+        <v>0.1091552976525186</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01155389740956819</v>
+        <v>0.09760140024295041</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.009640192535135008</v>
+        <v>0.0879612077078154</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.001215632119220828</v>
+        <v>0.08674557558859458</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003760699157906608</v>
+        <v>0.09050627474650119</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004156657628458165</v>
+        <v>0.09466293237495936</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002815282204624105</v>
+        <v>0.09747821457958347</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.001246502790816892</v>
+        <v>0.09623171178876658</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.004340588668180157</v>
+        <v>0.09189112312058642</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003812200314319029</v>
+        <v>0.09227234315201832</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002602775454007486</v>
+        <v>0.09487511860602581</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0001714530114792265</v>
+        <v>0.09470366559454658</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002580159009488001</v>
+        <v>0.09212350658505858</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0008562777497053163</v>
+        <v>0.09297978433476389</v>
       </c>
       <c r="R3" t="n">
         <v>0.01232835225532878</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.01613454967455224</v>
+        <v>-0.003806197419223461</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005616951112248223</v>
+        <v>0.001810753693024763</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.0008710250091277202</v>
+        <v>0.0009397286838970424</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002505813183994889</v>
+        <v>0.003445541867891932</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.01094659579174154</v>
+        <v>-0.007501053923849609</v>
       </c>
       <c r="X3" t="n">
-        <v>0.006510768052309665</v>
+        <v>-0.000990285871539944</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00111450124145313</v>
+        <v>0.000124215369913186</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002162246029868612</v>
+        <v>0.002286461399781798</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.009384753244828714</v>
+        <v>-0.007098291845046916</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.005030940279091189</v>
+        <v>-0.002067351565955727</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001943225866899963</v>
+        <v>-0.0001241256990557637</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001222186487465541</v>
+        <v>0.001098060788409778</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.007904248059135944</v>
+        <v>-0.006806187270726165</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.004323743843845846</v>
+        <v>-0.002482443426880319</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.002482443426878979</v>
+        <v>-1.340507566061078e-15</v>
       </c>
       <c r="AH3" t="n">
         <v>-0.0008087769650086594</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01626259589302075</v>
+        <v>0.01545381892801209</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.003229186432601807</v>
+        <v>0.0186830053606139</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.01015179303852299</v>
+        <v>0.008531212322090906</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0005641695673535415</v>
+        <v>0.009095381889444448</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.01273091085598917</v>
+        <v>0.02182629274543362</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.000109266165771455</v>
+        <v>0.02171702657966216</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.00981918201560769</v>
+        <v>0.01189784456405447</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0003633813825765166</v>
+        <v>0.01226122594663099</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01129937378376956</v>
+        <v>0.02356059973040055</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.0005448457078400071</v>
+        <v>0.02301575402256054</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.009765775605049664</v>
+        <v>0.01324997841751088</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0003638234843916298</v>
+        <v>0.01361380190190251</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0103886869073789</v>
+        <v>0.02400248880928141</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.0008499130392313023</v>
+        <v>0.02315257577005011</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.009370528167278425</v>
+        <v>0.01378204760277168</v>
       </c>
       <c r="AX3" t="n">
         <v>0.04133503352146148</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.005205502023660968</v>
+        <v>0.03612953149780051</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.01042714808834202</v>
+        <v>0.02570238340945849</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.003226040978329309</v>
+        <v>0.02247634243112918</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.03291497766326121</v>
+        <v>0.05539132009439039</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.007188256767625772</v>
+        <v>0.04820306332676462</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.01414900472674216</v>
+        <v>0.03405405860002246</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.002702958548245911</v>
+        <v>0.03135110005177655</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.02797274950628199</v>
+        <v>0.05932384955805853</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.007074113910765146</v>
+        <v>0.05224973564729339</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.01546372091221582</v>
+        <v>0.03678601473507757</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.001469051428146809</v>
+        <v>0.03531696330693076</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.02469183055044741</v>
+        <v>0.06000879385737817</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.006546217468561639</v>
+        <v>0.05346257638881653</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.01579432926830675</v>
+        <v>0.03766824712050978</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.000195898340706749</v>
+        <v>0.03747234877980303</v>
       </c>
     </row>
     <row r="4">
@@ -1163,193 +1163,193 @@
         <v>0.06397361898907927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01538404566674286</v>
+        <v>0.07935766465582213</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.009006273132175337</v>
+        <v>0.07035139152364679</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.005479779083904042</v>
+        <v>0.06487161243974275</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001740502354252381</v>
+        <v>0.06661211479399513</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0008430613126758284</v>
+        <v>0.06745517610667096</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0007755083231075796</v>
+        <v>0.06667966778356338</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.000552207030228952</v>
+        <v>0.06612746075333442</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001364866310595804</v>
+        <v>0.06749232706393023</v>
       </c>
       <c r="K4" t="n">
-        <v>-6.476688554798299e-06</v>
+        <v>0.06748585037537543</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0009040799024269024</v>
+        <v>0.06658177047294853</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0004168008222211483</v>
+        <v>0.06616496965072738</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001231731593813239</v>
+        <v>0.06739670124454061</v>
       </c>
       <c r="O4" t="n">
-        <v>5.874205696774094e-05</v>
+        <v>0.06745544330150835</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0008150601326183457</v>
+        <v>0.06664038316889001</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.000392139581953129</v>
+        <v>0.06624824358693689</v>
       </c>
       <c r="R4" t="n">
         <v>0.003804852720028834</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001783017417281357</v>
+        <v>0.005587870137310191</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.00238743056914844</v>
+        <v>0.003200439568161751</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.004647117122452324</v>
+        <v>-0.001446677554290573</v>
       </c>
       <c r="V4" t="n">
-        <v>0.003847672972377223</v>
+        <v>0.00240099541808665</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002876917293840229</v>
+        <v>0.005277912711926879</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.001882771050288681</v>
+        <v>0.003395141661638198</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.004260093198772103</v>
+        <v>-0.0008649515371339052</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.003085923968843086</v>
+        <v>0.00222097243170918</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.002712032467396807</v>
+        <v>0.004933004899105987</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.001569981834650833</v>
+        <v>0.003363023064455154</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.003763020325661899</v>
+        <v>-0.0003999972612067455</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002513836891028691</v>
+        <v>0.002113839629821946</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.00252245022432751</v>
+        <v>0.004636289854149456</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.001309284220343037</v>
+        <v>0.003327005633806419</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.003327005633804663</v>
+        <v>1.755973838557523e-15</v>
       </c>
       <c r="AH4" t="n">
         <v>0.004598983637149432</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.007991134722341387</v>
+        <v>0.01259011835949082</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.0001046147478447682</v>
+        <v>0.01248550361164605</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.001279392177908493</v>
+        <v>0.01120611143373756</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.002674066876355905</v>
+        <v>0.008532044557381652</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.003898872545384393</v>
+        <v>0.01243091710276605</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.566340844265539e-05</v>
+        <v>0.0124765805112087</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0009996967625428004</v>
+        <v>0.0114768837486659</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.002367155866347916</v>
+        <v>0.009109727882317984</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.003127569265793804</v>
+        <v>0.01223729714811179</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0001878750893608665</v>
+        <v>0.01242517223747265</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.0009479123902958401</v>
+        <v>0.01147725984717681</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.00205339814347528</v>
+        <v>0.009423861703701535</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.002599291794626331</v>
+        <v>0.01202315349832787</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0003280973642864886</v>
+        <v>0.01235125086261436</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.0008745206479409259</v>
+        <v>0.01147673021467343</v>
       </c>
       <c r="AX4" t="n">
         <v>-0.01683860178617064</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.007884453463522685</v>
+        <v>-0.008954148322647959</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.004660154369985734</v>
+        <v>-0.004293993952662225</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.001330498197291022</v>
+        <v>-0.002963495755371203</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.01348124021461969</v>
+        <v>-0.0164447359699909</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.006635747949786963</v>
+        <v>-0.009808988020203933</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.004890180780604913</v>
+        <v>-0.00491880723959902</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.001210085058099985</v>
+        <v>-0.003708722181499035</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.01150748050973594</v>
+        <v>-0.01521620269123498</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.005148544419495731</v>
+        <v>-0.01006765827173925</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.004737085147038324</v>
+        <v>-0.005330573124700921</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.001063071874397973</v>
+        <v>-0.004267501250302948</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.009871794796422372</v>
+        <v>-0.01413929604672532</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.003935554743932992</v>
+        <v>-0.01020374130279233</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.004494046713656366</v>
+        <v>-0.005709694589135963</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0009612406759290652</v>
+        <v>-0.004748453913206897</v>
       </c>
     </row>
     <row r="5">
@@ -1362,193 +1362,193 @@
         <v>0.1180269535246118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02846964926312819</v>
+        <v>0.14649660278774</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02353097589561519</v>
+        <v>0.1229656268921248</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02189699464167224</v>
+        <v>0.1010686322504525</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.006055244425029512</v>
+        <v>0.09501338782542303</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00229036965625488</v>
+        <v>0.09730375748167791</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005203230393154124</v>
+        <v>0.102506987874832</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001329237231116575</v>
+        <v>0.1038362251059486</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000480742006495144</v>
+        <v>0.1043169671124438</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.001566357982147682</v>
+        <v>0.1027506091302961</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0003347862878372581</v>
+        <v>0.1024158228424588</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0004799106975896016</v>
+        <v>0.1019359121448692</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001010740032326097</v>
+        <v>0.1029466521771953</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.000281301736653301</v>
+        <v>0.102665350440542</v>
       </c>
       <c r="P5" t="n">
-        <v>9.392216195061783e-05</v>
+        <v>0.1027592726024926</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0004373631383127145</v>
+        <v>0.1023219094641799</v>
       </c>
       <c r="R5" t="n">
         <v>0.001388445877881471</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.001340985032400263</v>
+        <v>4.74608454812083e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.003415202612227299</v>
+        <v>0.003462663457708508</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.004432067424822671</v>
+        <v>-0.0009694039671141637</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004592711620659904</v>
+        <v>0.00362330765354574</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.000813993260498907</v>
+        <v>0.002809314393046833</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006950488049765085</v>
+        <v>0.003504363198023342</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.004327611617002776</v>
+        <v>-0.0008232484189794349</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003834816737054291</v>
+        <v>0.003011568318074856</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0001970443270333367</v>
+        <v>0.002814523991041519</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0003725003288298592</v>
+        <v>0.003187024319871379</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.003511099827000765</v>
+        <v>-0.0003240755071293863</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.003223398405785554</v>
+        <v>0.002899322898656167</v>
       </c>
       <c r="AE5" t="n">
-        <v>-7.979193858766583e-07</v>
+        <v>0.002898524979270291</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.20213321598955e-05</v>
+        <v>0.002866503647110395</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.002866503647110472</v>
+        <v>-7.719519468096792e-17</v>
       </c>
       <c r="AH5" t="n">
         <v>-0.004760567977244165</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0110153076559547</v>
+        <v>0.006254739678710534</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.002328405149879766</v>
+        <v>0.0085831448285903</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0001178365744930645</v>
+        <v>0.008700981403083364</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.004215472810464456</v>
+        <v>0.004485508592618907</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.004032797661013955</v>
+        <v>0.008518306253632861</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.001098180233272349</v>
+        <v>0.007420126020360512</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.0004867920990838367</v>
+        <v>0.006933333921276675</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.002499739202079135</v>
+        <v>0.004433594719197541</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.004100621236315712</v>
+        <v>0.008534215955513253</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.000729479955633851</v>
+        <v>0.007804735999879402</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.0009493017690508465</v>
+        <v>0.006855434230828555</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.002081876598817967</v>
+        <v>0.004773557632010587</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.003516362215534856</v>
+        <v>0.008289919847545443</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.0005228276330551216</v>
+        <v>0.007767092214490322</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.001074753316011005</v>
+        <v>0.006692338898479316</v>
       </c>
       <c r="AX5" t="n">
         <v>-0.03200977731849915</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01729776160396961</v>
+        <v>-0.01471201571452955</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.009237391840297784</v>
+        <v>-0.005474623874231761</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0007378945193183644</v>
+        <v>-0.004736729354913397</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.0262152629622433</v>
+        <v>-0.0309519923171567</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01593216680581409</v>
+        <v>-0.0150198255113426</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.009713611065920894</v>
+        <v>-0.00530621444542171</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.001447364729823284</v>
+        <v>-0.006753579175244995</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.02241711279137607</v>
+        <v>-0.02917069196662107</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01424949586831235</v>
+        <v>-0.01492119609830872</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.00955664258420809</v>
+        <v>-0.005364553514100626</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.003072410951650585</v>
+        <v>-0.00843696446575121</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01918187774553403</v>
+        <v>-0.02761884221128524</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01289583144322574</v>
+        <v>-0.0147230107680595</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.009158545901590388</v>
+        <v>-0.005564464866469112</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.004259319638425967</v>
+        <v>-0.009823784504895079</v>
       </c>
     </row>
     <row r="6">
@@ -1561,193 +1561,193 @@
         <v>0.08449047156165435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006230707098163257</v>
+        <v>0.0907211786598176</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004099919023335529</v>
+        <v>0.09113117056215116</v>
       </c>
       <c r="E6" t="n">
-        <v>1.38986585641695e-07</v>
+        <v>0.0911313095487368</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.631273195110516e-05</v>
+        <v>0.0911149968167857</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.925903669918857e-06</v>
+        <v>0.09110507091311577</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.383877582024652e-06</v>
+        <v>0.09109968703553376</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.877147459772862e-06</v>
+        <v>0.09109680988807398</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.534371080114018e-06</v>
+        <v>0.09109527551699387</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.180360192448959e-07</v>
+        <v>0.09109445748097462</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.361106431343959e-07</v>
+        <v>0.09109402137033148</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.324975843768399e-07</v>
+        <v>0.09109378887274711</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.239480939358237e-07</v>
+        <v>0.09109366492465316</v>
       </c>
       <c r="O6" t="n">
-        <v>-6.607865746469013e-08</v>
+        <v>0.0910935988459957</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.522755988946646e-08</v>
+        <v>0.09109356361843582</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.878035996158723e-08</v>
+        <v>0.09109354483807586</v>
       </c>
       <c r="R6" t="n">
         <v>0.000476816831713464</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0001868669145195259</v>
+        <v>0.0002899499171939381</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0001327101885412402</v>
+        <v>0.0001572397286526978</v>
       </c>
       <c r="U6" t="n">
-        <v>-7.323215211246442e-05</v>
+        <v>8.400757654023343e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>-3.922741910568236e-05</v>
+        <v>4.478015743455106e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>-2.092671724756406e-05</v>
+        <v>2.3853440186987e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>-1.115740640296862e-05</v>
+        <v>1.269603378401838e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>-5.94826547068951e-06</v>
+        <v>6.747768313328867e-06</v>
       </c>
       <c r="Z6" t="n">
-        <v>-3.17111871436645e-06</v>
+        <v>3.576649598962417e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1.690573139021469e-06</v>
+        <v>1.886076459940948e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>-9.012708614925778e-07</v>
+        <v>9.848055984483704e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.804815132328385e-07</v>
+        <v>5.043240852155319e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>-2.56152166228955e-07</v>
+        <v>2.481719189865769e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>-1.365587029169837e-07</v>
+        <v>1.116132160695932e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>-7.280156797134462e-08</v>
+        <v>3.881164809824861e-08</v>
       </c>
       <c r="AG6" t="n">
-        <v>-3.881164792728399e-08</v>
+        <v>1.709646205305506e-16</v>
       </c>
       <c r="AH6" t="n">
         <v>0.001338987333910252</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.001452319737566873</v>
+        <v>0.002791307071477125</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0008296550373372649</v>
+        <v>0.00362096210881439</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0004464581450565906</v>
+        <v>0.00406742025387098</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0002383255714901187</v>
+        <v>0.004305745825361099</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0001270784585538873</v>
+        <v>0.004432824283914986</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.774925703080464e-05</v>
+        <v>0.004500573540945791</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.611831404316471e-05</v>
+        <v>0.004536691854988955</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.925524472052364e-05</v>
+        <v>0.004555947099709479</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.026527111442499e-05</v>
+        <v>0.004566212370823904</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.472575708444101e-06</v>
+        <v>0.004571684946532348</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.917515211186908e-06</v>
+        <v>0.004574602461743535</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.555372725848344e-06</v>
+        <v>0.004576157834469383</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.291933857341153e-07</v>
+        <v>0.004576987027855118</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.420558876352101e-07</v>
+        <v>0.004577429083742753</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.356668675296754e-07</v>
+        <v>0.004577664750610283</v>
       </c>
       <c r="AX6" t="n">
         <v>0.006080368845540966</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.003249931327774816</v>
+        <v>0.009330300173315782</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.001733218501530636</v>
+        <v>0.01106351867484642</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0009240529646330911</v>
+        <v>0.01198757163947951</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0004926305473896635</v>
+        <v>0.01248020218686917</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0002626292708747575</v>
+        <v>0.01274283145774393</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.000140011768047547</v>
+        <v>0.01288284322579147</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.464245218144341e-05</v>
+        <v>0.01295748567797292</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.979305203701053e-05</v>
+        <v>0.01299727873000993</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.121429481890057e-05</v>
+        <v>0.01301849302482883</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.130967044425698e-05</v>
+        <v>0.01302980269527308</v>
       </c>
       <c r="BI6" t="n">
-        <v>6.029361175729655e-06</v>
+        <v>0.01303583205644881</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.214346197471268e-06</v>
+        <v>0.01303904640264628</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.713617939953287e-06</v>
+        <v>0.01304076002058624</v>
       </c>
       <c r="BL6" t="n">
-        <v>9.13556370013751e-07</v>
+        <v>0.01304167357695625</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.870311063710247e-07</v>
+        <v>0.01304216060806262</v>
       </c>
     </row>
     <row r="7">
@@ -1760,193 +1760,193 @@
         <v>0.1184991295072778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02582114366281359</v>
+        <v>0.1443202731700914</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01336452497258792</v>
+        <v>0.1309557481975035</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02256250329983168</v>
+        <v>0.1083932448976718</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003066954708341933</v>
+        <v>0.1114601996060138</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.001877560050411846</v>
+        <v>0.1095826395556019</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.003918775804688787</v>
+        <v>0.1056638637509131</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001649729924893708</v>
+        <v>0.1058288367434025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001608262558947918</v>
+        <v>0.1074370993023504</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.004855742847151259</v>
+        <v>0.1025813564551992</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.003837791308866949</v>
+        <v>0.09874356514633222</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004307433565510638</v>
+        <v>0.1030509987118429</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003893056845114573</v>
+        <v>0.1069440555569574</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.003585729040663016</v>
+        <v>0.1033583265162944</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.004081337923802724</v>
+        <v>0.09927698859249169</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.003376205376058705</v>
+        <v>0.1026531939685504</v>
       </c>
       <c r="R7" t="n">
         <v>0.02256859776553637</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00934984012370511</v>
+        <v>0.03191843788924148</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.005308141614327668</v>
+        <v>0.02661029627491381</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.02012861977796988</v>
+        <v>0.006481676496943929</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.02000960811390001</v>
+        <v>-0.01352793161695608</v>
       </c>
       <c r="W7" t="n">
-        <v>0.008716696830596617</v>
+        <v>-0.004811234786359459</v>
       </c>
       <c r="X7" t="n">
-        <v>0.009530358666092852</v>
+        <v>0.004719123879733392</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.003326740819343095</v>
+        <v>0.001392383060390297</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.01667537512652699</v>
+        <v>-0.01528299206613669</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.006273105471674175</v>
+        <v>-0.009009886594462514</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.008619110909250485</v>
+        <v>-0.0003907756852120289</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0009416068059905508</v>
+        <v>0.0005508311207785218</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01322710824311683</v>
+        <v>-0.01267627712233831</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.00485928143968571</v>
+        <v>-0.0078169956826526</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.006108192775219201</v>
+        <v>-0.001708802907433399</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.001708802907429439</v>
+        <v>-3.959940014786056e-15</v>
       </c>
       <c r="AH7" t="n">
         <v>-0.0003071722099333147</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.005175633760581798</v>
+        <v>0.004868461550648484</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.004980137416661343</v>
+        <v>0.009848598967309826</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.0009801247737251044</v>
+        <v>0.008868474193584722</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.002270834009234663</v>
+        <v>0.00659764018435006</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.001703110942284424</v>
+        <v>0.008300751126634484</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003191482220749845</v>
+        <v>0.01149223334738433</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.001417753627720175</v>
+        <v>0.01007447971966415</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.002357266390682833</v>
+        <v>0.007717213328981321</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0007740758611517206</v>
+        <v>0.008491289190133042</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.002497354563771718</v>
+        <v>0.01098864375390476</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.001120050753931579</v>
+        <v>0.009868592999973181</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.001886792171206457</v>
+        <v>0.007981800828766724</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0005075278548267741</v>
+        <v>0.008489328683593499</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.00210990749605157</v>
+        <v>0.01059923617964507</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.0008494859268218794</v>
+        <v>0.009749750252823189</v>
       </c>
       <c r="AX7" t="n">
         <v>0.01562015112259869</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.002434076586467774</v>
+        <v>0.01318607453613091</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0.0009644644206445597</v>
+        <v>0.01222161011548635</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.00437310306595847</v>
+        <v>0.007848507049527883</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.01083065787808212</v>
+        <v>0.01867916492761</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.004317354722038757</v>
+        <v>0.01436181020557124</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.000757374749419713</v>
+        <v>0.01360443545615153</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.004995272492189283</v>
+        <v>0.008609162963962247</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.009320390275405837</v>
+        <v>0.01792955323936808</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.004211289149114544</v>
+        <v>0.01371826409025354</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0001516671277608298</v>
+        <v>0.01386993121801437</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.004960291544208402</v>
+        <v>0.008909639673805966</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.008371400591782732</v>
+        <v>0.0172810402655887</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.003965984685401044</v>
+        <v>0.01331505558018765</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0009021612847813666</v>
+        <v>0.01421721686496902</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.004916695369835379</v>
+        <v>0.009300521495133642</v>
       </c>
     </row>
     <row r="8">
@@ -1959,193 +1959,193 @@
         <v>0.1067496839451767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03543899397394197</v>
+        <v>0.1421886779191187</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02039090940627832</v>
+        <v>0.1217977685128404</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0140936541664533</v>
+        <v>0.1077041143463871</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002875543992637365</v>
+        <v>0.1105796583390245</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00452539990871457</v>
+        <v>0.115105058247739</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001211865216194675</v>
+        <v>0.1152262447693585</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.001242124810341156</v>
+        <v>0.1139841199590173</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0002875108945105031</v>
+        <v>0.1136966090645068</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002888982016044049</v>
+        <v>0.1139855072661113</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001394702378505665</v>
+        <v>0.1141249775039618</v>
       </c>
       <c r="M8" t="n">
-        <v>-5.23711490988364e-05</v>
+        <v>0.114072606354863</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.972890261207935e-05</v>
+        <v>0.1140228774522509</v>
       </c>
       <c r="O8" t="n">
-        <v>4.5010819090311e-06</v>
+        <v>0.1140273785341599</v>
       </c>
       <c r="P8" t="n">
-        <v>1.483686510777111e-05</v>
+        <v>0.1140422153992677</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.770367265190098e-06</v>
+        <v>0.1140439857665329</v>
       </c>
       <c r="R8" t="n">
         <v>0.05188196436214818</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.02776324663602418</v>
+        <v>0.024118717726124</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.03439388770219737</v>
+        <v>-0.01027516997607337</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00178662940356091</v>
+        <v>-0.008488540572512459</v>
       </c>
       <c r="V8" t="n">
-        <v>0.009568919373381302</v>
+        <v>0.001080378800868843</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00152937365626273</v>
+        <v>0.002609752457131573</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.002383906529866926</v>
+        <v>0.0002258459272646467</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.0009110256153562659</v>
+        <v>-0.0006851796880916192</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0004802637250887193</v>
+        <v>-0.0002049159630028999</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0003532402055457755</v>
+        <v>0.0001483242425428756</v>
       </c>
       <c r="AB8" t="n">
-        <v>-6.231190161895481e-05</v>
+        <v>8.601234092392076e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.0001115778147252073</v>
+        <v>-2.556547380128657e-05</v>
       </c>
       <c r="AD8" t="n">
-        <v>-5.349992599670424e-06</v>
+        <v>-3.091546640095699e-05</v>
       </c>
       <c r="AE8" t="n">
-        <v>3.013508633260003e-05</v>
+        <v>-7.803800683569637e-07</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.651595672978745e-06</v>
+        <v>6.871215604621781e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>-6.871215618872905e-06</v>
+        <v>-1.425112350854742e-14</v>
       </c>
       <c r="AH8" t="n">
         <v>0.004399764768975543</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.002253757713779784</v>
+        <v>0.006653522482755327</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.0001964359408218502</v>
+        <v>0.006457086541933477</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.0007169744284036861</v>
+        <v>0.005740112113529791</v>
       </c>
       <c r="AL8" t="n">
-        <v>-7.387355093271417e-05</v>
+        <v>0.005666238562597077</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.000182384716150181</v>
+        <v>0.005848623278747258</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.868812356104986e-05</v>
+        <v>0.005907311402308307</v>
       </c>
       <c r="AO8" t="n">
-        <v>-3.922105108748999e-05</v>
+        <v>0.005868090351220817</v>
       </c>
       <c r="AP8" t="n">
-        <v>-2.439862433797498e-05</v>
+        <v>0.005843691726882843</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5.985962926846652e-06</v>
+        <v>0.00584967768980969</v>
       </c>
       <c r="AR8" t="n">
-        <v>8.052690428282478e-06</v>
+        <v>0.005857730380237972</v>
       </c>
       <c r="AS8" t="n">
-        <v>-3.110169957499342e-08</v>
+        <v>0.005857699278538397</v>
       </c>
       <c r="AT8" t="n">
-        <v>-2.259970705588202e-06</v>
+        <v>0.005855439307832809</v>
       </c>
       <c r="AU8" t="n">
-        <v>-4.528610143580333e-07</v>
+        <v>0.005854986446818452</v>
       </c>
       <c r="AV8" t="n">
-        <v>5.400151564782096e-07</v>
+        <v>0.005855526461974929</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.370267554931592e-07</v>
+        <v>0.005855763488730422</v>
       </c>
       <c r="AX8" t="n">
         <v>-0.007956771426273268</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.00182419637779591</v>
+        <v>-0.006132575048477358</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0.001926965173999483</v>
+        <v>-0.008059540222476841</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.0002541481723557643</v>
+        <v>-0.008313688394832605</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0003122126685849431</v>
+        <v>-0.008001475726247662</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.000170531960132292</v>
+        <v>-0.007830943766115371</v>
       </c>
       <c r="BD8" t="n">
-        <v>-6.06752785264662e-05</v>
+        <v>-0.007891619044641836</v>
       </c>
       <c r="BE8" t="n">
-        <v>-5.835373472053479e-05</v>
+        <v>-0.007949972779362371</v>
       </c>
       <c r="BF8" t="n">
-        <v>4.672749919088376e-06</v>
+        <v>-0.007945300029443284</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.73716725719587e-05</v>
+        <v>-0.007927928356871325</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.22105112358178e-06</v>
+        <v>-0.007925707305747744</v>
       </c>
       <c r="BI8" t="n">
-        <v>-4.40403442580691e-06</v>
+        <v>-0.007930111340173551</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-1.521946298637795e-06</v>
+        <v>-0.007931633286472188</v>
       </c>
       <c r="BK8" t="n">
-        <v>9.219361647611162e-07</v>
+        <v>-0.007930711350307427</v>
       </c>
       <c r="BL8" t="n">
-        <v>6.141861724681456e-07</v>
+        <v>-0.00793009716413496</v>
       </c>
       <c r="BM8" t="n">
-        <v>-1.325789019993938e-07</v>
+        <v>-0.007930229743036959</v>
       </c>
     </row>
     <row r="9">
@@ -2158,193 +2158,193 @@
         <v>0.1227562978514976</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.05251311984724102</v>
+        <v>0.07024317800425654</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004230388969199188</v>
+        <v>0.07447356697345572</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.002902604842339715</v>
+        <v>0.07157096213111601</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008045749664641047</v>
+        <v>0.07961671179575705</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.006354521551797342</v>
+        <v>0.0732621902439597</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004061184381028624</v>
+        <v>0.07732337462498833</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.002353081624914453</v>
+        <v>0.07497029300007388</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001038245573496587</v>
+        <v>0.07600853857357047</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.001347353145466368</v>
+        <v>0.0746611854281041</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002174285240067885</v>
+        <v>0.07683547066817198</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.001514040001311093</v>
+        <v>0.07532143066686088</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0002846296120817694</v>
+        <v>0.07560606027894265</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.000399682736139432</v>
+        <v>0.07520637754280322</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001192059727216734</v>
+        <v>0.07639843727001996</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0009510525432417747</v>
+        <v>0.07544738472677819</v>
       </c>
       <c r="R9" t="n">
         <v>0.002297918160643122</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009703372473002389</v>
+        <v>0.01200129063364551</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.004842163911363419</v>
+        <v>0.007159126722282092</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.01821644604806742</v>
+        <v>-0.01105731932578533</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01873618901449229</v>
+        <v>0.007678869688706966</v>
       </c>
       <c r="W9" t="n">
-        <v>0.003418695882056598</v>
+        <v>0.01109756557076357</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.006796196450591646</v>
+        <v>0.004301369120171919</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.01058398129205502</v>
+        <v>-0.006282612171883101</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0139476931609648</v>
+        <v>0.007665080989081695</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.001386148035110116</v>
+        <v>0.009051229024191813</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.006284305247422992</v>
+        <v>0.00276692377676882</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.005255889125598723</v>
+        <v>-0.002488965348829903</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.009574047157431799</v>
+        <v>0.007085081808601896</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0002533069119623693</v>
+        <v>0.007338388720564266</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.005096440670585237</v>
+        <v>0.002241948049979028</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.002241948049982852</v>
+        <v>-3.823330541052883e-15</v>
       </c>
       <c r="AH9" t="n">
         <v>0.00175719613211123</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.001334960701748478</v>
+        <v>0.0004222354303627513</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.00211535141580135</v>
+        <v>0.002537586846164101</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.00226783241244908</v>
+        <v>0.0002697544337150215</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.001006728850160181</v>
+        <v>0.001276483283875202</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.0003567593481199521</v>
+        <v>0.00091972393575525</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.001181293516089229</v>
+        <v>0.00210101745184448</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.001514884323037338</v>
+        <v>0.0005861331288071416</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0006025834360637556</v>
+        <v>0.001188716564870897</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-2.588848753490948e-05</v>
+        <v>0.001162828077335988</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0005640235078399469</v>
+        <v>0.001726851585175935</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.000926362552678098</v>
+        <v>0.0008004890324978368</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.000375314851959187</v>
+        <v>0.001175803884457024</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.478309226103389e-05</v>
+        <v>0.001260586976718058</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0002394601958647776</v>
+        <v>0.001500047172582835</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0005626965802314023</v>
+        <v>0.0009373505923514331</v>
       </c>
       <c r="AX9" t="n">
         <v>0.02227022140769776</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.005556856365549382</v>
+        <v>0.01671336504214838</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0.005898075316138602</v>
+        <v>0.01081528972600977</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0006740258685641203</v>
+        <v>0.01148931559457389</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.01240247105786239</v>
+        <v>0.02389178665243629</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.005481277469650625</v>
+        <v>0.01841050918278566</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.004951974318305261</v>
+        <v>0.0134585348644804</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.001769210389177897</v>
+        <v>0.01522774525365829</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.007301255735925623</v>
+        <v>0.02252900098958392</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.004458387553569532</v>
+        <v>0.01807061343601439</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.003381607521108446</v>
+        <v>0.01468900591490594</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.002154795594633442</v>
+        <v>0.01684380150953938</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.004279118216240935</v>
+        <v>0.02112291972578031</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.003449132307486318</v>
+        <v>0.017673787418294</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.002102949148977539</v>
+        <v>0.01557083826931646</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.002052966933111999</v>
+        <v>0.01762380520242846</v>
       </c>
     </row>
     <row r="10">
@@ -2357,193 +2357,193 @@
         <v>0.1049835518755519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01844695783999283</v>
+        <v>0.1234305097155448</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02525341414511862</v>
+        <v>0.09817709557042616</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01900599060637153</v>
+        <v>0.07917110496405463</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0147865912159872</v>
+        <v>0.06438451374806743</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002567552392138601</v>
+        <v>0.06695206614020603</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01008262025248042</v>
+        <v>0.07703468639268646</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005666743060521762</v>
+        <v>0.08270142945320821</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001282311135452642</v>
+        <v>0.08398374058866086</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.002351322019506741</v>
+        <v>0.08163241856915411</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.003533877527086185</v>
+        <v>0.07809854104206793</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.001138307712727495</v>
+        <v>0.07696023332934043</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001507207577031179</v>
+        <v>0.07846744090637162</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001595341646699962</v>
+        <v>0.08006278255307157</v>
       </c>
       <c r="P10" t="n">
-        <v>-5.389086407418331e-05</v>
+        <v>0.08000889168899739</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0005797527235779398</v>
+        <v>0.07942913896541945</v>
       </c>
       <c r="R10" t="n">
         <v>0.007099998302921857</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001177071080911021</v>
+        <v>0.007217705411012959</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.001176546212430743</v>
+        <v>0.006041159198582217</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.005270619026883249</v>
+        <v>0.0007705401716989677</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.001093761947433555</v>
+        <v>-0.0003232217757345877</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002018917043404213</v>
+        <v>0.001695695267669625</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00170463162726356</v>
+        <v>0.003400326894933185</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.002488645530137574</v>
+        <v>0.0009116813647956114</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.000552405579545736</v>
+        <v>0.0003592757852498754</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001595852167643058</v>
+        <v>0.001955127952892933</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.000578597950909324</v>
+        <v>0.002533725903802257</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.002575173267917732</v>
+        <v>-4.14473641154752e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0005144093220780903</v>
+        <v>-0.0005558566861935655</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.002214214478367896</v>
+        <v>0.001658357792174331</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0008157203047872812</v>
+        <v>0.002474078096961612</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.002474078096961898</v>
+        <v>-2.866630544051674e-16</v>
       </c>
       <c r="AH10" t="n">
         <v>0.005048453064282097</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.007767658510714914</v>
+        <v>0.01281611157499701</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.00312496439996186</v>
+        <v>0.01594107597495887</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.00330031361426274</v>
+        <v>0.01264076236069613</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.0009586186541179131</v>
+        <v>0.01168214370657822</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.004188415251769002</v>
+        <v>0.01587055895834722</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.002276031493748508</v>
+        <v>0.01814659045209573</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.002670435926927385</v>
+        <v>0.01547615452516834</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.000522023058209295</v>
+        <v>0.01495413146695905</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.003984225285967932</v>
+        <v>0.01893835675292698</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001512904940233559</v>
+        <v>0.02045126169316054</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.003509254285331218</v>
+        <v>0.01694200740782932</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.001119149587117659</v>
+        <v>0.01582285782071166</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.003899245344941174</v>
+        <v>0.01972210316565284</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.001610945188621694</v>
+        <v>0.02133304835427453</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.003574109218009255</v>
+        <v>0.01775893913626527</v>
       </c>
       <c r="AX10" t="n">
         <v>-0.01959009513750554</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.00071956598222992</v>
+        <v>-0.01887052915527562</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.006711006149180887</v>
+        <v>-0.01215952300609474</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.226374883993132e-05</v>
+        <v>-0.0121472592572548</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.01591087548911093</v>
+        <v>-0.02805813474636574</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0002479961725227454</v>
+        <v>-0.02781013857384299</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.009861670777274435</v>
+        <v>-0.01794846779656856</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0003595693329627711</v>
+        <v>-0.01758889846360578</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.01407338348306375</v>
+        <v>-0.03166228194666953</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.0001274639617997208</v>
+        <v>-0.03178974590846925</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.01134556865181284</v>
+        <v>-0.0204441772566564</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0005465204787361014</v>
+        <v>-0.0198976567779203</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.01337485181656418</v>
+        <v>-0.03327250859448448</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.0004782167307032031</v>
+        <v>-0.03375072532518768</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.01217117959956354</v>
+        <v>-0.02157954572562415</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0008068280643025121</v>
+        <v>-0.02077271766132164</v>
       </c>
     </row>
     <row r="11">
@@ -2556,193 +2556,193 @@
         <v>0.07488015115741013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03102150928023046</v>
+        <v>0.1059016604376406</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02096489513367967</v>
+        <v>0.08493676530396094</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0100867286230571</v>
+        <v>0.07485003668090384</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01550840613021449</v>
+        <v>0.05934163055068935</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005171951698225217</v>
+        <v>0.06451358224891457</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007851878533453999</v>
+        <v>0.07236546078236857</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01072863714540708</v>
+        <v>0.08309409792777565</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.005525610864941384</v>
+        <v>0.07756848706283427</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001442693954476393</v>
+        <v>0.07612579310835788</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.005861998038869254</v>
+        <v>0.07026379506948863</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00519946906746974</v>
+        <v>0.07546326413695836</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.002411605167973371</v>
+        <v>0.07305165896898499</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003609951827053167</v>
+        <v>0.07666161079603816</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.00296185133039181</v>
+        <v>0.07369975946564634</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004038640913803569</v>
+        <v>0.07773840037944992</v>
       </c>
       <c r="R11" t="n">
         <v>0.03059521663861636</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.007033925842783759</v>
+        <v>0.0235612907958326</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.01431853018241609</v>
+        <v>0.009242760613416515</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01467032217875543</v>
+        <v>-0.005427561565338912</v>
       </c>
       <c r="V11" t="n">
-        <v>0.003958271915456559</v>
+        <v>-0.001469289649882353</v>
       </c>
       <c r="W11" t="n">
-        <v>0.005529853083862014</v>
+        <v>0.004060563433979661</v>
       </c>
       <c r="X11" t="n">
-        <v>0.006543079872176821</v>
+        <v>0.01060364330615648</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.007594377012921301</v>
+        <v>0.003009266293235181</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.002255043241177942</v>
+        <v>0.005264309534413123</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.001325018087671733</v>
+        <v>0.00393929144674139</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.001722694953332962</v>
+        <v>0.005661986400074351</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.006054467407441273</v>
+        <v>-0.0003924810073669223</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.005447978587208169</v>
+        <v>0.005055497579841247</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0005196935224761967</v>
+        <v>0.005575191102317444</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.001449889997588008</v>
+        <v>0.007025081099905452</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.007025081099906286</v>
+        <v>-8.344019919448442e-16</v>
       </c>
       <c r="AH11" t="n">
         <v>0.02052651542366684</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.01284383020928093</v>
+        <v>0.007682685214385915</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01084738613153238</v>
+        <v>0.01853007134591829</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.00691698497160137</v>
+        <v>0.01161308637431692</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01911930636498456</v>
+        <v>0.03073239273930148</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.01671143529187171</v>
+        <v>0.01402095744742977</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.004126063752701435</v>
+        <v>0.01814702120013121</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.007313821662924143</v>
+        <v>0.01083319953720707</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.01939281015375459</v>
+        <v>0.03022600969096165</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0.01533686373642313</v>
+        <v>0.01488914595453852</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.004702624173091908</v>
+        <v>0.01959177012763043</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.00758940884264012</v>
+        <v>0.01200236128499031</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.01760896073671442</v>
+        <v>0.02961132202170473</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.01519511040242095</v>
+        <v>0.01441621161928378</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.005010567800072618</v>
+        <v>0.0194267794193564</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.006897667316551247</v>
+        <v>0.01252911210280515</v>
       </c>
       <c r="AX11" t="n">
         <v>-0.03727137270171028</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.02060715759692758</v>
+        <v>-0.0166642151047827</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01195998047325191</v>
+        <v>-0.004704234631530788</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.00036962675827251</v>
+        <v>-0.004334607873258277</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.03335688279528938</v>
+        <v>-0.03769149066854766</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.019521785329579</v>
+        <v>-0.01816970533896866</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.01004883814568481</v>
+        <v>-0.008120867193283848</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.001350876918734611</v>
+        <v>-0.006769990274549236</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0.03024116425276874</v>
+        <v>-0.03701115452731797</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.01981871549832492</v>
+        <v>-0.01719243902899305</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.008899655277832793</v>
+        <v>-0.008292783751160259</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0004137895789294286</v>
+        <v>-0.007878994172230831</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.02867863613322083</v>
+        <v>-0.03655763030545166</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.01972700471533461</v>
+        <v>-0.01683062559011705</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.00808346865018509</v>
+        <v>-0.008747156939931965</v>
       </c>
       <c r="BM11" t="n">
-        <v>7.8411097148956e-05</v>
+        <v>-0.008668745842783009</v>
       </c>
     </row>
     <row r="12">
@@ -2755,193 +2755,193 @@
         <v>0.1146465167779718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0155036414717679</v>
+        <v>0.1301501582497397</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02720999012355243</v>
+        <v>0.1029401681261873</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01374986645293059</v>
+        <v>0.08919030167325667</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.005704603592154824</v>
+        <v>0.08348569808110184</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002387027856251775</v>
+        <v>0.08587272593735362</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004063295150726002</v>
+        <v>0.08993602108807962</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001024718568935149</v>
+        <v>0.09096073965701476</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001030566386410033</v>
+        <v>0.09199130604342479</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0003192334219048347</v>
+        <v>0.09167207262151995</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.001898797182962696</v>
+        <v>0.08977327543855726</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0007559830440972206</v>
+        <v>0.08901729239446005</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001568330433515474</v>
+        <v>0.09058562282797553</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0007780401373937927</v>
+        <v>0.09136366296536932</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.001205652330911126</v>
+        <v>0.0901580106344582</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.000685562158378033</v>
+        <v>0.08947244847608017</v>
       </c>
       <c r="R12" t="n">
         <v>0.003470157143739201</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0006888517834547427</v>
+        <v>0.002781305360284458</v>
       </c>
       <c r="T12" t="n">
-        <v>0.004505102934367814</v>
+        <v>0.007286408294652272</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.008937241217438668</v>
+        <v>-0.001650832922786396</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0008519047767370637</v>
+        <v>-0.0007989281460493319</v>
       </c>
       <c r="W12" t="n">
-        <v>0.004526159798546411</v>
+        <v>0.003727231652497079</v>
       </c>
       <c r="X12" t="n">
-        <v>0.002622061066296441</v>
+        <v>0.00634929271879352</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.006767244977032363</v>
+        <v>-0.0004179522582388436</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.0002655573787530931</v>
+        <v>-0.0006835096369919367</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.004754149133652081</v>
+        <v>0.004070639496660144</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.001599783201505957</v>
+        <v>0.005670422698166102</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.005835799496943211</v>
+        <v>-0.0001653767987771096</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.0005463237475686779</v>
+        <v>-0.0007117005463457875</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.004961619537400005</v>
+        <v>0.004249918991054218</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.001101777330150559</v>
+        <v>0.005351696321204777</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.005351696321202239</v>
+        <v>2.537900445354069e-15</v>
       </c>
       <c r="AH12" t="n">
         <v>-0.0004093286593633733</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0123097173518704</v>
+        <v>0.01190038869250702</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.005186889494304248</v>
+        <v>0.01708727818681127</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.003571434474269507</v>
+        <v>0.01351584371254176</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.0007178523746806794</v>
+        <v>0.01279799133786108</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.00651212693872589</v>
+        <v>0.01931011827658697</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.001479696459248213</v>
+        <v>0.02078981473583518</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.004712700053772943</v>
+        <v>0.01607711468206224</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0.0008119878253176479</v>
+        <v>0.01526512685674459</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.005811401145417725</v>
+        <v>0.02107652800216232</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.001107665810764145</v>
+        <v>0.02218419381292646</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.005058685753601931</v>
+        <v>0.01712550805932453</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0.0009293789020622892</v>
+        <v>0.01619612915726224</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.005276126572164929</v>
+        <v>0.02147225572942717</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0008846087223266268</v>
+        <v>0.0223568644517538</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.004949876458460768</v>
+        <v>0.01740698799329303</v>
       </c>
       <c r="AX12" t="n">
         <v>-0.03681783166357327</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.003646169421702095</v>
+        <v>-0.03317166224187118</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01371822720198466</v>
+        <v>-0.01945343503988652</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0003142856170632596</v>
+        <v>-0.01913914942282326</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0.02693072801693204</v>
+        <v>-0.0460698774397553</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.003329359660398852</v>
+        <v>-0.04274051777935645</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.01802522320350382</v>
+        <v>-0.02471529457585262</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.0007965303863766771</v>
+        <v>-0.0255118249622293</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.02262442419354305</v>
+        <v>-0.04813624915577235</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.00299675034391083</v>
+        <v>-0.04513949881186152</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.01890944833855373</v>
+        <v>-0.02623005047330779</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.001713305966155085</v>
+        <v>-0.02794335643946287</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.02039845074898919</v>
+        <v>-0.04834180718845206</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.002882642672316463</v>
+        <v>-0.0454591645161356</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01863893520713182</v>
+        <v>-0.02682022930900377</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.002327627513634828</v>
+        <v>-0.0291478568226386</v>
       </c>
     </row>
     <row r="13">
@@ -2954,193 +2954,193 @@
         <v>0.1376471617584953</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0221754692209265</v>
+        <v>0.1598226309794218</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04437763806081053</v>
+        <v>0.1154449929186113</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01273182094785971</v>
+        <v>0.1027131719707515</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0003535220906169002</v>
+        <v>0.1023596498801346</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.008426236084050387</v>
+        <v>0.09393341379608426</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002773392649414524</v>
+        <v>0.09670680644549878</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00546005854743299</v>
+        <v>0.1021668649929318</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006951022254944339</v>
+        <v>0.1091178872478761</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.003378628247797956</v>
+        <v>0.1057392590000782</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.003639783151601022</v>
+        <v>0.1020994758484771</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001789148351814391</v>
+        <v>0.1003103274966628</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004103921155752164</v>
+        <v>0.1044142486524149</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.001101776118592078</v>
+        <v>0.1033124725338228</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0004356618089418862</v>
+        <v>0.1028768107248809</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0009993147735652612</v>
+        <v>0.1018774959513157</v>
       </c>
       <c r="R13" t="n">
         <v>0.00513479263764406</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0104889105150755</v>
+        <v>-0.005354117877431437</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.001540693173525488</v>
+        <v>-0.006894811050956925</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.006186310956883271</v>
+        <v>-0.0130811220078402</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02263175791764478</v>
+        <v>0.009550635909804582</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.001763329595412533</v>
+        <v>0.007787306314392049</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.003126135577858338</v>
+        <v>0.004661170736533712</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.009396122150041472</v>
+        <v>-0.00473495141350776</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01158268294745655</v>
+        <v>0.006847731533948789</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.003315905513382307</v>
+        <v>0.003531826020566482</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001526230073905242</v>
+        <v>0.005058056094471724</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.006525980536120614</v>
+        <v>-0.00146792444164889</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.007938331595963383</v>
+        <v>0.006470407154314493</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.003351164434356714</v>
+        <v>0.003119242719957778</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.002370077420456225</v>
+        <v>0.005489320140414004</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.005489320140416314</v>
+        <v>-2.309784308263119e-15</v>
       </c>
       <c r="AH13" t="n">
         <v>0.0006758959641481109</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.007562536585690705</v>
+        <v>0.008238432549838815</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.002018960612914131</v>
+        <v>0.01025739316275295</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.002035307208810479</v>
+        <v>0.008222085953942467</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.005443999008783137</v>
+        <v>0.00277808694515933</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.002532233089465141</v>
+        <v>0.00531032003462447</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.001481142370368007</v>
+        <v>0.006791462404992477</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.000589429005696099</v>
+        <v>0.007380891410688576</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0.002671473007772222</v>
+        <v>0.004709418402916353</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.001686944689331652</v>
+        <v>0.006396363092248005</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0001433107965108933</v>
+        <v>0.006539673888758898</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0005372704225321861</v>
+        <v>0.007076944311291084</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.001909088328415164</v>
+        <v>0.005167855982875919</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.001174044764910349</v>
+        <v>0.006341900747786268</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.0001474663879908775</v>
+        <v>0.00619443435979539</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0007200929907025526</v>
+        <v>0.006914527350497942</v>
       </c>
       <c r="AX13" t="n">
         <v>-0.01916041427801387</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.002593674423055737</v>
+        <v>-0.01656673985495813</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0.0008257419774659674</v>
+        <v>-0.0173924818324241</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.004494539801462485</v>
+        <v>-0.01289794203096161</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.009789284748096962</v>
+        <v>-0.02268722677905858</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.003876305847068418</v>
+        <v>-0.01881092093199016</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.001700514604430413</v>
+        <v>-0.02051143553642057</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.004482933991444961</v>
+        <v>-0.01602850154497561</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.006672025887563808</v>
+        <v>-0.02270052743253942</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.003403338068332104</v>
+        <v>-0.01929718936420731</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.002213110151963905</v>
+        <v>-0.02151029951617121</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.004057136899554598</v>
+        <v>-0.01745316261661662</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.00473674084104461</v>
+        <v>-0.02218990345766123</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.002978806512214799</v>
+        <v>-0.01921109694544643</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.002414066091048292</v>
+        <v>-0.02162516303649472</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.003406659559804096</v>
+        <v>-0.01821850347669062</v>
       </c>
     </row>
     <row r="14">
@@ -3153,193 +3153,193 @@
         <v>0.0516552290743626</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01470808662288823</v>
+        <v>0.06636331569725083</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.009546114852112472</v>
+        <v>0.05681720084513836</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00652632882325797</v>
+        <v>0.05029087202188039</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004827949401870914</v>
+        <v>0.05077366696206748</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00178710502608701</v>
+        <v>0.05256077198815449</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0004290221773556539</v>
+        <v>0.05298979416551014</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0003176793254985046</v>
+        <v>0.05267211484001164</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.000208487317845877</v>
+        <v>0.05246362752216576</v>
       </c>
       <c r="K14" t="n">
-        <v>1.519391793683705e-05</v>
+        <v>0.0524788214401026</v>
       </c>
       <c r="L14" t="n">
-        <v>5.793363548961743e-05</v>
+        <v>0.05253675507559221</v>
       </c>
       <c r="M14" t="n">
-        <v>1.435696064621676e-05</v>
+        <v>0.05255111203623843</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.027967596734893e-05</v>
+        <v>0.05254083236027108</v>
       </c>
       <c r="O14" t="n">
-        <v>-6.896739574661728e-06</v>
+        <v>0.05253393562069641</v>
       </c>
       <c r="P14" t="n">
-        <v>4.596461755835343e-07</v>
+        <v>0.052534395266872</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.905312130839832e-06</v>
+        <v>0.05253630057900284</v>
       </c>
       <c r="R14" t="n">
         <v>0.01116050538570891</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.006082821459333889</v>
+        <v>0.00507768392637502</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.007656688378597072</v>
+        <v>-0.002579004452222053</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0003782901818471765</v>
+        <v>-0.002200714270374876</v>
       </c>
       <c r="V14" t="n">
-        <v>0.00231915989528573</v>
+        <v>0.000118445624910854</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0004812761104757841</v>
+        <v>0.000599721735386638</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.0004590945358561479</v>
+        <v>0.0001406271995304901</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.0002493202329550739</v>
+        <v>-0.0001086930334245838</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.989332062961791e-05</v>
+        <v>-6.879971279496592e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.416341999107932e-05</v>
+        <v>5.363707196113406e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.310545755774903e-05</v>
+        <v>1.846916475386243e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>-1.459857454796304e-05</v>
+        <v>3.87059020589939e-06</v>
       </c>
       <c r="AD14" t="n">
-        <v>-7.941132135760842e-06</v>
+        <v>-4.070541929861451e-06</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.210952786748771e-06</v>
+        <v>-2.859589143112681e-06</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.409994894165029e-06</v>
+        <v>-4.495942489476518e-07</v>
       </c>
       <c r="AG14" t="n">
-        <v>4.495942563226199e-07</v>
+        <v>7.374968170373016e-15</v>
       </c>
       <c r="AH14" t="n">
         <v>0.001586826983802742</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.002156265995886442</v>
+        <v>0.003743092979689184</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.000268646610452665</v>
+        <v>0.003474446369236519</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.0007851309713398116</v>
+        <v>0.002689315397896707</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.0001093464301563776</v>
+        <v>0.002579968967740329</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0001785771193605189</v>
+        <v>0.002758546087100848</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.566646606087195e-05</v>
+        <v>0.00283421255316172</v>
       </c>
       <c r="AO14" t="n">
-        <v>-2.271755924951134e-05</v>
+        <v>0.002811494993912209</v>
       </c>
       <c r="AP14" t="n">
-        <v>-2.547806937410158e-05</v>
+        <v>0.002786016924538107</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-2.157353323356061e-06</v>
+        <v>0.002783859571214751</v>
       </c>
       <c r="AR14" t="n">
-        <v>5.717612521834326e-06</v>
+        <v>0.002789577183736585</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.347097570713905e-06</v>
+        <v>0.002791924281307299</v>
       </c>
       <c r="AT14" t="n">
-        <v>-7.110119970661167e-07</v>
+        <v>0.002791213269310233</v>
       </c>
       <c r="AU14" t="n">
-        <v>-8.231681599906479e-07</v>
+        <v>0.002790390101150242</v>
       </c>
       <c r="AV14" t="n">
-        <v>-7.80902732291459e-08</v>
+        <v>0.002790312010877013</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.857854398514674e-07</v>
+        <v>0.002790497796316864</v>
       </c>
       <c r="AX14" t="n">
         <v>-0.01192629848450967</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.0005558131788184649</v>
+        <v>-0.0113704853056912</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.000551119942915826</v>
+        <v>-0.01081936536277538</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.0002833565944039948</v>
+        <v>-0.01110272195717937</v>
       </c>
       <c r="BB14" t="n">
-        <v>8.293577159594978e-05</v>
+        <v>-0.01101978618558342</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.0001143573827125099</v>
+        <v>-0.01090542880287091</v>
       </c>
       <c r="BD14" t="n">
-        <v>-2.065692952888411e-05</v>
+        <v>-0.0109260857323998</v>
       </c>
       <c r="BE14" t="n">
-        <v>-3.532645431747607e-05</v>
+        <v>-0.01096141218671727</v>
       </c>
       <c r="BF14" t="n">
-        <v>-1.937995296174419e-06</v>
+        <v>-0.01096335018201345</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.13981461083241e-06</v>
+        <v>-0.01095521036740262</v>
       </c>
       <c r="BH14" t="n">
-        <v>2.638325614108075e-06</v>
+        <v>-0.01095257204178851</v>
       </c>
       <c r="BI14" t="n">
-        <v>-1.195604255462057e-06</v>
+        <v>-0.01095376764604397</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-1.006622129289285e-06</v>
+        <v>-0.01095477426817326</v>
       </c>
       <c r="BK14" t="n">
-        <v>-1.918705675359202e-08</v>
+        <v>-0.01095479345523001</v>
       </c>
       <c r="BL14" t="n">
-        <v>2.467961923221375e-07</v>
+        <v>-0.01095454665903769</v>
       </c>
       <c r="BM14" t="n">
-        <v>8.352571357759901e-08</v>
+        <v>-0.01095446313332411</v>
       </c>
     </row>
     <row r="15">
@@ -3352,193 +3352,193 @@
         <v>0.08008490897106037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02049750097137831</v>
+        <v>0.1005824099424387</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001392818018163969</v>
+        <v>0.1019752279606027</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01104359493790519</v>
+        <v>0.09093163302269747</v>
       </c>
       <c r="F15" t="n">
-        <v>6.577057204368286e-05</v>
+        <v>0.09099740359474115</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004334443218148775</v>
+        <v>0.09533184681288992</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003321949537820941</v>
+        <v>0.09865379635071087</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0007721055332187054</v>
+        <v>0.09942590188392957</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0002710481901137948</v>
+        <v>0.09915485369381577</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001285570352539435</v>
+        <v>0.1004404240463552</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004125706790729557</v>
+        <v>0.1008529947254281</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0004722271746882219</v>
+        <v>0.1013252219001164</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.000324548178657218</v>
+        <v>0.1010006737214592</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0009839031545346389</v>
+        <v>0.1019845768759938</v>
       </c>
       <c r="P15" t="n">
-        <v>7.318130400827289e-05</v>
+        <v>0.1020577581800021</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0002990047338804476</v>
+        <v>0.1023567629138825</v>
       </c>
       <c r="R15" t="n">
         <v>0.03229289491878035</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.003984354279537201</v>
+        <v>0.02830854063924314</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.005623448102711591</v>
+        <v>0.02268509253653155</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.00903181709412817</v>
+        <v>0.01365327544240338</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.002255908968536653</v>
+        <v>0.01139736647386673</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.00454496311176412</v>
+        <v>0.00685240336210261</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.0001831772385121747</v>
+        <v>0.006669226123590435</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.000911876622169982</v>
+        <v>0.005757349501420453</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.740649248066927e-05</v>
+        <v>0.005804755993901122</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.003382124547357773</v>
+        <v>0.002422631446543348</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.0004127823349160804</v>
+        <v>0.002009849111627268</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.0004418321659074234</v>
+        <v>0.001568016945719845</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.001086780673311211</v>
+        <v>0.002654797619031056</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.002036073167016095</v>
+        <v>0.0006187244520149604</v>
       </c>
       <c r="AF15" t="n">
-        <v>-8.999211361345843e-05</v>
+        <v>0.000528732338401502</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.0005287323384353274</v>
+        <v>-3.382537305807176e-14</v>
       </c>
       <c r="AH15" t="n">
         <v>0.01242830939211533</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.001418158724264716</v>
+        <v>0.01101015066785061</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0005394420252026828</v>
+        <v>0.0115495926930533</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.003070465034918146</v>
+        <v>0.00847912765813515</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.01230907816049443</v>
+        <v>0.02078820581862958</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.001214137968316363</v>
+        <v>0.01957406785031322</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0006954154149000813</v>
+        <v>0.0202694832652133</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.005818009565030841</v>
+        <v>0.01445147370018246</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.008654414569338287</v>
+        <v>0.02310588826952075</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.001231972637271113</v>
+        <v>0.02187391563224964</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.001856406486728626</v>
+        <v>0.02373032211897827</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.006125087744276806</v>
+        <v>0.01760523437470146</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.006261740032125088</v>
+        <v>0.02386697440682655</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.001477484656942829</v>
+        <v>0.02238948974988372</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.00268728738010636</v>
+        <v>0.02507677712999008</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.00573594438375501</v>
+        <v>0.01934083274623507</v>
       </c>
       <c r="AX15" t="n">
         <v>-0.03996281084950486</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.003574519183770013</v>
+        <v>-0.03638829166573485</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.002255009542441982</v>
+        <v>-0.03413328212329286</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.01067779366606054</v>
+        <v>-0.02345548845723232</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.02585354081152394</v>
+        <v>-0.04930902926875627</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.003137549310304285</v>
+        <v>-0.04617147995845199</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.0007482171399481523</v>
+        <v>-0.04691969709840014</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.01332427097702306</v>
+        <v>-0.03359542612137707</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.01848119988499445</v>
+        <v>-0.05207662600637152</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.002960851601958374</v>
+        <v>-0.04911577440441315</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0.003461092038109547</v>
+        <v>-0.0525768664425227</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.0136074298543592</v>
+        <v>-0.0389694365881635</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.01355917446475267</v>
+        <v>-0.05252861105291617</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.003190458355351557</v>
+        <v>-0.04933815269756461</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.005533049742910151</v>
+        <v>-0.05487120244047476</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.01264045896295691</v>
+        <v>-0.04223074347751785</v>
       </c>
     </row>
     <row r="16">
@@ -3551,193 +3551,193 @@
         <v>0.09384459625486963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01451295604730513</v>
+        <v>0.1083575523021748</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02094952901284065</v>
+        <v>0.08740802328933411</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01473554651246812</v>
+        <v>0.07267247677686599</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009996043239988726</v>
+        <v>0.06267643353687727</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003812252195129076</v>
+        <v>0.06648868573200635</v>
       </c>
       <c r="H16" t="n">
-        <v>0.008508556926387236</v>
+        <v>0.07499724265839358</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002715906475864006</v>
+        <v>0.07771314913425759</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.001957583172046556</v>
+        <v>0.07575556596221103</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.00174059023665473</v>
+        <v>0.07401497572555631</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0001052984651427186</v>
+        <v>0.07390967726041359</v>
       </c>
       <c r="M16" t="n">
-        <v>2.947905193742288e-05</v>
+        <v>0.07393915631235101</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0004922810195527746</v>
+        <v>0.07344687529279824</v>
       </c>
       <c r="O16" t="n">
-        <v>0.000596307636279711</v>
+        <v>0.07404318292907795</v>
       </c>
       <c r="P16" t="n">
-        <v>0.001026620173684756</v>
+        <v>0.07506980310276271</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.0002561763966580401</v>
+        <v>0.07481362670610467</v>
       </c>
       <c r="R16" t="n">
         <v>0.01700990841257951</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.006966356899237676</v>
+        <v>0.01004355151334183</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.009752469877074909</v>
+        <v>0.0002910816362669214</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.0006678851923385561</v>
+        <v>-0.0003768035560716347</v>
       </c>
       <c r="V16" t="n">
-        <v>0.006121309401051052</v>
+        <v>0.005744505844979417</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.003386948607789739</v>
+        <v>0.002357557237189678</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.002972902364645008</v>
+        <v>-0.0006153451274553295</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001139732380926102</v>
+        <v>0.0005243872534707724</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.006029267876082372</v>
+        <v>0.006553655129553144</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.004237484936640979</v>
+        <v>0.002316170192912166</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.00344845413440328</v>
+        <v>-0.001132283941491115</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.001005536436395486</v>
+        <v>-0.0001267475050956285</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.006110767916036017</v>
+        <v>0.005984020410940389</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.003708494000662608</v>
+        <v>0.002275526410277781</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.002972322492555613</v>
+        <v>-0.0006967960822778316</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0006967960822743688</v>
+        <v>-3.462833318701453e-15</v>
       </c>
       <c r="AH16" t="n">
         <v>0.003039417146948803</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.001762178634292179</v>
+        <v>0.004801595781240982</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.0005858565058235364</v>
+        <v>0.004215739275417445</v>
       </c>
       <c r="AK16" t="n">
-        <v>-6.897176692017198e-05</v>
+        <v>0.004146767508497274</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.001555316716114398</v>
+        <v>0.005702084224611672</v>
       </c>
       <c r="AM16" t="n">
-        <v>3.931749699441619e-06</v>
+        <v>0.005706015974311114</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.0011586441451952</v>
+        <v>0.004547371829115914</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.0001548764370008853</v>
+        <v>0.004392495392115029</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.001550032043472498</v>
+        <v>0.005942527435587526</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5.160250197055604e-05</v>
+        <v>0.005994129937558081</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.00114769598837642</v>
+        <v>0.004846433949181662</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.0002882711080095148</v>
+        <v>0.004558162841172147</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.001360276562771759</v>
+        <v>0.005918439403943906</v>
       </c>
       <c r="AU16" t="n">
-        <v>1.938687131388338e-05</v>
+        <v>0.00593782627525779</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.001031085864868294</v>
+        <v>0.004906740410389496</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.0002678068033338809</v>
+        <v>0.004638933607055615</v>
       </c>
       <c r="AX16" t="n">
         <v>-0.01267524135617442</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.004985655348787333</v>
+        <v>-0.007689586007387087</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.002182823677628697</v>
+        <v>-0.00550676232975839</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.002051204377530308</v>
+        <v>-0.003455557952228082</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.01109546159332651</v>
+        <v>-0.01455101954555459</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.005520498151716377</v>
+        <v>-0.009030521393838212</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.002107598617407283</v>
+        <v>-0.006922922776430928</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.002622377100971285</v>
+        <v>-0.004300545675459642</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0.010363406580223</v>
+        <v>-0.01466395225568264</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.005593268145367588</v>
+        <v>-0.009070684110315056</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.001640000340764262</v>
+        <v>-0.007430683769550794</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.002846177928438252</v>
+        <v>-0.004584505841112542</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.009892926655725769</v>
+        <v>-0.01447743249683831</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.005551854938222837</v>
+        <v>-0.008925577558615474</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.001151076784510728</v>
+        <v>-0.007774500774104746</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.003024479200304082</v>
+        <v>-0.004750021573800663</v>
       </c>
     </row>
     <row r="17">
@@ -3750,193 +3750,193 @@
         <v>0.139543713441247</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0290634147312792</v>
+        <v>0.1686071281725262</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02952187011611682</v>
+        <v>0.1390852580564094</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01109949505515588</v>
+        <v>0.1279857630012535</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0136071485377996</v>
+        <v>0.1143786144634539</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.002936351246916579</v>
+        <v>0.1114422632165374</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007518968865560013</v>
+        <v>0.1189612320820974</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005454450753467992</v>
+        <v>0.1244156828355654</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0009044531503147174</v>
+        <v>0.1253201359858801</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001026668546648288</v>
+        <v>0.1242934674392318</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001900900449587958</v>
+        <v>0.1223925669896438</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003705134748846874</v>
+        <v>0.1227630804645285</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000172027497813675</v>
+        <v>0.1229351079623422</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0001601219336772823</v>
+        <v>0.1227749860286649</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0002558708379716309</v>
+        <v>0.1225191151906933</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001066703670033544</v>
+        <v>0.1235858188607268</v>
       </c>
       <c r="R17" t="n">
         <v>0.01127486656826834</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00124627498080381</v>
+        <v>0.01002859158746453</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.003828858260354702</v>
+        <v>0.006199733327109824</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.005484303572058894</v>
+        <v>0.0007154297550509307</v>
       </c>
       <c r="V17" t="n">
-        <v>0.001575323997410763</v>
+        <v>0.002290753752461694</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0004742718225188076</v>
+        <v>0.002765025574980501</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0008559305319495971</v>
+        <v>0.003620956106930098</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.003272361684547728</v>
+        <v>0.0003485944223823702</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.002548067463179718</v>
+        <v>0.002896661885562088</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0002428782215850563</v>
+        <v>0.003139540107147145</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0001269236600130033</v>
+        <v>0.003266463767160148</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.003374105164459601</v>
+        <v>-0.0001076413972994532</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.002569875292477458</v>
+        <v>0.002462233895178005</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0004602554171022254</v>
+        <v>0.00292248931228023</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0003149251310019314</v>
+        <v>0.003237414443282161</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.003237414443272643</v>
+        <v>9.517994031815746e-15</v>
       </c>
       <c r="AH17" t="n">
         <v>0.01405565862506687</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.009779456703508122</v>
+        <v>0.02383511532857499</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0008299908304550793</v>
+        <v>0.02466510615903007</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.003387486192065575</v>
+        <v>0.0212776199669645</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.006096612841669796</v>
+        <v>0.02737423280863429</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.002220534394186469</v>
+        <v>0.02959476720282076</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.002350868216827891</v>
+        <v>0.02724389898599287</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.004043911685726616</v>
+        <v>0.02319998730026625</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.005913449988054716</v>
+        <v>0.02911343728832097</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.002260996568150145</v>
+        <v>0.03137443385647111</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.002626521682870816</v>
+        <v>0.02874791217360029</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.004549030191947322</v>
+        <v>0.02419888198165297</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.005259936697857782</v>
+        <v>0.02945881867951075</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.00204973927795439</v>
+        <v>0.03150855795746514</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0.0025585198194883</v>
+        <v>0.02895003813797684</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0.004468771227134445</v>
+        <v>0.0244812669108424</v>
       </c>
       <c r="AX17" t="n">
         <v>-0.0256079014477279</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.008953514344171283</v>
+        <v>-0.01665438710355661</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.00560979162481151</v>
+        <v>-0.0110445954787451</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.003511485148837577</v>
+        <v>-0.007533110329907526</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.02293755189261376</v>
+        <v>-0.03047066222252129</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.009730096424327206</v>
+        <v>-0.02074056579819408</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.006630371483889611</v>
+        <v>-0.01411019431430447</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.004498304723828633</v>
+        <v>-0.009611889590475837</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0.0216096785733148</v>
+        <v>-0.03122156816379064</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.009592530588479087</v>
+        <v>-0.02162903757531155</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.006728115222927294</v>
+        <v>-0.01490092235238426</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.004701702787112659</v>
+        <v>-0.0101992195652716</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.02084647598198663</v>
+        <v>-0.03104569554725823</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.009141879682961058</v>
+        <v>-0.02190381586429717</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.006643144443703022</v>
+        <v>-0.01526067142059415</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.004791362038764907</v>
+        <v>-0.01046930938182924</v>
       </c>
     </row>
     <row r="18">
@@ -3949,193 +3949,193 @@
         <v>0.07923756672349065</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02082020702659378</v>
+        <v>0.1000577737500844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005524471117922476</v>
+        <v>0.1055822448680069</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00149316360339195</v>
+        <v>0.1070754084713989</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0004172780315380647</v>
+        <v>0.1074926865029369</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001233670354644427</v>
+        <v>0.1076160535384014</v>
       </c>
       <c r="H18" t="n">
-        <v>3.969356702460635e-05</v>
+        <v>0.107655747105426</v>
       </c>
       <c r="I18" t="n">
-        <v>1.422278714904763e-05</v>
+        <v>0.107669969892575</v>
       </c>
       <c r="J18" t="n">
-        <v>5.69720605089454e-06</v>
+        <v>0.1076756670986259</v>
       </c>
       <c r="K18" t="n">
-        <v>2.505586642023372e-06</v>
+        <v>0.1076781726852679</v>
       </c>
       <c r="L18" t="n">
-        <v>1.176264008529106e-06</v>
+        <v>0.1076793489492765</v>
       </c>
       <c r="M18" t="n">
-        <v>5.747219187646665e-07</v>
+        <v>0.1076799236711952</v>
       </c>
       <c r="N18" t="n">
-        <v>2.871992679152815e-07</v>
+        <v>0.1076802108704631</v>
       </c>
       <c r="O18" t="n">
-        <v>1.452614243969571e-07</v>
+        <v>0.1076803561318875</v>
       </c>
       <c r="P18" t="n">
-        <v>7.393582954299339e-08</v>
+        <v>0.1076804300677171</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.775458608489556e-08</v>
+        <v>0.1076804678223032</v>
       </c>
       <c r="R18" t="n">
         <v>0.0003837090142036787</v>
       </c>
       <c r="S18" t="n">
-        <v>-8.734280006580362e-05</v>
+        <v>0.0002963662141378751</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0001185871307747091</v>
+        <v>0.000177779083363166</v>
       </c>
       <c r="U18" t="n">
-        <v>-7.996019490642786e-05</v>
+        <v>9.78188884567381e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>-4.596176085135439e-05</v>
+        <v>5.185712760538371e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>-2.484764320412645e-05</v>
+        <v>2.700948440125727e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>-1.306875570470313e-05</v>
+        <v>1.394072869655414e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>-6.783811298040876e-06</v>
+        <v>7.156917398513259e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>-3.498641917734991e-06</v>
+        <v>3.658275480778268e-06</v>
       </c>
       <c r="AA18" t="n">
-        <v>-1.798531480565123e-06</v>
+        <v>1.859744000213145e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>-9.230552531041896e-07</v>
+        <v>9.366887471089551e-07</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.733462315546247e-07</v>
+        <v>4.633425155543304e-07</v>
       </c>
       <c r="AD18" t="n">
-        <v>-2.426322840981256e-07</v>
+        <v>2.207102314562049e-07</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.243443887659355e-07</v>
+        <v>9.63658426902694e-08</v>
       </c>
       <c r="AF18" t="n">
-        <v>-6.371726109070593e-08</v>
+        <v>3.264858159956346e-08</v>
       </c>
       <c r="AG18" t="n">
-        <v>-3.264858116784862e-08</v>
+        <v>4.317148393491755e-16</v>
       </c>
       <c r="AH18" t="n">
         <v>0.00150620972588517</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.002280905007242804</v>
+        <v>0.003787114733127974</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.001561102822921151</v>
+        <v>0.005348217556049125</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0009019084464534175</v>
+        <v>0.006250126002502542</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0004886459527438919</v>
+        <v>0.006738771955246434</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.000257267335851794</v>
+        <v>0.006996039291098228</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0001336101237806187</v>
+        <v>0.007129649414878847</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.892426804780275e-05</v>
+        <v>0.007198573682926649</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.543598454084734e-05</v>
+        <v>0.007234009667467497</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.818784816973696e-05</v>
+        <v>0.007252197515637234</v>
       </c>
       <c r="AR18" t="n">
-        <v>9.327092755397063e-06</v>
+        <v>0.007261524608392631</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.781046059709338e-06</v>
+        <v>0.00726630565445234</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.450214284963972e-06</v>
+        <v>0.007268755868737304</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.255557967116896e-06</v>
+        <v>0.007270011426704422</v>
       </c>
       <c r="AV18" t="n">
-        <v>6.433464243306444e-07</v>
+        <v>0.007270654773128753</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.296404839568482e-07</v>
+        <v>0.007270984413612709</v>
       </c>
       <c r="AX18" t="n">
         <v>-0.006583410977599945</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.003351469633069661</v>
+        <v>-0.009934880610669605</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.001711555107756271</v>
+        <v>-0.01164643571842588</v>
       </c>
       <c r="BA18" t="n">
-        <v>-0.0008754826838070544</v>
+        <v>-0.01252191840223293</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.0004481891872274848</v>
+        <v>-0.01297010758946042</v>
       </c>
       <c r="BC18" t="n">
-        <v>-0.000229539160287585</v>
+        <v>-0.013199646749748</v>
       </c>
       <c r="BD18" t="n">
-        <v>-0.0001175829782348789</v>
+        <v>-0.01331722972798288</v>
       </c>
       <c r="BE18" t="n">
-        <v>-6.023916829202413e-05</v>
+        <v>-0.0133774688962749</v>
       </c>
       <c r="BF18" t="n">
-        <v>-3.086293737288521e-05</v>
+        <v>-0.01340833183364779</v>
       </c>
       <c r="BG18" t="n">
-        <v>-1.581275777045438e-05</v>
+        <v>-0.01342414459141824</v>
       </c>
       <c r="BH18" t="n">
-        <v>-8.101848259698886e-06</v>
+        <v>-0.01343224643967794</v>
       </c>
       <c r="BI18" t="n">
-        <v>-4.15110483011192e-06</v>
+        <v>-0.01343639754450805</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-2.126889244237563e-06</v>
+        <v>-0.01343852443375229</v>
       </c>
       <c r="BK18" t="n">
-        <v>-1.089749930288387e-06</v>
+        <v>-0.01343961418368258</v>
       </c>
       <c r="BL18" t="n">
-        <v>-5.583534851276079e-07</v>
+        <v>-0.01344017253716771</v>
       </c>
       <c r="BM18" t="n">
-        <v>-2.860828468720562e-07</v>
+        <v>-0.01344045862001458</v>
       </c>
     </row>
     <row r="19">
@@ -4148,193 +4148,193 @@
         <v>0.04040861222662547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01550535418286673</v>
+        <v>0.0559139664094922</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.008141324349192758</v>
+        <v>0.04777264206029944</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01067587013389464</v>
+        <v>0.0370967719264048</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01026165241846269</v>
+        <v>0.02683511950794211</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007078674539528265</v>
+        <v>0.03391379404747037</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01122382282496107</v>
+        <v>0.04513761687243144</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00786216196806549</v>
+        <v>0.05299977884049693</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.005625029370614279</v>
+        <v>0.04737474946988265</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.004770846710725585</v>
+        <v>0.04260390275915706</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.001635704877067478</v>
+        <v>0.04096819788208959</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004815157881958195</v>
+        <v>0.04578335576404778</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0007712031513981196</v>
+        <v>0.0465545589154459</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001661259000261881</v>
+        <v>0.04821581791570778</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0007578957200531799</v>
+        <v>0.0474579221956546</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0006193433432732943</v>
+        <v>0.0480772655389279</v>
       </c>
       <c r="R19" t="n">
         <v>0.03291068079144724</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.006446989318374365</v>
+        <v>0.02646369147307287</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01578486942741848</v>
+        <v>0.01067882204565439</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.01240741573867901</v>
+        <v>-0.001728593693024617</v>
       </c>
       <c r="V19" t="n">
-        <v>0.004616779098550458</v>
+        <v>0.002888185405525841</v>
       </c>
       <c r="W19" t="n">
-        <v>0.002081451676353098</v>
+        <v>0.004969637081878938</v>
       </c>
       <c r="X19" t="n">
-        <v>0.003857446429022549</v>
+        <v>0.008827083510901487</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.001630116907978952</v>
+        <v>0.007196966602922536</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.001693888916419898</v>
+        <v>0.008890855519342433</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.006981740465776082</v>
+        <v>0.001909115053566351</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.001763329351572734</v>
+        <v>0.0001457857019936172</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0006938787139644281</v>
+        <v>0.0008396644159580453</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.006919852450413499</v>
+        <v>0.007759516866371544</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.00284533905371283</v>
+        <v>0.004914177812658714</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.002547822883868376</v>
+        <v>0.002366354928790339</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.002366354928797499</v>
+        <v>-7.160504827963265e-15</v>
       </c>
       <c r="AH19" t="n">
         <v>0.01565489832375624</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.005362476457165839</v>
+        <v>0.02101737478092208</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.001248344702052583</v>
+        <v>0.02226571948297466</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.005737091267630159</v>
+        <v>0.0165286282153445</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.0103600759683076</v>
+        <v>0.0268887041836521</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.001809850800998988</v>
+        <v>0.02869855498465108</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.0003273601260847473</v>
+        <v>0.02902591511073583</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.004779749819872365</v>
+        <v>0.02424616529086347</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.008645642835034781</v>
+        <v>0.03289180812589824</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.0006065837143575848</v>
+        <v>0.03349839184025583</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.0009299125277487353</v>
+        <v>0.03256847931250709</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.005147721517132298</v>
+        <v>0.0274207577953748</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.007230345939561661</v>
+        <v>0.03465110373493646</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.0006941453622673929</v>
+        <v>0.03534524909720385</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.0007780175895356887</v>
+        <v>0.03456723150766816</v>
       </c>
       <c r="AW19" t="n">
-        <v>-0.004920908304253646</v>
+        <v>0.02964632320341452</v>
       </c>
       <c r="AX19" t="n">
         <v>-0.0216457408154606</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.008985614444063121</v>
+        <v>-0.01266012637139747</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.00325513219545284</v>
+        <v>-0.009404994175944634</v>
       </c>
       <c r="BA19" t="n">
-        <v>-0.001000265151093202</v>
+        <v>-0.01040525932703784</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.01830604334361614</v>
+        <v>-0.02871130267065397</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.008165526174584496</v>
+        <v>-0.02054577649606948</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.004492261681401714</v>
+        <v>-0.01605351481466776</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.001112379091964906</v>
+        <v>-0.01494113572270286</v>
       </c>
       <c r="BF19" t="n">
-        <v>-0.01530503441202021</v>
+        <v>-0.03024617013472307</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.006873333866661999</v>
+        <v>-0.02337283626806107</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.003862669245360789</v>
+        <v>-0.01951016702270028</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.00150404046393863</v>
+        <v>-0.01800612655876165</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-0.012817922021351</v>
+        <v>-0.03082404858011265</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.006252588642328317</v>
+        <v>-0.02457145993778433</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.003591267962280425</v>
+        <v>-0.02098019197550391</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.001543954934111376</v>
+        <v>-0.01943623704139253</v>
       </c>
     </row>
     <row r="20">
